--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E1F2A8-BE88-4FDB-B19C-29974012CB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2F822-3CDA-45EC-9A30-EFE573043905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="snmptn" sheetId="1" r:id="rId1"/>
@@ -6950,7 +6950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB412"/>
   <sheetViews>
-    <sheetView topLeftCell="K337" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K337" workbookViewId="0">
       <selection activeCell="T412" sqref="T412"/>
     </sheetView>
   </sheetViews>
@@ -7974,9 +7974,9 @@
       <c r="T12" t="s">
         <v>81</v>
       </c>
-      <c r="Z12" t="e">
+      <c r="Z12" t="str">
         <f>VLOOKUP(A12,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA12">
         <f>VLOOKUP(D12,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -8566,9 +8566,9 @@
       <c r="T20" t="s">
         <v>81</v>
       </c>
-      <c r="Z20" t="e">
+      <c r="Z20" t="str">
         <f>VLOOKUP(A20,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA20">
         <f>VLOOKUP(D20,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -9009,9 +9009,9 @@
       <c r="T26" t="s">
         <v>81</v>
       </c>
-      <c r="Z26" t="e">
+      <c r="Z26" t="str">
         <f>VLOOKUP(A26,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA26">
         <f>VLOOKUP(D26,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -11005,9 +11005,9 @@
       <c r="T53" t="s">
         <v>82</v>
       </c>
-      <c r="Z53" t="e">
+      <c r="Z53" t="str">
         <f>VLOOKUP(A53,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA53">
         <f>VLOOKUP(D53,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -11301,9 +11301,9 @@
       <c r="T57" t="s">
         <v>81</v>
       </c>
-      <c r="Z57" t="e">
+      <c r="Z57" t="str">
         <f>VLOOKUP(A57,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA57">
         <f>VLOOKUP(D57,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -11375,9 +11375,9 @@
       <c r="T58" t="s">
         <v>81</v>
       </c>
-      <c r="Z58" t="e">
+      <c r="Z58" t="str">
         <f>VLOOKUP(A58,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA58">
         <f>VLOOKUP(D58,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -11966,9 +11966,9 @@
       <c r="T66" t="s">
         <v>108</v>
       </c>
-      <c r="Z66" t="e">
+      <c r="Z66" t="str">
         <f>VLOOKUP(A66,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA66">
         <f>VLOOKUP(D66,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -12040,9 +12040,9 @@
       <c r="T67" t="s">
         <v>81</v>
       </c>
-      <c r="Z67" t="e">
+      <c r="Z67" t="str">
         <f>VLOOKUP(A67,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA67">
         <f>VLOOKUP(D67,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -13148,9 +13148,9 @@
       <c r="T82" t="s">
         <v>82</v>
       </c>
-      <c r="Z82" t="e">
+      <c r="Z82" t="str">
         <f>VLOOKUP(A82,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA82">
         <f>VLOOKUP(D82,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -13664,9 +13664,9 @@
       <c r="T89" t="s">
         <v>81</v>
       </c>
-      <c r="Z89" t="e">
+      <c r="Z89" t="str">
         <f>VLOOKUP(A89,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA89">
         <f>VLOOKUP(D89,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -13886,9 +13886,9 @@
       <c r="T92" t="s">
         <v>81</v>
       </c>
-      <c r="Z92" t="e">
+      <c r="Z92" t="str">
         <f>VLOOKUP(A92,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA92">
         <f>VLOOKUP(D92,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -14034,9 +14034,9 @@
       <c r="T94" t="s">
         <v>81</v>
       </c>
-      <c r="Z94" t="e">
+      <c r="Z94" t="str">
         <f>VLOOKUP(A94,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA94">
         <f>VLOOKUP(D94,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -14330,9 +14330,9 @@
       <c r="T98" t="s">
         <v>81</v>
       </c>
-      <c r="Z98" t="e">
+      <c r="Z98" t="str">
         <f>VLOOKUP(A98,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA98">
         <f>VLOOKUP(D98,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -15070,9 +15070,9 @@
       <c r="T108" t="s">
         <v>81</v>
       </c>
-      <c r="Z108" t="e">
+      <c r="Z108" t="str">
         <f>VLOOKUP(A108,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA108">
         <f>VLOOKUP(D108,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -15218,9 +15218,9 @@
       <c r="T110" t="s">
         <v>81</v>
       </c>
-      <c r="Z110" t="e">
+      <c r="Z110" t="str">
         <f>VLOOKUP(A110,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA110">
         <f>VLOOKUP(D110,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -15514,9 +15514,9 @@
       <c r="T114" t="s">
         <v>82</v>
       </c>
-      <c r="Z114" t="e">
+      <c r="Z114" t="str">
         <f>VLOOKUP(A114,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA114">
         <f>VLOOKUP(D114,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -16401,9 +16401,9 @@
       <c r="T126" t="s">
         <v>81</v>
       </c>
-      <c r="Z126" t="e">
+      <c r="Z126" t="str">
         <f>VLOOKUP(A126,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA126">
         <f>VLOOKUP(D126,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -16771,9 +16771,9 @@
       <c r="T131" t="s">
         <v>81</v>
       </c>
-      <c r="Z131" t="e">
+      <c r="Z131" t="str">
         <f>VLOOKUP(A131,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA131">
         <f>VLOOKUP(D131,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -19137,9 +19137,9 @@
       <c r="T163" t="s">
         <v>110</v>
       </c>
-      <c r="Z163" t="e">
+      <c r="Z163" t="str">
         <f>VLOOKUP(A163,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA163">
         <f>VLOOKUP(D163,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -19358,9 +19358,9 @@
       <c r="T166" t="s">
         <v>81</v>
       </c>
-      <c r="Z166" t="e">
+      <c r="Z166" t="str">
         <f>VLOOKUP(A166,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA166">
         <f>VLOOKUP(D166,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -20689,9 +20689,9 @@
       <c r="T184" t="s">
         <v>81</v>
       </c>
-      <c r="Z184" t="e">
+      <c r="Z184" t="str">
         <f>VLOOKUP(A184,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA184">
         <f>VLOOKUP(D184,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -21059,9 +21059,9 @@
       <c r="T189" t="s">
         <v>81</v>
       </c>
-      <c r="Z189" t="e">
+      <c r="Z189" t="str">
         <f>VLOOKUP(A189,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA189">
         <f>VLOOKUP(D189,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -22095,9 +22095,9 @@
       <c r="T203" t="s">
         <v>81</v>
       </c>
-      <c r="Z203" t="e">
+      <c r="Z203" t="str">
         <f>VLOOKUP(A203,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA203">
         <f>VLOOKUP(D203,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -23501,9 +23501,9 @@
       <c r="T222" t="s">
         <v>81</v>
       </c>
-      <c r="Z222" t="e">
+      <c r="Z222" t="str">
         <f>VLOOKUP(A222,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA222">
         <f>VLOOKUP(D222,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -24093,9 +24093,9 @@
       <c r="T230" t="s">
         <v>81</v>
       </c>
-      <c r="Z230" t="e">
+      <c r="Z230" t="str">
         <f>VLOOKUP(A230,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA230">
         <f>VLOOKUP(D230,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -24611,9 +24611,9 @@
       <c r="T237" t="s">
         <v>81</v>
       </c>
-      <c r="Z237" t="e">
+      <c r="Z237" t="str">
         <f>VLOOKUP(A237,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA237">
         <f>VLOOKUP(D237,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -24981,9 +24981,9 @@
       <c r="T242" t="s">
         <v>81</v>
       </c>
-      <c r="Z242" t="e">
+      <c r="Z242" t="str">
         <f>VLOOKUP(A242,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA242">
         <f>VLOOKUP(D242,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -25055,9 +25055,9 @@
       <c r="T243" t="s">
         <v>79</v>
       </c>
-      <c r="Z243" t="e">
+      <c r="Z243" t="str">
         <f>VLOOKUP(A243,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA243">
         <f>VLOOKUP(D243,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -25721,9 +25721,9 @@
       <c r="T252" t="s">
         <v>81</v>
       </c>
-      <c r="Z252" t="e">
+      <c r="Z252" t="str">
         <f>VLOOKUP(A252,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA252">
         <f>VLOOKUP(D252,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -27348,9 +27348,9 @@
       <c r="T274" t="s">
         <v>81</v>
       </c>
-      <c r="Z274" t="e">
+      <c r="Z274" t="str">
         <f>VLOOKUP(A274,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA274">
         <f>VLOOKUP(D274,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -27422,9 +27422,9 @@
       <c r="T275" t="s">
         <v>82</v>
       </c>
-      <c r="Z275" t="e">
+      <c r="Z275" t="str">
         <f>VLOOKUP(A275,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA275">
         <f>VLOOKUP(D275,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -28902,9 +28902,9 @@
       <c r="T295" t="s">
         <v>80</v>
       </c>
-      <c r="Z295" t="e">
+      <c r="Z295" t="str">
         <f>VLOOKUP(A295,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA295">
         <f>VLOOKUP(D295,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -29864,9 +29864,9 @@
       <c r="T308" t="s">
         <v>81</v>
       </c>
-      <c r="Z308" t="e">
+      <c r="Z308" t="str">
         <f>VLOOKUP(A308,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA308">
         <f>VLOOKUP(D308,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30086,9 +30086,9 @@
       <c r="T311" t="s">
         <v>81</v>
       </c>
-      <c r="Z311" t="e">
+      <c r="Z311" t="str">
         <f>VLOOKUP(A311,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA311">
         <f>VLOOKUP(D311,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30677,9 +30677,9 @@
       <c r="T319" t="s">
         <v>81</v>
       </c>
-      <c r="Z319" t="e">
+      <c r="Z319" t="str">
         <f>VLOOKUP(A319,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA319">
         <f>VLOOKUP(D319,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -32156,9 +32156,9 @@
       <c r="T339" t="s">
         <v>81</v>
       </c>
-      <c r="Z339" t="e">
+      <c r="Z339" t="str">
         <f>VLOOKUP(A339,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA339">
         <f>VLOOKUP(D339,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -32452,9 +32452,9 @@
       <c r="T343" t="s">
         <v>81</v>
       </c>
-      <c r="Z343" t="e">
+      <c r="Z343" t="str">
         <f>VLOOKUP(A343,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA343">
         <f>VLOOKUP(D343,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -32748,9 +32748,9 @@
       <c r="T347" t="s">
         <v>81</v>
       </c>
-      <c r="Z347" t="e">
+      <c r="Z347" t="str">
         <f>VLOOKUP(A347,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA347">
         <f>VLOOKUP(D347,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -32822,9 +32822,9 @@
       <c r="T348" t="s">
         <v>81</v>
       </c>
-      <c r="Z348" t="e">
+      <c r="Z348" t="str">
         <f>VLOOKUP(A348,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA348">
         <f>VLOOKUP(D348,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -33192,9 +33192,9 @@
       <c r="T353" t="s">
         <v>81</v>
       </c>
-      <c r="Z353" t="e">
+      <c r="Z353" t="str">
         <f>VLOOKUP(A353,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA353">
         <f>VLOOKUP(D353,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -33931,9 +33931,9 @@
       <c r="T363" t="s">
         <v>98</v>
       </c>
-      <c r="Z363" t="e">
+      <c r="Z363" t="str">
         <f>VLOOKUP(A363,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA363">
         <f>VLOOKUP(D363,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -34449,9 +34449,9 @@
       <c r="T370" t="s">
         <v>81</v>
       </c>
-      <c r="Z370" t="e">
+      <c r="Z370" t="str">
         <f>VLOOKUP(A370,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA370">
         <f>VLOOKUP(D370,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -34671,9 +34671,9 @@
       <c r="T373" t="s">
         <v>81</v>
       </c>
-      <c r="Z373" t="e">
+      <c r="Z373" t="str">
         <f>VLOOKUP(A373,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA373">
         <f>VLOOKUP(D373,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -34819,9 +34819,9 @@
       <c r="T375" t="s">
         <v>81</v>
       </c>
-      <c r="Z375" t="e">
+      <c r="Z375" t="str">
         <f>VLOOKUP(A375,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA375">
         <f>VLOOKUP(D375,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -35188,9 +35188,9 @@
       <c r="T380" t="s">
         <v>81</v>
       </c>
-      <c r="Z380" t="e">
+      <c r="Z380" t="str">
         <f>VLOOKUP(A380,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA380">
         <f>VLOOKUP(D380,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -35779,9 +35779,9 @@
       <c r="T388" t="s">
         <v>81</v>
       </c>
-      <c r="Z388" t="e">
+      <c r="Z388" t="str">
         <f>VLOOKUP(A388,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA388">
         <f>VLOOKUP(D388,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -36814,9 +36814,9 @@
       <c r="T402" t="s">
         <v>81</v>
       </c>
-      <c r="Z402" t="e">
+      <c r="Z402" t="str">
         <f>VLOOKUP(A402,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA402">
         <f>VLOOKUP(D402,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -37479,9 +37479,9 @@
       <c r="T411" t="s">
         <v>81</v>
       </c>
-      <c r="Z411" t="e">
+      <c r="Z411" t="str">
         <f>VLOOKUP(A411,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA411">
         <f>VLOOKUP(D411,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -37577,8 +37577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D88B47-792B-4051-BCF3-A0949AF380CC}">
   <dimension ref="A1:C2465"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37628,7 +37628,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>42331110778</v>
+        <v>42331111522</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -37640,7 +37640,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>42331111577</v>
+        <v>42331110778</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -37652,7 +37652,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>42331110641</v>
+        <v>42331111577</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -37664,7 +37664,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>42332210383</v>
+        <v>42331111790</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -37676,7 +37676,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>42331110808</v>
+        <v>42331110641</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -37688,7 +37688,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>42331111102</v>
+        <v>42332210383</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -37700,7 +37700,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>42331110122</v>
+        <v>42332211062</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -37712,7 +37712,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>42331112128</v>
+        <v>42331110808</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -37724,7 +37724,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>42331111616</v>
+        <v>42331111102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -37736,7 +37736,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>42331111376</v>
+        <v>42331110122</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -37748,7 +37748,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>42331111087</v>
+        <v>42331112128</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -37760,7 +37760,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>42331110609</v>
+        <v>42331111616</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -37772,7 +37772,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>42331111497</v>
+        <v>42331111376</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -37784,7 +37784,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>42331110025</v>
+        <v>42331110117</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
@@ -37796,7 +37796,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>42331111814</v>
+        <v>42331111087</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -37808,7 +37808,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>42331111831</v>
+        <v>42331111294</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
@@ -37820,7 +37820,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>42331112152</v>
+        <v>42331112022</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -37832,7 +37832,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>42331112027</v>
+        <v>42331110609</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>23</v>
@@ -37844,7 +37844,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>42331111442</v>
+        <v>42331110818</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
@@ -37856,7 +37856,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>42331110314</v>
+        <v>42331111502</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -37868,7 +37868,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>42332410323</v>
+        <v>42331111497</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -37880,7 +37880,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>42331111711</v>
+        <v>42331110025</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
@@ -37892,7 +37892,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>42331110698</v>
+        <v>42331111814</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
@@ -37904,7 +37904,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>42331111010</v>
+        <v>42331111831</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>23</v>
@@ -37916,7 +37916,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>42331111860</v>
+        <v>42331112152</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>23</v>
@@ -37928,7 +37928,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>42331110944</v>
+        <v>42331111690</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>23</v>
@@ -37940,7 +37940,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>42331110442</v>
+        <v>42331112027</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>23</v>
@@ -37952,7 +37952,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>42331111130</v>
+        <v>42331111442</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>23</v>
@@ -37964,7 +37964,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>42332211161</v>
+        <v>42331112084</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>23</v>
@@ -37976,7 +37976,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>42332210245</v>
+        <v>42331110335</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>23</v>
@@ -37988,7 +37988,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>42332220280</v>
+        <v>42331110314</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>23</v>
@@ -38000,7 +38000,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>42331110396</v>
+        <v>42331111541</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>23</v>
@@ -38012,7 +38012,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>42331111826</v>
+        <v>42332410323</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>23</v>
@@ -38024,7 +38024,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>42331110510</v>
+        <v>42331111370</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>23</v>
@@ -38036,7 +38036,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>42333111762</v>
+        <v>42331111711</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>23</v>
@@ -38048,7 +38048,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>42331111076</v>
+        <v>42331110698</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>23</v>
@@ -38060,7 +38060,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>42331111835</v>
+        <v>42331111150</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
@@ -38072,7 +38072,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>42331111970</v>
+        <v>42331111010</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
@@ -38084,7 +38084,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>42331110472</v>
+        <v>42331110371</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>23</v>
@@ -38096,7 +38096,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>42332210744</v>
+        <v>42331111860</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>23</v>
@@ -38108,7 +38108,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>42331110559</v>
+        <v>42332410410</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
@@ -38120,7 +38120,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>42331112032</v>
+        <v>42331110944</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
@@ -38132,7 +38132,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>42331111629</v>
+        <v>42331110442</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>23</v>
@@ -38144,7 +38144,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>42331110058</v>
+        <v>42331111713</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>23</v>
@@ -38156,7 +38156,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>42331110121</v>
+        <v>42331111130</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
@@ -38168,7 +38168,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>42331111570</v>
+        <v>42332211161</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>23</v>
@@ -38180,7 +38180,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>42331111516</v>
+        <v>42331110017</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>23</v>
@@ -38192,7 +38192,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>42331110430</v>
+        <v>42332210245</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>23</v>
@@ -38204,7 +38204,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>42331110964</v>
+        <v>42332220280</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>23</v>
@@ -38216,7 +38216,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>42331111696</v>
+        <v>42331110396</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>23</v>
@@ -38228,7 +38228,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>42332211301</v>
+        <v>42331111826</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>23</v>
@@ -38240,7 +38240,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>42331111098</v>
+        <v>42331110510</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
@@ -38252,7 +38252,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>42331111605</v>
+        <v>42333111762</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>23</v>
@@ -38264,7 +38264,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>42331110856</v>
+        <v>42331111076</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>23</v>
@@ -38276,7 +38276,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>42331111549</v>
+        <v>42331111835</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>23</v>
@@ -38288,7 +38288,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>42331110649</v>
+        <v>42331111970</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>23</v>
@@ -38300,7 +38300,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>42331111529</v>
+        <v>42315112136</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>23</v>
@@ -38312,7 +38312,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>42331111913</v>
+        <v>42331110472</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>23</v>
@@ -38324,7 +38324,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>42331110832</v>
+        <v>42331111895</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
@@ -38336,7 +38336,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>42331110704</v>
+        <v>42332210744</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
@@ -38348,7 +38348,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>42331110930</v>
+        <v>42331110559</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>23</v>
@@ -38360,7 +38360,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>42331110080</v>
+        <v>42331112032</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>23</v>
@@ -38372,7 +38372,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>42332220058</v>
+        <v>42331111629</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>23</v>
@@ -38384,7 +38384,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>42331111503</v>
+        <v>42331111188</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>23</v>
@@ -38396,7 +38396,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>42331110521</v>
+        <v>42331110881</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>23</v>
@@ -38408,7 +38408,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>42331112145</v>
+        <v>42331110058</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>23</v>
@@ -38420,7 +38420,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>42331111773</v>
+        <v>42331110121</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>23</v>
@@ -38432,7 +38432,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>42331110393</v>
+        <v>42331111570</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>23</v>
@@ -38444,7 +38444,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>42331111736</v>
+        <v>42331111516</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>23</v>
@@ -38456,7 +38456,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>42331111949</v>
+        <v>42331110430</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>23</v>
@@ -38468,7 +38468,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>42331111092</v>
+        <v>42331110964</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>23</v>
@@ -38480,7 +38480,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>42332210310</v>
+        <v>42331111696</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>23</v>
@@ -38492,7 +38492,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>42331111793</v>
+        <v>42331111303</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>23</v>
@@ -38504,7 +38504,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>42331110752</v>
+        <v>42332211301</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>23</v>
@@ -38516,7 +38516,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>42331112066</v>
+        <v>42331111098</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>23</v>
@@ -38528,7 +38528,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>42331110885</v>
+        <v>42331111605</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>23</v>
@@ -38540,7 +38540,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>42331110928</v>
+        <v>42331111542</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>23</v>
@@ -38552,7 +38552,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>42331111740</v>
+        <v>42331110856</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>23</v>
@@ -38564,7 +38564,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>42331110578</v>
+        <v>42331111728</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>23</v>
@@ -38576,7 +38576,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>42331110793</v>
+        <v>42331111549</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
@@ -38588,7 +38588,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>42331111062</v>
+        <v>42331110649</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
@@ -38600,7 +38600,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>42331111552</v>
+        <v>42332211044</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>23</v>
@@ -38612,7 +38612,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>42331111216</v>
+        <v>42331111529</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
@@ -38624,7 +38624,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>42331111967</v>
+        <v>42331110741</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>23</v>
@@ -38636,7 +38636,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>42331111408</v>
+        <v>42331110414</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>23</v>
@@ -38648,7 +38648,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>42332210422</v>
+        <v>42331110754</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>23</v>
@@ -38660,7 +38660,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>42331111219</v>
+        <v>42331111913</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>23</v>
@@ -38672,7 +38672,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>42331111753</v>
+        <v>42331110832</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>23</v>
@@ -38684,7 +38684,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>42331110957</v>
+        <v>42331110906</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>23</v>
@@ -38695,6 +38695,9 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
+      <c r="B93" s="2">
+        <v>42333410160</v>
+      </c>
       <c r="C93" s="2" t="s">
         <v>23</v>
       </c>
@@ -38704,6 +38707,9 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
+      <c r="B94" s="2">
+        <v>42331110704</v>
+      </c>
       <c r="C94" s="2" t="s">
         <v>23</v>
       </c>
@@ -38713,6 +38719,9 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
+      <c r="B95" s="2">
+        <v>42331110930</v>
+      </c>
       <c r="C95" s="2" t="s">
         <v>23</v>
       </c>
@@ -38722,6 +38731,9 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
+      <c r="B96" s="2">
+        <v>42331110080</v>
+      </c>
       <c r="C96" s="2" t="s">
         <v>23</v>
       </c>
@@ -38731,6 +38743,9 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
+      <c r="B97" s="2">
+        <v>42333410264</v>
+      </c>
       <c r="C97" s="2" t="s">
         <v>23</v>
       </c>
@@ -38740,6 +38755,9 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
+      <c r="B98" s="2">
+        <v>42332220058</v>
+      </c>
       <c r="C98" s="2" t="s">
         <v>23</v>
       </c>
@@ -38749,6 +38767,9 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
+      <c r="B99" s="2">
+        <v>42331111503</v>
+      </c>
       <c r="C99" s="2" t="s">
         <v>23</v>
       </c>
@@ -38758,6 +38779,9 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
+      <c r="B100" s="2">
+        <v>42331112104</v>
+      </c>
       <c r="C100" s="2" t="s">
         <v>23</v>
       </c>
@@ -38767,6 +38791,9 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="B101" s="2">
+        <v>42331111622</v>
+      </c>
       <c r="C101" s="2" t="s">
         <v>23</v>
       </c>
@@ -38776,6 +38803,9 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
+      <c r="B102" s="2">
+        <v>42331110521</v>
+      </c>
       <c r="C102" s="2" t="s">
         <v>23</v>
       </c>
@@ -38785,6 +38815,9 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
+      <c r="B103" s="2">
+        <v>42331112145</v>
+      </c>
       <c r="C103" s="2" t="s">
         <v>23</v>
       </c>
@@ -38794,6 +38827,9 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
+      <c r="B104" s="2">
+        <v>42331110541</v>
+      </c>
       <c r="C104" s="2" t="s">
         <v>23</v>
       </c>
@@ -38803,6 +38839,9 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
+      <c r="B105" s="2">
+        <v>42331111773</v>
+      </c>
       <c r="C105" s="2" t="s">
         <v>23</v>
       </c>
@@ -38812,6 +38851,9 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
+      <c r="B106" s="2">
+        <v>42331110393</v>
+      </c>
       <c r="C106" s="2" t="s">
         <v>23</v>
       </c>
@@ -38821,6 +38863,9 @@
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
+      <c r="B107" s="2">
+        <v>42331111736</v>
+      </c>
       <c r="C107" s="2" t="s">
         <v>23</v>
       </c>
@@ -38830,6 +38875,9 @@
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
+      <c r="B108" s="2">
+        <v>42331111949</v>
+      </c>
       <c r="C108" s="2" t="s">
         <v>23</v>
       </c>
@@ -38839,6 +38887,9 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
+      <c r="B109" s="2">
+        <v>42331111092</v>
+      </c>
       <c r="C109" s="2" t="s">
         <v>23</v>
       </c>
@@ -38848,6 +38899,9 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
+      <c r="B110" s="2">
+        <v>42331111027</v>
+      </c>
       <c r="C110" s="2" t="s">
         <v>23</v>
       </c>
@@ -38857,6 +38911,9 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
+      <c r="B111" s="2">
+        <v>42332210310</v>
+      </c>
       <c r="C111" s="2" t="s">
         <v>23</v>
       </c>
@@ -38866,6 +38923,9 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
+      <c r="B112" s="2">
+        <v>42331111185</v>
+      </c>
       <c r="C112" s="2" t="s">
         <v>23</v>
       </c>
@@ -38875,6 +38935,9 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
+      <c r="B113" s="2">
+        <v>42331111793</v>
+      </c>
       <c r="C113" s="2" t="s">
         <v>23</v>
       </c>
@@ -38884,6 +38947,9 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
+      <c r="B114" s="2">
+        <v>42331111032</v>
+      </c>
       <c r="C114" s="2" t="s">
         <v>23</v>
       </c>
@@ -38893,6 +38959,9 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
+      <c r="B115" s="2">
+        <v>42331110493</v>
+      </c>
       <c r="C115" s="2" t="s">
         <v>23</v>
       </c>
@@ -38902,6 +38971,9 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
+      <c r="B116" s="2">
+        <v>42331110752</v>
+      </c>
       <c r="C116" s="2" t="s">
         <v>23</v>
       </c>
@@ -38911,6 +38983,9 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
+      <c r="B117" s="2">
+        <v>42331112066</v>
+      </c>
       <c r="C117" s="2" t="s">
         <v>23</v>
       </c>
@@ -38920,6 +38995,9 @@
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
+      <c r="B118" s="2">
+        <v>42331111746</v>
+      </c>
       <c r="C118" s="2" t="s">
         <v>23</v>
       </c>
@@ -38929,6 +39007,9 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
+      <c r="B119" s="2">
+        <v>42331110885</v>
+      </c>
       <c r="C119" s="2" t="s">
         <v>23</v>
       </c>
@@ -38938,6 +39019,9 @@
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
+      <c r="B120" s="2">
+        <v>42331110928</v>
+      </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
       </c>
@@ -38947,6 +39031,9 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
+      <c r="B121" s="2">
+        <v>42331111740</v>
+      </c>
       <c r="C121" s="2" t="s">
         <v>23</v>
       </c>
@@ -38956,6 +39043,9 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
+      <c r="B122" s="2">
+        <v>42332410322</v>
+      </c>
       <c r="C122" s="2" t="s">
         <v>23</v>
       </c>
@@ -38965,6 +39055,9 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
+      <c r="B123" s="2">
+        <v>42331110578</v>
+      </c>
       <c r="C123" s="2" t="s">
         <v>23</v>
       </c>
@@ -38974,6 +39067,9 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
+      <c r="B124" s="2">
+        <v>42331110695</v>
+      </c>
       <c r="C124" s="2" t="s">
         <v>23</v>
       </c>
@@ -38983,6 +39079,9 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
+      <c r="B125" s="2">
+        <v>42331110118</v>
+      </c>
       <c r="C125" s="2" t="s">
         <v>23</v>
       </c>
@@ -38992,6 +39091,9 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
+      <c r="B126" s="2">
+        <v>42331110346</v>
+      </c>
       <c r="C126" s="2" t="s">
         <v>23</v>
       </c>
@@ -39001,6 +39103,9 @@
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
+      <c r="B127" s="2">
+        <v>42331110793</v>
+      </c>
       <c r="C127" s="2" t="s">
         <v>23</v>
       </c>
@@ -39010,6 +39115,9 @@
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
+      <c r="B128" s="2">
+        <v>42331111062</v>
+      </c>
       <c r="C128" s="2" t="s">
         <v>23</v>
       </c>
@@ -39019,6 +39127,9 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
+      <c r="B129" s="2">
+        <v>42331111697</v>
+      </c>
       <c r="C129" s="2" t="s">
         <v>23</v>
       </c>
@@ -39028,6 +39139,9 @@
         <f t="shared" ref="A130:A193" si="2">+A129+1</f>
         <v>129</v>
       </c>
+      <c r="B130" s="2">
+        <v>42331111021</v>
+      </c>
       <c r="C130" s="2" t="s">
         <v>23</v>
       </c>
@@ -39037,6 +39151,9 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
+      <c r="B131" s="2">
+        <v>42331111552</v>
+      </c>
       <c r="C131" s="2" t="s">
         <v>23</v>
       </c>
@@ -39046,6 +39163,9 @@
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
+      <c r="B132" s="2">
+        <v>42331111216</v>
+      </c>
       <c r="C132" s="2" t="s">
         <v>23</v>
       </c>
@@ -39055,6 +39175,9 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
+      <c r="B133" s="2">
+        <v>42331111967</v>
+      </c>
       <c r="C133" s="2" t="s">
         <v>23</v>
       </c>
@@ -39064,6 +39187,9 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
+      <c r="B134" s="2">
+        <v>42331111408</v>
+      </c>
       <c r="C134" s="2" t="s">
         <v>23</v>
       </c>
@@ -39073,6 +39199,9 @@
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
+      <c r="B135" s="2">
+        <v>42332210422</v>
+      </c>
       <c r="C135" s="2" t="s">
         <v>23</v>
       </c>
@@ -39082,6 +39211,9 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
+      <c r="B136" s="2">
+        <v>42331110664</v>
+      </c>
       <c r="C136" s="2" t="s">
         <v>23</v>
       </c>
@@ -39091,6 +39223,9 @@
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
+      <c r="B137" s="2">
+        <v>42331111219</v>
+      </c>
       <c r="C137" s="2" t="s">
         <v>23</v>
       </c>
@@ -39100,6 +39235,9 @@
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
+      <c r="B138" s="2">
+        <v>42331111753</v>
+      </c>
       <c r="C138" s="2" t="s">
         <v>23</v>
       </c>
@@ -39109,6 +39247,9 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
+      <c r="B139" s="2">
+        <v>42331110957</v>
+      </c>
       <c r="C139" s="2" t="s">
         <v>23</v>
       </c>
@@ -39117,6 +39258,9 @@
       <c r="A140" s="2">
         <f t="shared" si="2"/>
         <v>139</v>
+      </c>
+      <c r="B140" s="2">
+        <v>42331111215</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>23</v>
@@ -60069,8 +60213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E8F714-38B6-4326-8330-B1889679FA04}">
   <dimension ref="A1:G2465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A1048550" workbookViewId="0">
+      <selection activeCell="A1048576" sqref="A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2F822-3CDA-45EC-9A30-EFE573043905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06FA01A-010C-43B0-A7E9-6FA5D6C33CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="snmptn" sheetId="1" r:id="rId1"/>
@@ -6950,7 +6950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K337" workbookViewId="0">
+    <sheetView topLeftCell="K337" workbookViewId="0">
       <selection activeCell="T412" sqref="T412"/>
     </sheetView>
   </sheetViews>
@@ -7307,9 +7307,9 @@
       <c r="X4" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" t="e">
+      <c r="Z4" t="str">
         <f>VLOOKUP(A4,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA4">
         <f>VLOOKUP(D4,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -7894,9 +7894,9 @@
       <c r="T11" t="s">
         <v>81</v>
       </c>
-      <c r="Z11" t="e">
+      <c r="Z11" t="str">
         <f>VLOOKUP(A11,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA11">
         <f>VLOOKUP(D11,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -8196,9 +8196,9 @@
       <c r="T15" t="s">
         <v>81</v>
       </c>
-      <c r="Z15" t="e">
+      <c r="Z15" t="str">
         <f>VLOOKUP(A15,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA15">
         <f>VLOOKUP(D15,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -9083,9 +9083,9 @@
       <c r="T27" t="s">
         <v>81</v>
       </c>
-      <c r="Z27" t="e">
+      <c r="Z27" t="str">
         <f>VLOOKUP(A27,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA27">
         <f>VLOOKUP(D27,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -9231,9 +9231,9 @@
       <c r="T29" t="s">
         <v>98</v>
       </c>
-      <c r="Z29" t="e">
+      <c r="Z29" t="str">
         <f>VLOOKUP(A29,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA29">
         <f>VLOOKUP(D29,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -9748,9 +9748,9 @@
       <c r="T36" t="s">
         <v>81</v>
       </c>
-      <c r="Z36" t="e">
+      <c r="Z36" t="str">
         <f>VLOOKUP(A36,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA36">
         <f>VLOOKUP(D36,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -10266,9 +10266,9 @@
       <c r="T43" t="s">
         <v>98</v>
       </c>
-      <c r="Z43" t="e">
+      <c r="Z43" t="str">
         <f>VLOOKUP(A43,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA43">
         <f>VLOOKUP(D43,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -10487,9 +10487,9 @@
       <c r="T46" t="s">
         <v>98</v>
       </c>
-      <c r="Z46" t="e">
+      <c r="Z46" t="str">
         <f>VLOOKUP(A46,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA46">
         <f>VLOOKUP(D46,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -10635,9 +10635,9 @@
       <c r="T48" t="s">
         <v>81</v>
       </c>
-      <c r="Z48" t="e">
+      <c r="Z48" t="str">
         <f>VLOOKUP(A48,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA48">
         <f>VLOOKUP(D48,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -11670,9 +11670,9 @@
       <c r="T62" t="s">
         <v>81</v>
       </c>
-      <c r="Z62" t="e">
+      <c r="Z62" t="str">
         <f>VLOOKUP(A62,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA62">
         <f>VLOOKUP(D62,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -12188,9 +12188,9 @@
       <c r="T69" t="s">
         <v>81</v>
       </c>
-      <c r="Z69" t="e">
+      <c r="Z69" t="str">
         <f>VLOOKUP(A69,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA69">
         <f>VLOOKUP(D69,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -12779,9 +12779,9 @@
       <c r="T77" t="s">
         <v>81</v>
       </c>
-      <c r="Z77" t="e">
+      <c r="Z77" t="str">
         <f>VLOOKUP(A77,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA77">
         <f>VLOOKUP(D77,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -13295,9 +13295,9 @@
       <c r="T84" t="s">
         <v>81</v>
       </c>
-      <c r="Z84" t="e">
+      <c r="Z84" t="str">
         <f>VLOOKUP(A84,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA84">
         <f>VLOOKUP(D84,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -13590,9 +13590,9 @@
       <c r="T88" t="s">
         <v>82</v>
       </c>
-      <c r="Z88" t="e">
+      <c r="Z88" t="str">
         <f>VLOOKUP(A88,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA88">
         <f>VLOOKUP(D88,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -14700,9 +14700,9 @@
       <c r="T103" t="s">
         <v>81</v>
       </c>
-      <c r="Z103" t="e">
+      <c r="Z103" t="str">
         <f>VLOOKUP(A103,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA103">
         <f>VLOOKUP(D103,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -15588,9 +15588,9 @@
       <c r="T115" t="s">
         <v>82</v>
       </c>
-      <c r="Z115" t="e">
+      <c r="Z115" t="str">
         <f>VLOOKUP(A115,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA115">
         <f>VLOOKUP(D115,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -17066,9 +17066,9 @@
       <c r="T135" t="s">
         <v>82</v>
       </c>
-      <c r="Z135" t="e">
+      <c r="Z135" t="str">
         <f>VLOOKUP(A135,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA135">
         <f>VLOOKUP(D135,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -17288,9 +17288,9 @@
       <c r="T138" t="s">
         <v>81</v>
       </c>
-      <c r="Z138" t="e">
+      <c r="Z138" t="str">
         <f>VLOOKUP(A138,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA138">
         <f>VLOOKUP(D138,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -17806,9 +17806,9 @@
       <c r="T145" t="s">
         <v>109</v>
       </c>
-      <c r="Z145" t="e">
+      <c r="Z145" t="str">
         <f>VLOOKUP(A145,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA145">
         <f>VLOOKUP(D145,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -18619,9 +18619,9 @@
       <c r="T156" t="s">
         <v>81</v>
       </c>
-      <c r="Z156" t="e">
+      <c r="Z156" t="str">
         <f>VLOOKUP(A156,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA156">
         <f>VLOOKUP(D156,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -20023,9 +20023,9 @@
       <c r="T175" t="s">
         <v>81</v>
       </c>
-      <c r="Z175" t="e">
+      <c r="Z175" t="str">
         <f>VLOOKUP(A175,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA175">
         <f>VLOOKUP(D175,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -20541,9 +20541,9 @@
       <c r="T182" t="s">
         <v>98</v>
       </c>
-      <c r="Z182" t="e">
+      <c r="Z182" t="str">
         <f>VLOOKUP(A182,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA182">
         <f>VLOOKUP(D182,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -20615,9 +20615,9 @@
       <c r="T183" t="s">
         <v>81</v>
       </c>
-      <c r="Z183" t="e">
+      <c r="Z183" t="str">
         <f>VLOOKUP(A183,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA183">
         <f>VLOOKUP(D183,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -20763,9 +20763,9 @@
       <c r="T185" t="s">
         <v>81</v>
       </c>
-      <c r="Z185" t="e">
+      <c r="Z185" t="str">
         <f>VLOOKUP(A185,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA185">
         <f>VLOOKUP(D185,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -21577,9 +21577,9 @@
       <c r="T196" t="s">
         <v>81</v>
       </c>
-      <c r="Z196" t="e">
+      <c r="Z196" t="str">
         <f>VLOOKUP(A196,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA196">
         <f>VLOOKUP(D196,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -21873,9 +21873,9 @@
       <c r="T200" t="s">
         <v>82</v>
       </c>
-      <c r="Z200" t="e">
+      <c r="Z200" t="str">
         <f>VLOOKUP(A200,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA200">
         <f>VLOOKUP(D200,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -22687,9 +22687,9 @@
       <c r="T211" t="s">
         <v>81</v>
       </c>
-      <c r="Z211" t="e">
+      <c r="Z211" t="str">
         <f>VLOOKUP(A211,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA211">
         <f>VLOOKUP(D211,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -23279,9 +23279,9 @@
       <c r="T219" t="s">
         <v>81</v>
       </c>
-      <c r="Z219" t="e">
+      <c r="Z219" t="str">
         <f>VLOOKUP(A219,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA219">
         <f>VLOOKUP(D219,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -23575,9 +23575,9 @@
       <c r="T223" t="s">
         <v>81</v>
       </c>
-      <c r="Z223" t="e">
+      <c r="Z223" t="str">
         <f>VLOOKUP(A223,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA223">
         <f>VLOOKUP(D223,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -23723,9 +23723,9 @@
       <c r="T225" t="s">
         <v>81</v>
       </c>
-      <c r="Z225" t="e">
+      <c r="Z225" t="str">
         <f>VLOOKUP(A225,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA225">
         <f>VLOOKUP(D225,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -23871,9 +23871,9 @@
       <c r="T227" t="s">
         <v>81</v>
       </c>
-      <c r="Z227" t="e">
+      <c r="Z227" t="str">
         <f>VLOOKUP(A227,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA227">
         <f>VLOOKUP(D227,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -24389,9 +24389,9 @@
       <c r="T234" t="s">
         <v>81</v>
       </c>
-      <c r="Z234" t="e">
+      <c r="Z234" t="str">
         <f>VLOOKUP(A234,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA234">
         <f>VLOOKUP(D234,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -24685,9 +24685,9 @@
       <c r="T238" t="s">
         <v>82</v>
       </c>
-      <c r="Z238" t="e">
+      <c r="Z238" t="str">
         <f>VLOOKUP(A238,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA238">
         <f>VLOOKUP(D238,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -24833,9 +24833,9 @@
       <c r="T240" t="s">
         <v>81</v>
       </c>
-      <c r="Z240" t="e">
+      <c r="Z240" t="str">
         <f>VLOOKUP(A240,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA240">
         <f>VLOOKUP(D240,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -25129,9 +25129,9 @@
       <c r="T244" t="s">
         <v>81</v>
       </c>
-      <c r="Z244" t="e">
+      <c r="Z244" t="str">
         <f>VLOOKUP(A244,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA244">
         <f>VLOOKUP(D244,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -25203,9 +25203,9 @@
       <c r="T245" t="s">
         <v>81</v>
       </c>
-      <c r="Z245" t="e">
+      <c r="Z245" t="str">
         <f>VLOOKUP(A245,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA245">
         <f>VLOOKUP(D245,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -25499,9 +25499,9 @@
       <c r="T249" t="s">
         <v>81</v>
       </c>
-      <c r="Z249" t="e">
+      <c r="Z249" t="str">
         <f>VLOOKUP(A249,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA249">
         <f>VLOOKUP(D249,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -26238,9 +26238,9 @@
       <c r="T259" t="s">
         <v>81</v>
       </c>
-      <c r="Z259" t="e">
+      <c r="Z259" t="str">
         <f>VLOOKUP(A259,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA259">
         <f>VLOOKUP(D259,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -26904,9 +26904,9 @@
       <c r="T268" t="s">
         <v>81</v>
       </c>
-      <c r="Z268" t="e">
+      <c r="Z268" t="str">
         <f>VLOOKUP(A268,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA268">
         <f>VLOOKUP(D268,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -26978,9 +26978,9 @@
       <c r="T269" t="s">
         <v>81</v>
       </c>
-      <c r="Z269" t="e">
+      <c r="Z269" t="str">
         <f>VLOOKUP(A269,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA269">
         <f>VLOOKUP(D269,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -27052,9 +27052,9 @@
       <c r="T270" t="s">
         <v>81</v>
       </c>
-      <c r="Z270" t="e">
+      <c r="Z270" t="str">
         <f>VLOOKUP(A270,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA270">
         <f>VLOOKUP(D270,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -27792,9 +27792,9 @@
       <c r="T280" t="s">
         <v>81</v>
       </c>
-      <c r="Z280" t="e">
+      <c r="Z280" t="str">
         <f>VLOOKUP(A280,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA280">
         <f>VLOOKUP(D280,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -28236,9 +28236,9 @@
       <c r="T286" t="s">
         <v>81</v>
       </c>
-      <c r="Z286" t="e">
+      <c r="Z286" t="str">
         <f>VLOOKUP(A286,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA286">
         <f>VLOOKUP(D286,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -28310,9 +28310,9 @@
       <c r="T287" t="s">
         <v>81</v>
       </c>
-      <c r="Z287" t="e">
+      <c r="Z287" t="str">
         <f>VLOOKUP(A287,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA287">
         <f>VLOOKUP(D287,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -28754,9 +28754,9 @@
       <c r="T293" t="s">
         <v>81</v>
       </c>
-      <c r="Z293" t="e">
+      <c r="Z293" t="str">
         <f>VLOOKUP(A293,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA293">
         <f>VLOOKUP(D293,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -28828,9 +28828,9 @@
       <c r="T294" t="s">
         <v>81</v>
       </c>
-      <c r="Z294" t="e">
+      <c r="Z294" t="str">
         <f>VLOOKUP(A294,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA294">
         <f>VLOOKUP(D294,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -29568,9 +29568,9 @@
       <c r="T304" t="s">
         <v>81</v>
       </c>
-      <c r="Z304" t="e">
+      <c r="Z304" t="str">
         <f>VLOOKUP(A304,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA304">
         <f>VLOOKUP(D304,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -29642,9 +29642,9 @@
       <c r="T305" t="s">
         <v>81</v>
       </c>
-      <c r="Z305" t="e">
+      <c r="Z305" t="str">
         <f>VLOOKUP(A305,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA305">
         <f>VLOOKUP(D305,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -29790,9 +29790,9 @@
       <c r="T307" t="s">
         <v>81</v>
       </c>
-      <c r="Z307" t="e">
+      <c r="Z307" t="str">
         <f>VLOOKUP(A307,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA307">
         <f>VLOOKUP(D307,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -29938,9 +29938,9 @@
       <c r="T309" t="s">
         <v>82</v>
       </c>
-      <c r="Z309" t="e">
+      <c r="Z309" t="str">
         <f>VLOOKUP(A309,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA309">
         <f>VLOOKUP(D309,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30308,9 +30308,9 @@
       <c r="T314" t="s">
         <v>81</v>
       </c>
-      <c r="Z314" t="e">
+      <c r="Z314" t="str">
         <f>VLOOKUP(A314,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA314">
         <f>VLOOKUP(D314,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30529,9 +30529,9 @@
       <c r="T317" t="s">
         <v>81</v>
       </c>
-      <c r="Z317" t="e">
+      <c r="Z317" t="str">
         <f>VLOOKUP(A317,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA317">
         <f>VLOOKUP(D317,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30825,9 +30825,9 @@
       <c r="T321" t="s">
         <v>81</v>
       </c>
-      <c r="Z321" t="e">
+      <c r="Z321" t="str">
         <f>VLOOKUP(A321,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA321">
         <f>VLOOKUP(D321,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -31121,9 +31121,9 @@
       <c r="T325" t="s">
         <v>81</v>
       </c>
-      <c r="Z325" t="e">
+      <c r="Z325" t="str">
         <f>VLOOKUP(A325,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA325">
         <f>VLOOKUP(D325,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -31713,9 +31713,9 @@
       <c r="T333" t="s">
         <v>81</v>
       </c>
-      <c r="Z333" t="e">
+      <c r="Z333" t="str">
         <f>VLOOKUP(A333,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA333">
         <f>VLOOKUP(D333,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -33783,9 +33783,9 @@
       <c r="T361" t="s">
         <v>81</v>
       </c>
-      <c r="Z361" t="e">
+      <c r="Z361" t="str">
         <f>VLOOKUP(A361,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA361">
         <f>VLOOKUP(D361,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -34375,9 +34375,9 @@
       <c r="T369" t="s">
         <v>81</v>
       </c>
-      <c r="Z369" t="e">
+      <c r="Z369" t="str">
         <f>VLOOKUP(A369,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA369">
         <f>VLOOKUP(D369,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -34745,9 +34745,9 @@
       <c r="T374" t="s">
         <v>81</v>
       </c>
-      <c r="Z374" t="e">
+      <c r="Z374" t="str">
         <f>VLOOKUP(A374,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA374">
         <f>VLOOKUP(D374,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -35631,9 +35631,9 @@
       <c r="T386" t="s">
         <v>81</v>
       </c>
-      <c r="Z386" t="e">
+      <c r="Z386" t="str">
         <f>VLOOKUP(A386,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA386">
         <f>VLOOKUP(D386,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -36297,9 +36297,9 @@
       <c r="T395" t="s">
         <v>81</v>
       </c>
-      <c r="Z395" t="e">
+      <c r="Z395" t="str">
         <f>VLOOKUP(A395,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA395">
         <f>VLOOKUP(D395,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -37110,9 +37110,9 @@
       <c r="T406" t="s">
         <v>81</v>
       </c>
-      <c r="Z406" t="e">
+      <c r="Z406" t="str">
         <f>VLOOKUP(A406,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA406">
         <f>VLOOKUP(D406,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -37577,8 +37577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D88B47-792B-4051-BCF3-A0949AF380CC}">
   <dimension ref="A1:C2465"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37604,7 +37604,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>42331111341</v>
+        <v>42331110086</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -37616,7 +37616,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>42331111301</v>
+        <v>42331111341</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -37628,7 +37628,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>42331111522</v>
+        <v>42331111301</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -37640,7 +37640,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>42331110778</v>
+        <v>42331111115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -37652,7 +37652,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>42331111577</v>
+        <v>42331111522</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -37664,7 +37664,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>42331111790</v>
+        <v>42331111205</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -37676,7 +37676,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>42331110641</v>
+        <v>42331110778</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -37688,7 +37688,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>42332210383</v>
+        <v>42331111577</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -37700,7 +37700,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>42332211062</v>
+        <v>42331111790</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -37712,7 +37712,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>42331110808</v>
+        <v>42331110641</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -37724,7 +37724,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>42331111102</v>
+        <v>42332210383</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -37736,7 +37736,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>42331110122</v>
+        <v>42332211062</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -37748,7 +37748,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>42331112128</v>
+        <v>42331111762</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -37760,7 +37760,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>42331111616</v>
+        <v>42331110808</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -37772,7 +37772,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>42331111376</v>
+        <v>42332410448</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -37784,7 +37784,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>42331110117</v>
+        <v>42331111102</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
@@ -37796,7 +37796,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>42331111087</v>
+        <v>42331111023</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -37808,7 +37808,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>42331111294</v>
+        <v>42331110122</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
@@ -37820,7 +37820,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>42331112022</v>
+        <v>42332410173</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -37832,7 +37832,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>42331110609</v>
+        <v>42331112128</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>23</v>
@@ -37844,7 +37844,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>42331110818</v>
+        <v>42331111616</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
@@ -37856,7 +37856,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>42331111502</v>
+        <v>42332211103</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -37868,7 +37868,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>42331111497</v>
+        <v>42332210180</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -37880,7 +37880,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>42331110025</v>
+        <v>42331111376</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
@@ -37892,7 +37892,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>42331111814</v>
+        <v>42331110117</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
@@ -37904,7 +37904,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>42331111831</v>
+        <v>42331111087</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>23</v>
@@ -37916,7 +37916,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>42331112152</v>
+        <v>42331111294</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>23</v>
@@ -37928,7 +37928,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>42331111690</v>
+        <v>42331112022</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>23</v>
@@ -37940,7 +37940,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>42331112027</v>
+        <v>42331110609</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>23</v>
@@ -37952,7 +37952,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>42331111442</v>
+        <v>42331110566</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>23</v>
@@ -37964,7 +37964,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>42331112084</v>
+        <v>42331110818</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>23</v>
@@ -37976,7 +37976,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>42331110335</v>
+        <v>42331111502</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>23</v>
@@ -37988,7 +37988,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>42331110314</v>
+        <v>42331111460</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>23</v>
@@ -38000,7 +38000,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>42331111541</v>
+        <v>42331111497</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>23</v>
@@ -38012,7 +38012,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>42332410323</v>
+        <v>42331110025</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>23</v>
@@ -38024,7 +38024,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>42331111370</v>
+        <v>42331111814</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>23</v>
@@ -38036,7 +38036,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>42331111711</v>
+        <v>42332210447</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>23</v>
@@ -38048,7 +38048,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>42331110698</v>
+        <v>42331111831</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>23</v>
@@ -38060,7 +38060,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>42331111150</v>
+        <v>42331112152</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
@@ -38072,7 +38072,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>42331111010</v>
+        <v>42331111690</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
@@ -38084,7 +38084,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>42331110371</v>
+        <v>42331112027</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>23</v>
@@ -38096,7 +38096,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>42331111860</v>
+        <v>42331111971</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>23</v>
@@ -38108,7 +38108,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>42332410410</v>
+        <v>42331111442</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
@@ -38120,7 +38120,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>42331110944</v>
+        <v>42332220224</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
@@ -38132,7 +38132,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>42331110442</v>
+        <v>42331112084</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>23</v>
@@ -38144,7 +38144,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>42331111713</v>
+        <v>42331110335</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>23</v>
@@ -38156,7 +38156,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>42331111130</v>
+        <v>42331110314</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
@@ -38168,7 +38168,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>42332211161</v>
+        <v>42331111541</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>23</v>
@@ -38180,7 +38180,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>42331110017</v>
+        <v>42332410323</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>23</v>
@@ -38192,7 +38192,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>42332210245</v>
+        <v>42331111370</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>23</v>
@@ -38204,7 +38204,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>42332220280</v>
+        <v>42331111847</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>23</v>
@@ -38216,7 +38216,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>42331110396</v>
+        <v>42331111711</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>23</v>
@@ -38228,7 +38228,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>42331111826</v>
+        <v>42331110698</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>23</v>
@@ -38240,7 +38240,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>42331110510</v>
+        <v>42331111150</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
@@ -38252,7 +38252,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>42333111762</v>
+        <v>42331111010</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>23</v>
@@ -38264,7 +38264,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>42331111076</v>
+        <v>42331110371</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>23</v>
@@ -38276,7 +38276,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>42331111835</v>
+        <v>42331111860</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>23</v>
@@ -38288,7 +38288,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>42331111970</v>
+        <v>42332410410</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>23</v>
@@ -38300,7 +38300,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>42315112136</v>
+        <v>42333110438</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>23</v>
@@ -38312,7 +38312,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>42331110472</v>
+        <v>42331110944</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>23</v>
@@ -38324,7 +38324,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>42331111895</v>
+        <v>42331110442</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
@@ -38336,7 +38336,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>42332210744</v>
+        <v>42331111713</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
@@ -38348,7 +38348,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>42331110559</v>
+        <v>42331111130</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>23</v>
@@ -38360,7 +38360,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>42331112032</v>
+        <v>42332211161</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>23</v>
@@ -38372,7 +38372,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>42331111629</v>
+        <v>42331110017</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>23</v>
@@ -38384,7 +38384,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>42331111188</v>
+        <v>42332210245</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>23</v>
@@ -38396,7 +38396,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>42331110881</v>
+        <v>42332220280</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>23</v>
@@ -38408,7 +38408,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>42331110058</v>
+        <v>42331111673</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>23</v>
@@ -38420,7 +38420,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>42331110121</v>
+        <v>42331110938</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>23</v>
@@ -38432,7 +38432,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>42331111570</v>
+        <v>42331110396</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>23</v>
@@ -38444,7 +38444,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>42331111516</v>
+        <v>42331111826</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>23</v>
@@ -38456,7 +38456,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>42331110430</v>
+        <v>42331110510</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>23</v>
@@ -38468,7 +38468,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>42331110964</v>
+        <v>42331110387</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>23</v>
@@ -38480,7 +38480,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>42331111696</v>
+        <v>42333111762</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>23</v>
@@ -38492,7 +38492,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>42331111303</v>
+        <v>42331111076</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>23</v>
@@ -38504,7 +38504,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>42332211301</v>
+        <v>42331111000</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>23</v>
@@ -38516,7 +38516,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>42331111098</v>
+        <v>42331111835</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>23</v>
@@ -38528,7 +38528,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>42331111605</v>
+        <v>42331111970</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>23</v>
@@ -38540,7 +38540,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>42331111542</v>
+        <v>42315112136</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>23</v>
@@ -38552,7 +38552,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>42331110856</v>
+        <v>42331110472</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>23</v>
@@ -38564,7 +38564,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>42331111728</v>
+        <v>42331111895</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>23</v>
@@ -38576,7 +38576,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>42331111549</v>
+        <v>42332210744</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
@@ -38588,7 +38588,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>42331110649</v>
+        <v>42331111019</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
@@ -38600,7 +38600,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>42332211044</v>
+        <v>42331110559</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>23</v>
@@ -38612,7 +38612,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>42331111529</v>
+        <v>42331112032</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
@@ -38624,7 +38624,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>42331110741</v>
+        <v>42331111629</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>23</v>
@@ -38636,7 +38636,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>42331110414</v>
+        <v>42332210721</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>23</v>
@@ -38648,7 +38648,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>42331110754</v>
+        <v>42331110600</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>23</v>
@@ -38660,7 +38660,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>42331111913</v>
+        <v>42331111188</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>23</v>
@@ -38672,7 +38672,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>42331110832</v>
+        <v>42331111648</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>23</v>
@@ -38684,7 +38684,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>42331110906</v>
+        <v>42331110881</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>23</v>
@@ -38696,7 +38696,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>42333410160</v>
+        <v>42331110058</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>23</v>
@@ -38708,7 +38708,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>42331110704</v>
+        <v>42331110121</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>23</v>
@@ -38720,7 +38720,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>42331110930</v>
+        <v>42331111570</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>23</v>
@@ -38732,7 +38732,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>42331110080</v>
+        <v>42331111516</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>23</v>
@@ -38744,7 +38744,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>42333410264</v>
+        <v>42331110430</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>23</v>
@@ -38756,7 +38756,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>42332220058</v>
+        <v>42331112059</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>23</v>
@@ -38768,7 +38768,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>42331111503</v>
+        <v>42331110964</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>23</v>
@@ -38780,7 +38780,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>42331112104</v>
+        <v>42331110224</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>23</v>
@@ -38792,7 +38792,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>42331111622</v>
+        <v>42331111696</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>23</v>
@@ -38804,7 +38804,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>42331110521</v>
+        <v>42331111303</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>23</v>
@@ -38816,7 +38816,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>42331112145</v>
+        <v>42332211301</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>23</v>
@@ -38828,7 +38828,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>42331110541</v>
+        <v>42332210792</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>23</v>
@@ -38840,7 +38840,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>42331111773</v>
+        <v>42331111098</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>23</v>
@@ -38852,7 +38852,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>42331110393</v>
+        <v>42331111605</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>23</v>
@@ -38864,7 +38864,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>42331111736</v>
+        <v>42331110480</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>23</v>
@@ -38876,7 +38876,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>42331111949</v>
+        <v>42331111542</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>23</v>
@@ -38888,7 +38888,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>42331111092</v>
+        <v>42331111612</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>23</v>
@@ -38900,7 +38900,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>42331111027</v>
+        <v>42331110856</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>23</v>
@@ -38912,7 +38912,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>42332210310</v>
+        <v>42331110809</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>23</v>
@@ -38924,7 +38924,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>42331111185</v>
+        <v>42332210376</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>23</v>
@@ -38936,7 +38936,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>42331111793</v>
+        <v>42331111728</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>23</v>
@@ -38948,7 +38948,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>42331111032</v>
+        <v>42331111549</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>23</v>
@@ -38960,7 +38960,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>42331110493</v>
+        <v>42331110649</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>23</v>
@@ -38972,7 +38972,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>42331110752</v>
+        <v>42331111248</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>23</v>
@@ -38984,7 +38984,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>42331112066</v>
+        <v>42332211044</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>23</v>
@@ -38996,7 +38996,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>42331111746</v>
+        <v>42331111614</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>23</v>
@@ -39008,7 +39008,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>42331110885</v>
+        <v>42331111147</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>23</v>
@@ -39020,7 +39020,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>42331110928</v>
+        <v>42331111529</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
@@ -39032,7 +39032,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>42331111740</v>
+        <v>42331110741</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>23</v>
@@ -39044,7 +39044,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>42332410322</v>
+        <v>42331110414</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>23</v>
@@ -39056,7 +39056,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>42331110578</v>
+        <v>42331111688</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>23</v>
@@ -39068,7 +39068,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>42331110695</v>
+        <v>42331110820</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>23</v>
@@ -39080,7 +39080,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>42331110118</v>
+        <v>42332220303</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>23</v>
@@ -39092,7 +39092,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>42331110346</v>
+        <v>42331110754</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>23</v>
@@ -39104,7 +39104,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>42331110793</v>
+        <v>42331111913</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>23</v>
@@ -39116,7 +39116,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>42331111062</v>
+        <v>42331110094</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>23</v>
@@ -39128,7 +39128,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>42331111697</v>
+        <v>42331110832</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>23</v>
@@ -39140,7 +39140,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>42331111021</v>
+        <v>42331111336</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>23</v>
@@ -39152,7 +39152,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>42331111552</v>
+        <v>42331110863</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>23</v>
@@ -39164,7 +39164,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>42331111216</v>
+        <v>42331111672</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>23</v>
@@ -39176,7 +39176,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>42331111967</v>
+        <v>42331110906</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>23</v>
@@ -39188,7 +39188,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>42331111408</v>
+        <v>42333410160</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>23</v>
@@ -39200,7 +39200,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>42332210422</v>
+        <v>42331110704</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>23</v>
@@ -39212,7 +39212,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>42331110664</v>
+        <v>42331111291</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>23</v>
@@ -39224,7 +39224,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>42331111219</v>
+        <v>42331110930</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>23</v>
@@ -39236,7 +39236,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>42331111753</v>
+        <v>42332210194</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>23</v>
@@ -39248,7 +39248,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>42331110957</v>
+        <v>42332210719</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>23</v>
@@ -39260,7 +39260,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2">
-        <v>42331111215</v>
+        <v>42331110080</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>23</v>
@@ -39271,6 +39271,9 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
+      <c r="B141" s="2">
+        <v>42331111452</v>
+      </c>
       <c r="C141" s="2" t="s">
         <v>23</v>
       </c>
@@ -39280,6 +39283,9 @@
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
+      <c r="B142" s="2">
+        <v>42331110919</v>
+      </c>
       <c r="C142" s="2" t="s">
         <v>23</v>
       </c>
@@ -39289,6 +39295,9 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
+      <c r="B143" s="2">
+        <v>42333410264</v>
+      </c>
       <c r="C143" s="2" t="s">
         <v>23</v>
       </c>
@@ -39298,6 +39307,9 @@
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
+      <c r="B144" s="2">
+        <v>42332220058</v>
+      </c>
       <c r="C144" s="2" t="s">
         <v>23</v>
       </c>
@@ -39307,6 +39319,9 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
+      <c r="B145" s="2">
+        <v>42331111478</v>
+      </c>
       <c r="C145" s="2" t="s">
         <v>23</v>
       </c>
@@ -39316,6 +39331,9 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
+      <c r="B146" s="2">
+        <v>42331110168</v>
+      </c>
       <c r="C146" s="2" t="s">
         <v>23</v>
       </c>
@@ -39325,6 +39343,9 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
+      <c r="B147" s="2">
+        <v>42331111503</v>
+      </c>
       <c r="C147" s="2" t="s">
         <v>23</v>
       </c>
@@ -39334,6 +39355,9 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
+      <c r="B148" s="2">
+        <v>42331111342</v>
+      </c>
       <c r="C148" s="2" t="s">
         <v>23</v>
       </c>
@@ -39343,6 +39367,9 @@
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
+      <c r="B149" s="2">
+        <v>42331112104</v>
+      </c>
       <c r="C149" s="2" t="s">
         <v>23</v>
       </c>
@@ -39352,6 +39379,9 @@
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
+      <c r="B150" s="2">
+        <v>42332220091</v>
+      </c>
       <c r="C150" s="2" t="s">
         <v>23</v>
       </c>
@@ -39361,6 +39391,9 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
+      <c r="B151" s="2">
+        <v>42331111622</v>
+      </c>
       <c r="C151" s="2" t="s">
         <v>23</v>
       </c>
@@ -39370,6 +39403,9 @@
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
+      <c r="B152" s="2">
+        <v>42331110521</v>
+      </c>
       <c r="C152" s="2" t="s">
         <v>23</v>
       </c>
@@ -39379,6 +39415,9 @@
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
+      <c r="B153" s="2">
+        <v>42331111298</v>
+      </c>
       <c r="C153" s="2" t="s">
         <v>23</v>
       </c>
@@ -39388,6 +39427,9 @@
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
+      <c r="B154" s="2">
+        <v>42331111768</v>
+      </c>
       <c r="C154" s="2" t="s">
         <v>23</v>
       </c>
@@ -39397,6 +39439,9 @@
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
+      <c r="B155" s="2">
+        <v>42331112145</v>
+      </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
       </c>
@@ -39406,6 +39451,9 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
+      <c r="B156" s="2">
+        <v>42331110541</v>
+      </c>
       <c r="C156" s="2" t="s">
         <v>23</v>
       </c>
@@ -39415,6 +39463,9 @@
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
+      <c r="B157" s="2">
+        <v>42331110639</v>
+      </c>
       <c r="C157" s="2" t="s">
         <v>23</v>
       </c>
@@ -39424,6 +39475,9 @@
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
+      <c r="B158" s="2">
+        <v>42331111554</v>
+      </c>
       <c r="C158" s="2" t="s">
         <v>23</v>
       </c>
@@ -39433,6 +39487,9 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
+      <c r="B159" s="2">
+        <v>42331111773</v>
+      </c>
       <c r="C159" s="2" t="s">
         <v>23</v>
       </c>
@@ -39442,6 +39499,9 @@
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
+      <c r="B160" s="2">
+        <v>42331110393</v>
+      </c>
       <c r="C160" s="2" t="s">
         <v>23</v>
       </c>
@@ -39451,6 +39511,9 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
+      <c r="B161" s="2">
+        <v>42331111736</v>
+      </c>
       <c r="C161" s="2" t="s">
         <v>23</v>
       </c>
@@ -39460,6 +39523,9 @@
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
+      <c r="B162" s="2">
+        <v>42331111949</v>
+      </c>
       <c r="C162" s="2" t="s">
         <v>23</v>
       </c>
@@ -39469,6 +39535,9 @@
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
+      <c r="B163" s="2">
+        <v>42331111092</v>
+      </c>
       <c r="C163" s="2" t="s">
         <v>23</v>
       </c>
@@ -39478,6 +39547,9 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
+      <c r="B164" s="2">
+        <v>42332210933</v>
+      </c>
       <c r="C164" s="2" t="s">
         <v>23</v>
       </c>
@@ -39487,6 +39559,9 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
+      <c r="B165" s="2">
+        <v>42331111027</v>
+      </c>
       <c r="C165" s="2" t="s">
         <v>23</v>
       </c>
@@ -39496,6 +39571,9 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
+      <c r="B166" s="2">
+        <v>42332210310</v>
+      </c>
       <c r="C166" s="2" t="s">
         <v>23</v>
       </c>
@@ -39505,6 +39583,9 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
+      <c r="B167" s="2">
+        <v>42331111185</v>
+      </c>
       <c r="C167" s="2" t="s">
         <v>23</v>
       </c>
@@ -39514,6 +39595,9 @@
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
+      <c r="B168" s="2">
+        <v>42331111793</v>
+      </c>
       <c r="C168" s="2" t="s">
         <v>23</v>
       </c>
@@ -39523,6 +39607,9 @@
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
+      <c r="B169" s="2">
+        <v>42331111032</v>
+      </c>
       <c r="C169" s="2" t="s">
         <v>23</v>
       </c>
@@ -39532,6 +39619,9 @@
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
+      <c r="B170" s="2">
+        <v>42331110493</v>
+      </c>
       <c r="C170" s="2" t="s">
         <v>23</v>
       </c>
@@ -39541,6 +39631,9 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
+      <c r="B171" s="2">
+        <v>42331110752</v>
+      </c>
       <c r="C171" s="2" t="s">
         <v>23</v>
       </c>
@@ -39550,6 +39643,9 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
+      <c r="B172" s="2">
+        <v>42331112066</v>
+      </c>
       <c r="C172" s="2" t="s">
         <v>23</v>
       </c>
@@ -39559,6 +39655,9 @@
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
+      <c r="B173" s="2">
+        <v>42331111746</v>
+      </c>
       <c r="C173" s="2" t="s">
         <v>23</v>
       </c>
@@ -39568,6 +39667,9 @@
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
+      <c r="B174" s="2">
+        <v>42331110885</v>
+      </c>
       <c r="C174" s="2" t="s">
         <v>23</v>
       </c>
@@ -39577,6 +39679,9 @@
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
+      <c r="B175" s="2">
+        <v>42331110928</v>
+      </c>
       <c r="C175" s="2" t="s">
         <v>23</v>
       </c>
@@ -39586,6 +39691,9 @@
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
+      <c r="B176" s="2">
+        <v>42331110615</v>
+      </c>
       <c r="C176" s="2" t="s">
         <v>23</v>
       </c>
@@ -39595,6 +39703,9 @@
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
+      <c r="B177" s="2">
+        <v>42331111740</v>
+      </c>
       <c r="C177" s="2" t="s">
         <v>23</v>
       </c>
@@ -39604,6 +39715,9 @@
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
+      <c r="B178" s="2">
+        <v>42332410322</v>
+      </c>
       <c r="C178" s="2" t="s">
         <v>23</v>
       </c>
@@ -39613,6 +39727,9 @@
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
+      <c r="B179" s="2">
+        <v>42331110578</v>
+      </c>
       <c r="C179" s="2" t="s">
         <v>23</v>
       </c>
@@ -39622,6 +39739,9 @@
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
+      <c r="B180" s="2">
+        <v>42332211175</v>
+      </c>
       <c r="C180" s="2" t="s">
         <v>23</v>
       </c>
@@ -39631,6 +39751,9 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
+      <c r="B181" s="2">
+        <v>42331110695</v>
+      </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
       </c>
@@ -39640,6 +39763,9 @@
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
+      <c r="B182" s="2">
+        <v>42331110118</v>
+      </c>
       <c r="C182" s="2" t="s">
         <v>23</v>
       </c>
@@ -39649,6 +39775,9 @@
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
+      <c r="B183" s="2">
+        <v>42331111047</v>
+      </c>
       <c r="C183" s="2" t="s">
         <v>23</v>
       </c>
@@ -39658,6 +39787,9 @@
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
+      <c r="B184" s="2">
+        <v>42331110346</v>
+      </c>
       <c r="C184" s="2" t="s">
         <v>23</v>
       </c>
@@ -39667,6 +39799,9 @@
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
+      <c r="B185" s="2">
+        <v>42331110793</v>
+      </c>
       <c r="C185" s="2" t="s">
         <v>23</v>
       </c>
@@ -39676,6 +39811,9 @@
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
+      <c r="B186" s="2">
+        <v>42331111062</v>
+      </c>
       <c r="C186" s="2" t="s">
         <v>23</v>
       </c>
@@ -39685,6 +39823,9 @@
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
+      <c r="B187" s="2">
+        <v>42331111697</v>
+      </c>
       <c r="C187" s="2" t="s">
         <v>23</v>
       </c>
@@ -39694,6 +39835,9 @@
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
+      <c r="B188" s="2">
+        <v>42332410560</v>
+      </c>
       <c r="C188" s="2" t="s">
         <v>23</v>
       </c>
@@ -39703,6 +39847,9 @@
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
+      <c r="B189" s="2">
+        <v>42331111021</v>
+      </c>
       <c r="C189" s="2" t="s">
         <v>23</v>
       </c>
@@ -39712,6 +39859,9 @@
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
+      <c r="B190" s="2">
+        <v>42331111552</v>
+      </c>
       <c r="C190" s="2" t="s">
         <v>23</v>
       </c>
@@ -39721,6 +39871,9 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
+      <c r="B191" s="2">
+        <v>42331111216</v>
+      </c>
       <c r="C191" s="2" t="s">
         <v>23</v>
       </c>
@@ -39730,6 +39883,9 @@
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
+      <c r="B192" s="2">
+        <v>42331111967</v>
+      </c>
       <c r="C192" s="2" t="s">
         <v>23</v>
       </c>
@@ -39739,6 +39895,9 @@
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
+      <c r="B193" s="2">
+        <v>42331111512</v>
+      </c>
       <c r="C193" s="2" t="s">
         <v>23</v>
       </c>
@@ -39748,6 +39907,9 @@
         <f t="shared" ref="A194:A257" si="3">+A193+1</f>
         <v>193</v>
       </c>
+      <c r="B194" s="2">
+        <v>42331111408</v>
+      </c>
       <c r="C194" s="2" t="s">
         <v>23</v>
       </c>
@@ -39757,6 +39919,9 @@
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
+      <c r="B195" s="2">
+        <v>42332210422</v>
+      </c>
       <c r="C195" s="2" t="s">
         <v>23</v>
       </c>
@@ -39766,6 +39931,9 @@
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
+      <c r="B196" s="2">
+        <v>42331110664</v>
+      </c>
       <c r="C196" s="2" t="s">
         <v>23</v>
       </c>
@@ -39775,6 +39943,9 @@
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
+      <c r="B197" s="2">
+        <v>42331111219</v>
+      </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
       </c>
@@ -39784,6 +39955,9 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
+      <c r="B198" s="2">
+        <v>42331111753</v>
+      </c>
       <c r="C198" s="2" t="s">
         <v>23</v>
       </c>
@@ -39793,6 +39967,9 @@
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
+      <c r="B199" s="2">
+        <v>42332211118</v>
+      </c>
       <c r="C199" s="2" t="s">
         <v>23</v>
       </c>
@@ -39802,6 +39979,9 @@
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
+      <c r="B200" s="2">
+        <v>42331110957</v>
+      </c>
       <c r="C200" s="2" t="s">
         <v>23</v>
       </c>
@@ -39810,6 +39990,9 @@
       <c r="A201" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
+      </c>
+      <c r="B201" s="2">
+        <v>42331111215</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>23</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06FA01A-010C-43B0-A7E9-6FA5D6C33CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14C5AB-F2E5-4737-9561-16AEC3E5DDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4511,13 +4511,13 @@
         </row>
         <row r="30">
           <cell r="E30">
-            <v>4441</v>
+            <v>3338</v>
           </cell>
           <cell r="F30" t="str">
-            <v>Agribisnis</v>
+            <v>Statistika</v>
           </cell>
           <cell r="G30">
-            <v>4441</v>
+            <v>3338</v>
           </cell>
           <cell r="H30" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4526,24 +4526,24 @@
             <v>S1</v>
           </cell>
           <cell r="J30">
-            <v>44</v>
+            <v>33</v>
           </cell>
           <cell r="K30" t="str">
-            <v xml:space="preserve">Pertanian </v>
+            <v xml:space="preserve">Teknik </v>
           </cell>
           <cell r="L30" t="str">
-            <v>Pertanian</v>
+            <v>Teknik</v>
           </cell>
         </row>
         <row r="31">
           <cell r="E31">
-            <v>4442</v>
+            <v>4441</v>
           </cell>
           <cell r="F31" t="str">
-            <v>Agroekoteknologi</v>
+            <v>Agribisnis</v>
           </cell>
           <cell r="G31">
-            <v>4442</v>
+            <v>4441</v>
           </cell>
           <cell r="H31" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4563,13 +4563,13 @@
         </row>
         <row r="32">
           <cell r="E32">
-            <v>4443</v>
+            <v>4442</v>
           </cell>
           <cell r="F32" t="str">
-            <v>Ilmu Perikanan</v>
+            <v>Agroekoteknologi</v>
           </cell>
           <cell r="G32">
-            <v>4443</v>
+            <v>4442</v>
           </cell>
           <cell r="H32" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4589,13 +4589,13 @@
         </row>
         <row r="33">
           <cell r="E33">
-            <v>4444</v>
+            <v>4443</v>
           </cell>
           <cell r="F33" t="str">
-            <v>Teknologi Pangan</v>
+            <v>Ilmu Perikanan</v>
           </cell>
           <cell r="G33">
-            <v>4444</v>
+            <v>4443</v>
           </cell>
           <cell r="H33" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4615,13 +4615,13 @@
         </row>
         <row r="34">
           <cell r="E34">
-            <v>4445</v>
+            <v>4444</v>
           </cell>
           <cell r="F34" t="str">
-            <v>Ilmu Kelautan</v>
+            <v>Teknologi Pangan</v>
           </cell>
           <cell r="G34">
-            <v>4445</v>
+            <v>4444</v>
           </cell>
           <cell r="H34" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4641,19 +4641,19 @@
         </row>
         <row r="35">
           <cell r="E35">
-            <v>4446</v>
+            <v>4445</v>
           </cell>
           <cell r="F35" t="str">
-            <v>Peternakan</v>
+            <v>Ilmu Kelautan</v>
           </cell>
           <cell r="G35">
-            <v>4446</v>
+            <v>4445</v>
           </cell>
           <cell r="H35" t="str">
             <v>Strata 1 - Reguler</v>
           </cell>
           <cell r="I35" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
           <cell r="J35">
             <v>44</v>
@@ -4667,39 +4667,39 @@
         </row>
         <row r="36">
           <cell r="E36">
-            <v>5501</v>
+            <v>4446</v>
           </cell>
           <cell r="F36" t="str">
-            <v>Akuntansi D3</v>
+            <v>Peternakan</v>
           </cell>
           <cell r="G36">
-            <v>5501</v>
+            <v>4446</v>
           </cell>
           <cell r="H36" t="str">
-            <v>Diploma 3 - Reguler</v>
+            <v>Strata 1 - Reguler</v>
           </cell>
           <cell r="I36" t="str">
-            <v>D3</v>
+            <v>S2</v>
           </cell>
           <cell r="J36">
-            <v>55</v>
+            <v>44</v>
           </cell>
           <cell r="K36" t="str">
-            <v xml:space="preserve">Ekonomi </v>
+            <v xml:space="preserve">Pertanian </v>
           </cell>
           <cell r="L36" t="str">
-            <v>FEB</v>
+            <v>Pertanian</v>
           </cell>
         </row>
         <row r="37">
           <cell r="E37">
-            <v>5502</v>
+            <v>5501</v>
           </cell>
           <cell r="F37" t="str">
-            <v>Manajemen Pemasaran (D3)</v>
+            <v>Akuntansi D3</v>
           </cell>
           <cell r="G37">
-            <v>5502</v>
+            <v>5501</v>
           </cell>
           <cell r="H37" t="str">
             <v>Diploma 3 - Reguler</v>
@@ -4719,13 +4719,13 @@
         </row>
         <row r="38">
           <cell r="E38">
-            <v>5503</v>
+            <v>5502</v>
           </cell>
           <cell r="F38" t="str">
-            <v>Perpajakan</v>
+            <v>Manajemen Pemasaran (D3)</v>
           </cell>
           <cell r="G38">
-            <v>5503</v>
+            <v>5502</v>
           </cell>
           <cell r="H38" t="str">
             <v>Diploma 3 - Reguler</v>
@@ -4745,13 +4745,13 @@
         </row>
         <row r="39">
           <cell r="E39">
-            <v>5504</v>
+            <v>5503</v>
           </cell>
           <cell r="F39" t="str">
-            <v>Perbankan dan Keuangan</v>
+            <v>Perpajakan</v>
           </cell>
           <cell r="G39">
-            <v>5504</v>
+            <v>5503</v>
           </cell>
           <cell r="H39" t="str">
             <v>Diploma 3 - Reguler</v>
@@ -4771,19 +4771,19 @@
         </row>
         <row r="40">
           <cell r="E40">
-            <v>5551</v>
+            <v>5504</v>
           </cell>
           <cell r="F40" t="str">
-            <v>Manajemen</v>
+            <v>Perbankan dan Keuangan</v>
           </cell>
           <cell r="G40">
-            <v>5551</v>
+            <v>5504</v>
           </cell>
           <cell r="H40" t="str">
-            <v>Strata 1 - Reguler</v>
+            <v>Diploma 3 - Reguler</v>
           </cell>
           <cell r="I40" t="str">
-            <v>S1</v>
+            <v>D3</v>
           </cell>
           <cell r="J40">
             <v>55</v>
@@ -4797,13 +4797,13 @@
         </row>
         <row r="41">
           <cell r="E41">
-            <v>5552</v>
+            <v>5551</v>
           </cell>
           <cell r="F41" t="str">
-            <v>Akuntansi</v>
+            <v>Manajemen</v>
           </cell>
           <cell r="G41">
-            <v>5552</v>
+            <v>5551</v>
           </cell>
           <cell r="H41" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4823,13 +4823,13 @@
         </row>
         <row r="42">
           <cell r="E42">
-            <v>5553</v>
+            <v>5552</v>
           </cell>
           <cell r="F42" t="str">
-            <v>Ilmu Ekonomi Pembangunan</v>
+            <v>Akuntansi</v>
           </cell>
           <cell r="G42">
-            <v>5553</v>
+            <v>5552</v>
           </cell>
           <cell r="H42" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4849,13 +4849,13 @@
         </row>
         <row r="43">
           <cell r="E43">
-            <v>5554</v>
+            <v>5553</v>
           </cell>
           <cell r="F43" t="str">
-            <v>Ekonomi Syariah</v>
+            <v>Ilmu Ekonomi Pembangunan</v>
           </cell>
           <cell r="G43">
-            <v>5554</v>
+            <v>5553</v>
           </cell>
           <cell r="H43" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4875,13 +4875,13 @@
         </row>
         <row r="44">
           <cell r="E44">
-            <v>6661</v>
+            <v>5554</v>
           </cell>
           <cell r="F44" t="str">
-            <v>Administrasi Publik</v>
+            <v>Ekonomi Syariah</v>
           </cell>
           <cell r="G44">
-            <v>6661</v>
+            <v>5554</v>
           </cell>
           <cell r="H44" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4890,24 +4890,24 @@
             <v>S1</v>
           </cell>
           <cell r="J44">
-            <v>66</v>
+            <v>55</v>
           </cell>
           <cell r="K44" t="str">
-            <v xml:space="preserve">Ilmu Sosial dan Ilmu Politik </v>
+            <v xml:space="preserve">Ekonomi </v>
           </cell>
           <cell r="L44" t="str">
-            <v>FISIP</v>
+            <v>FEB</v>
           </cell>
         </row>
         <row r="45">
           <cell r="E45">
-            <v>6662</v>
+            <v>6661</v>
           </cell>
           <cell r="F45" t="str">
-            <v>Ilmu Komunikasi</v>
+            <v>Administrasi Publik</v>
           </cell>
           <cell r="G45">
-            <v>6662</v>
+            <v>6661</v>
           </cell>
           <cell r="H45" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4927,13 +4927,13 @@
         </row>
         <row r="46">
           <cell r="E46">
-            <v>6670</v>
+            <v>6662</v>
           </cell>
           <cell r="F46" t="str">
-            <v>Ilmu Pemerintahan</v>
+            <v>Ilmu Komunikasi</v>
           </cell>
           <cell r="G46">
-            <v>6670</v>
+            <v>6662</v>
           </cell>
           <cell r="H46" t="str">
             <v>Strata 1 - Reguler</v>
@@ -4953,39 +4953,39 @@
         </row>
         <row r="47">
           <cell r="E47">
-            <v>7771</v>
+            <v>6670</v>
           </cell>
           <cell r="F47" t="str">
-            <v>Pendidikan Bahasa Indonesia (S2)</v>
+            <v>Ilmu Pemerintahan</v>
           </cell>
           <cell r="G47">
-            <v>7771</v>
+            <v>6670</v>
           </cell>
           <cell r="H47" t="str">
-            <v>Strata 2 - Reguler</v>
+            <v>Strata 1 - Reguler</v>
           </cell>
           <cell r="I47" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
           <cell r="J47">
-            <v>77</v>
+            <v>66</v>
           </cell>
           <cell r="K47" t="str">
-            <v xml:space="preserve">Pascasarjana </v>
+            <v xml:space="preserve">Ilmu Sosial dan Ilmu Politik </v>
           </cell>
           <cell r="L47" t="str">
-            <v>Pascasarjana</v>
+            <v>FISIP</v>
           </cell>
         </row>
         <row r="48">
           <cell r="E48">
-            <v>7772</v>
+            <v>7771</v>
           </cell>
           <cell r="F48" t="str">
-            <v>Teknologi Pendidikan (S2)</v>
+            <v>Pendidikan Bahasa Indonesia (S2)</v>
           </cell>
           <cell r="G48">
-            <v>7772</v>
+            <v>7771</v>
           </cell>
           <cell r="H48" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5005,13 +5005,13 @@
         </row>
         <row r="49">
           <cell r="E49">
-            <v>7773</v>
+            <v>7772</v>
           </cell>
           <cell r="F49" t="str">
-            <v>Hukum (S2)</v>
+            <v>Teknologi Pendidikan (S2)</v>
           </cell>
           <cell r="G49">
-            <v>7773</v>
+            <v>7772</v>
           </cell>
           <cell r="H49" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5031,13 +5031,13 @@
         </row>
         <row r="50">
           <cell r="E50">
-            <v>7774</v>
+            <v>7773</v>
           </cell>
           <cell r="F50" t="str">
-            <v>Magister Akuntansi</v>
+            <v>Hukum (S2)</v>
           </cell>
           <cell r="G50">
-            <v>7774</v>
+            <v>7773</v>
           </cell>
           <cell r="H50" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5057,13 +5057,13 @@
         </row>
         <row r="51">
           <cell r="E51">
-            <v>7775</v>
+            <v>7774</v>
           </cell>
           <cell r="F51" t="str">
-            <v>Magister Administrasi Publik</v>
+            <v>Magister Akuntansi</v>
           </cell>
           <cell r="G51">
-            <v>7775</v>
+            <v>7774</v>
           </cell>
           <cell r="H51" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5083,13 +5083,13 @@
         </row>
         <row r="52">
           <cell r="E52">
-            <v>7776</v>
+            <v>7775</v>
           </cell>
           <cell r="F52" t="str">
-            <v>Magister Manajemen</v>
+            <v>Magister Administrasi Publik</v>
           </cell>
           <cell r="G52">
-            <v>7776</v>
+            <v>7775</v>
           </cell>
           <cell r="H52" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5109,13 +5109,13 @@
         </row>
         <row r="53">
           <cell r="E53">
-            <v>7777</v>
+            <v>7776</v>
           </cell>
           <cell r="F53" t="str">
-            <v>Pendidikan Bahasa Inggris</v>
+            <v>Magister Manajemen</v>
           </cell>
           <cell r="G53">
-            <v>7777</v>
+            <v>7776</v>
           </cell>
           <cell r="H53" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5135,13 +5135,13 @@
         </row>
         <row r="54">
           <cell r="E54">
-            <v>7778</v>
+            <v>7777</v>
           </cell>
           <cell r="F54" t="str">
-            <v>Pendidikan Matematika S2</v>
+            <v>Pendidikan Bahasa Inggris</v>
           </cell>
           <cell r="G54">
-            <v>7778</v>
+            <v>7777</v>
           </cell>
           <cell r="H54" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5161,13 +5161,13 @@
         </row>
         <row r="55">
           <cell r="E55">
-            <v>7779</v>
+            <v>7778</v>
           </cell>
           <cell r="F55" t="str">
-            <v>Ilmu Pertanian</v>
+            <v>Pendidikan Matematika S2</v>
           </cell>
           <cell r="G55">
-            <v>7779</v>
+            <v>7778</v>
           </cell>
           <cell r="H55" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5187,13 +5187,13 @@
         </row>
         <row r="56">
           <cell r="E56">
-            <v>7780</v>
+            <v>7779</v>
           </cell>
           <cell r="F56" t="str">
-            <v>Teknik Kimia (S2)</v>
+            <v>Ilmu Pertanian</v>
           </cell>
           <cell r="G56">
-            <v>7780</v>
+            <v>7779</v>
           </cell>
           <cell r="H56" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5213,13 +5213,13 @@
         </row>
         <row r="57">
           <cell r="E57">
-            <v>7781</v>
+            <v>7780</v>
           </cell>
           <cell r="F57" t="str">
-            <v>Ilmu Komunikasi (S2)</v>
+            <v>Teknik Kimia (S2)</v>
           </cell>
           <cell r="G57">
-            <v>7781</v>
+            <v>7780</v>
           </cell>
           <cell r="H57" t="str">
             <v>Strata 2 - Reguler</v>
@@ -5239,19 +5239,19 @@
         </row>
         <row r="58">
           <cell r="E58">
-            <v>7782</v>
+            <v>7781</v>
           </cell>
           <cell r="F58" t="str">
-            <v>Pendidikan (S3)</v>
+            <v>Ilmu Komunikasi (S2)</v>
           </cell>
           <cell r="G58">
-            <v>7782</v>
+            <v>7781</v>
           </cell>
           <cell r="H58" t="str">
-            <v>Strata 3 - Reguler</v>
+            <v>Strata 2 - Reguler</v>
           </cell>
           <cell r="I58" t="str">
-            <v>S3</v>
+            <v>S2</v>
           </cell>
           <cell r="J58">
             <v>77</v>
@@ -5265,39 +5265,39 @@
         </row>
         <row r="59">
           <cell r="E59">
-            <v>8881</v>
+            <v>7782</v>
           </cell>
           <cell r="F59" t="str">
-            <v>Kedokteran</v>
+            <v>Pendidikan (S3)</v>
           </cell>
           <cell r="G59">
-            <v>8881</v>
+            <v>7782</v>
           </cell>
           <cell r="H59" t="str">
-            <v>Strata 1 - Reguler</v>
+            <v>Strata 3 - Reguler</v>
           </cell>
           <cell r="I59" t="str">
-            <v>S1</v>
+            <v>S3</v>
           </cell>
           <cell r="J59">
-            <v>88</v>
+            <v>77</v>
           </cell>
           <cell r="K59" t="str">
-            <v>Kedokteran</v>
+            <v xml:space="preserve">Pascasarjana </v>
           </cell>
           <cell r="L59" t="str">
-            <v>Kedokteran</v>
+            <v>Pascasarjana</v>
           </cell>
         </row>
         <row r="60">
           <cell r="E60">
-            <v>8882</v>
+            <v>8881</v>
           </cell>
           <cell r="F60" t="str">
-            <v>Gizi</v>
+            <v>Kedokteran</v>
           </cell>
           <cell r="G60">
-            <v>8882</v>
+            <v>8881</v>
           </cell>
           <cell r="H60" t="str">
             <v>Strata 1 - Reguler</v>
@@ -5317,13 +5317,13 @@
         </row>
         <row r="61">
           <cell r="E61">
-            <v>8883</v>
+            <v>8882</v>
           </cell>
           <cell r="F61" t="str">
-            <v>Ilmu Keolahragaan</v>
+            <v>Gizi</v>
           </cell>
           <cell r="G61">
-            <v>8883</v>
+            <v>8882</v>
           </cell>
           <cell r="H61" t="str">
             <v>Strata 1 - Reguler</v>
@@ -5343,13 +5343,13 @@
         </row>
         <row r="62">
           <cell r="E62">
-            <v>8884</v>
+            <v>8883</v>
           </cell>
           <cell r="F62" t="str">
-            <v>Keperawatan</v>
+            <v>Ilmu Keolahragaan</v>
           </cell>
           <cell r="G62">
-            <v>8884</v>
+            <v>8883</v>
           </cell>
           <cell r="H62" t="str">
             <v>Strata 1 - Reguler</v>
@@ -5369,39 +5369,39 @@
         </row>
         <row r="63">
           <cell r="E63">
-            <v>223701</v>
+            <v>8884</v>
           </cell>
           <cell r="F63" t="str">
-            <v>PPG Fisika</v>
+            <v>Keperawatan</v>
           </cell>
           <cell r="G63">
-            <v>223701</v>
+            <v>8884</v>
           </cell>
           <cell r="H63" t="str">
-            <v>Profesi - Reguler</v>
+            <v>Strata 1 - Reguler</v>
           </cell>
           <cell r="I63" t="str">
-            <v>Profesi</v>
+            <v>S1</v>
           </cell>
           <cell r="J63">
-            <v>22</v>
+            <v>88</v>
           </cell>
           <cell r="K63" t="str">
-            <v xml:space="preserve">Keguruan dan Ilmu Pendidikan </v>
+            <v>Kedokteran</v>
           </cell>
           <cell r="L63" t="str">
-            <v>FKIP</v>
+            <v>Kedokteran</v>
           </cell>
         </row>
         <row r="64">
           <cell r="E64">
-            <v>223702</v>
+            <v>223701</v>
           </cell>
           <cell r="F64" t="str">
-            <v>PPG Kimia</v>
+            <v>PPG Fisika</v>
           </cell>
           <cell r="G64">
-            <v>223702</v>
+            <v>223701</v>
           </cell>
           <cell r="H64" t="str">
             <v>Profesi - Reguler</v>
@@ -5421,13 +5421,13 @@
         </row>
         <row r="65">
           <cell r="E65">
-            <v>223703</v>
+            <v>223702</v>
           </cell>
           <cell r="F65" t="str">
-            <v>PPG Bahasa Indonesia</v>
+            <v>PPG Kimia</v>
           </cell>
           <cell r="G65">
-            <v>223703</v>
+            <v>223702</v>
           </cell>
           <cell r="H65" t="str">
             <v>Profesi - Reguler</v>
@@ -5447,13 +5447,13 @@
         </row>
         <row r="66">
           <cell r="E66">
-            <v>223704</v>
+            <v>223703</v>
           </cell>
           <cell r="F66" t="str">
-            <v>PPG Bahasa Inggris</v>
+            <v>PPG Bahasa Indonesia</v>
           </cell>
           <cell r="G66">
-            <v>223704</v>
+            <v>223703</v>
           </cell>
           <cell r="H66" t="str">
             <v>Profesi - Reguler</v>
@@ -5473,13 +5473,13 @@
         </row>
         <row r="67">
           <cell r="E67">
-            <v>223705</v>
+            <v>223704</v>
           </cell>
           <cell r="F67" t="str">
-            <v>PPG Biologi</v>
+            <v>PPG Bahasa Inggris</v>
           </cell>
           <cell r="G67">
-            <v>223705</v>
+            <v>223704</v>
           </cell>
           <cell r="H67" t="str">
             <v>Profesi - Reguler</v>
@@ -5499,13 +5499,13 @@
         </row>
         <row r="68">
           <cell r="E68">
-            <v>223706</v>
+            <v>223705</v>
           </cell>
           <cell r="F68" t="str">
-            <v>PPG Matematika</v>
+            <v>PPG Biologi</v>
           </cell>
           <cell r="G68">
-            <v>223706</v>
+            <v>223705</v>
           </cell>
           <cell r="H68" t="str">
             <v>Profesi - Reguler</v>
@@ -5525,13 +5525,13 @@
         </row>
         <row r="69">
           <cell r="E69">
-            <v>223707</v>
+            <v>223706</v>
           </cell>
           <cell r="F69" t="str">
-            <v>PPG Guru Sekolah Dasar</v>
+            <v>PPG Matematika</v>
           </cell>
           <cell r="G69">
-            <v>223707</v>
+            <v>223706</v>
           </cell>
           <cell r="H69" t="str">
             <v>Profesi - Reguler</v>
@@ -5551,33 +5551,33 @@
         </row>
         <row r="70">
           <cell r="E70">
-            <v>8801</v>
+            <v>223707</v>
           </cell>
           <cell r="F70" t="str">
-            <v>Keperawatan D3</v>
+            <v>PPG Guru Sekolah Dasar</v>
           </cell>
           <cell r="G70">
-            <v>8801</v>
+            <v>223707</v>
           </cell>
           <cell r="H70" t="str">
-            <v>Diploma 3 - Reguler</v>
+            <v>Profesi - Reguler</v>
           </cell>
           <cell r="I70" t="str">
-            <v>D3</v>
+            <v>Profesi</v>
           </cell>
           <cell r="J70">
-            <v>88</v>
+            <v>22</v>
           </cell>
           <cell r="K70" t="str">
-            <v>Kedokteran</v>
+            <v xml:space="preserve">Keguruan dan Ilmu Pendidikan </v>
           </cell>
           <cell r="L70" t="str">
-            <v>Kedokteran</v>
+            <v>FKIP</v>
           </cell>
         </row>
         <row r="71">
           <cell r="E71">
-            <v>3440</v>
+            <v>8801</v>
           </cell>
           <cell r="F71" t="str">
             <v>Keperawatan D3</v>
@@ -5585,58 +5585,58 @@
         </row>
         <row r="72">
           <cell r="E72">
-            <v>7783</v>
+            <v>3440</v>
           </cell>
           <cell r="F72" t="str">
-            <v>Ilmu Akuntansi Program Doktor</v>
+            <v>Keperawatan D3</v>
           </cell>
         </row>
         <row r="73">
           <cell r="E73">
-            <v>7784</v>
+            <v>7783</v>
           </cell>
           <cell r="F73" t="str">
-            <v>Pendidikan Dasar</v>
+            <v>Ilmu Akuntansi Program Doktor</v>
           </cell>
         </row>
         <row r="74">
           <cell r="E74">
-            <v>7785</v>
+            <v>7784</v>
           </cell>
           <cell r="F74" t="str">
-            <v>ILMU PERTANIAN (S3)</v>
+            <v>Pendidikan Dasar</v>
           </cell>
         </row>
         <row r="75">
           <cell r="E75">
-            <v>7786</v>
+            <v>7785</v>
           </cell>
           <cell r="F75" t="str">
-            <v>MAGISTER EKONOMI</v>
+            <v>ILMU PERTANIAN (S3)</v>
           </cell>
         </row>
         <row r="76">
           <cell r="E76">
-            <v>7787</v>
+            <v>7786</v>
           </cell>
           <cell r="F76" t="str">
-            <v>Teknik Industri dan Manajemen</v>
+            <v>MAGISTER EKONOMI</v>
           </cell>
         </row>
         <row r="77">
           <cell r="E77">
-            <v>7788</v>
+            <v>7787</v>
           </cell>
           <cell r="F77" t="str">
-            <v>Pendidikan Vokasi Keteknikan</v>
+            <v>Teknik Industri dan Manajemen</v>
           </cell>
         </row>
         <row r="78">
           <cell r="E78">
-            <v>7789</v>
+            <v>7788</v>
           </cell>
           <cell r="F78" t="str">
-            <v>Studi Lingkungan</v>
+            <v>Pendidikan Vokasi Keteknikan</v>
           </cell>
         </row>
       </sheetData>
@@ -7574,9 +7574,9 @@
       <c r="X7" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" t="e">
+      <c r="Z7" t="str">
         <f>VLOOKUP(A7,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA7">
         <f>VLOOKUP(D7,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -7734,9 +7734,9 @@
       <c r="T9" t="s">
         <v>81</v>
       </c>
-      <c r="Z9" t="e">
+      <c r="Z9" t="str">
         <f>VLOOKUP(A9,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA9">
         <f>VLOOKUP(D9,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -7814,9 +7814,9 @@
       <c r="T10" t="s">
         <v>81</v>
       </c>
-      <c r="Z10" t="e">
+      <c r="Z10" t="str">
         <f>VLOOKUP(A10,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA10">
         <f>VLOOKUP(D10,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -8418,9 +8418,9 @@
       <c r="T18" t="s">
         <v>81</v>
       </c>
-      <c r="Z18" t="e">
+      <c r="Z18" t="str">
         <f>VLOOKUP(A18,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA18">
         <f>VLOOKUP(D18,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -8788,9 +8788,9 @@
       <c r="T23" t="s">
         <v>81</v>
       </c>
-      <c r="Z23" t="e">
+      <c r="Z23" t="str">
         <f>VLOOKUP(A23,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA23">
         <f>VLOOKUP(D23,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -8861,9 +8861,9 @@
       <c r="T24" t="s">
         <v>81</v>
       </c>
-      <c r="Z24" t="e">
+      <c r="Z24" t="str">
         <f>VLOOKUP(A24,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA24">
         <f>VLOOKUP(D24,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -9527,9 +9527,9 @@
       <c r="T33" t="s">
         <v>81</v>
       </c>
-      <c r="Z33" t="e">
+      <c r="Z33" t="str">
         <f>VLOOKUP(A33,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA33">
         <f>VLOOKUP(D33,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -9600,9 +9600,9 @@
       <c r="T34" t="s">
         <v>81</v>
       </c>
-      <c r="Z34" t="e">
+      <c r="Z34" t="str">
         <f>VLOOKUP(A34,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA34">
         <f>VLOOKUP(D34,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -10044,9 +10044,9 @@
       <c r="T40" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" t="e">
+      <c r="Z40" t="str">
         <f>VLOOKUP(A40,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA40">
         <f>VLOOKUP(D40,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -10192,9 +10192,9 @@
       <c r="T42" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" t="e">
+      <c r="Z42" t="str">
         <f>VLOOKUP(A42,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA42">
         <f>VLOOKUP(D42,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -10709,9 +10709,9 @@
       <c r="T49" t="s">
         <v>82</v>
       </c>
-      <c r="Z49" t="e">
+      <c r="Z49" t="str">
         <f>VLOOKUP(A49,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA49">
         <f>VLOOKUP(D49,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -11522,9 +11522,9 @@
       <c r="T60" t="s">
         <v>81</v>
       </c>
-      <c r="Z60" t="e">
+      <c r="Z60" t="str">
         <f>VLOOKUP(A60,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA60">
         <f>VLOOKUP(D60,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -12114,9 +12114,9 @@
       <c r="T68" t="s">
         <v>81</v>
       </c>
-      <c r="Z68" t="e">
+      <c r="Z68" t="str">
         <f>VLOOKUP(A68,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA68">
         <f>VLOOKUP(D68,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -12336,9 +12336,9 @@
       <c r="T71" t="s">
         <v>81</v>
       </c>
-      <c r="Z71" t="e">
+      <c r="Z71" t="str">
         <f>VLOOKUP(A71,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA71">
         <f>VLOOKUP(D71,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -12927,9 +12927,9 @@
       <c r="T79" t="s">
         <v>78</v>
       </c>
-      <c r="Z79" t="e">
+      <c r="Z79" t="str">
         <f>VLOOKUP(A79,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA79">
         <f>VLOOKUP(D79,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -13075,9 +13075,9 @@
       <c r="T81" t="s">
         <v>81</v>
       </c>
-      <c r="Z81" t="e">
+      <c r="Z81" t="str">
         <f>VLOOKUP(A81,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA81">
         <f>VLOOKUP(D81,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -13516,9 +13516,9 @@
       <c r="T87" t="s">
         <v>108</v>
       </c>
-      <c r="Z87" t="e">
+      <c r="Z87" t="str">
         <f>VLOOKUP(A87,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA87">
         <f>VLOOKUP(D87,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -13812,9 +13812,9 @@
       <c r="T91" t="s">
         <v>81</v>
       </c>
-      <c r="Z91" t="e">
+      <c r="Z91" t="str">
         <f>VLOOKUP(A91,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA91">
         <f>VLOOKUP(D91,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -14108,9 +14108,9 @@
       <c r="T95" t="s">
         <v>81</v>
       </c>
-      <c r="Z95" t="e">
+      <c r="Z95" t="str">
         <f>VLOOKUP(A95,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA95">
         <f>VLOOKUP(D95,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -14552,9 +14552,9 @@
       <c r="T101" t="s">
         <v>81</v>
       </c>
-      <c r="Z101" t="e">
+      <c r="Z101" t="str">
         <f>VLOOKUP(A101,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA101">
         <f>VLOOKUP(D101,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -14626,9 +14626,9 @@
       <c r="T102" t="s">
         <v>81</v>
       </c>
-      <c r="Z102" t="e">
+      <c r="Z102" t="str">
         <f>VLOOKUP(A102,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA102">
         <f>VLOOKUP(D102,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -15809,9 +15809,9 @@
       <c r="T118" t="s">
         <v>82</v>
       </c>
-      <c r="Z118" t="e">
+      <c r="Z118" t="str">
         <f>VLOOKUP(A118,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA118">
         <f>VLOOKUP(D118,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -16179,9 +16179,9 @@
       <c r="T123" t="s">
         <v>82</v>
       </c>
-      <c r="Z123" t="e">
+      <c r="Z123" t="str">
         <f>VLOOKUP(A123,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA123">
         <f>VLOOKUP(D123,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -16475,9 +16475,9 @@
       <c r="T127" t="s">
         <v>82</v>
       </c>
-      <c r="Z127" t="e">
+      <c r="Z127" t="str">
         <f>VLOOKUP(A127,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA127">
         <f>VLOOKUP(D127,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -16697,9 +16697,9 @@
       <c r="T130" t="s">
         <v>81</v>
       </c>
-      <c r="Z130" t="e">
+      <c r="Z130" t="str">
         <f>VLOOKUP(A130,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA130">
         <f>VLOOKUP(D130,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -17436,9 +17436,9 @@
       <c r="T140" t="s">
         <v>81</v>
       </c>
-      <c r="Z140" t="e">
+      <c r="Z140" t="str">
         <f>VLOOKUP(A140,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA140">
         <f>VLOOKUP(D140,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -17879,9 +17879,9 @@
       <c r="T146" t="s">
         <v>81</v>
       </c>
-      <c r="Z146" t="e">
+      <c r="Z146" t="str">
         <f>VLOOKUP(A146,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA146">
         <f>VLOOKUP(D146,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -17953,9 +17953,9 @@
       <c r="T147" t="s">
         <v>81</v>
       </c>
-      <c r="Z147" t="e">
+      <c r="Z147" t="str">
         <f>VLOOKUP(A147,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA147">
         <f>VLOOKUP(D147,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -18027,9 +18027,9 @@
       <c r="T148" t="s">
         <v>98</v>
       </c>
-      <c r="Z148" t="e">
+      <c r="Z148" t="str">
         <f>VLOOKUP(A148,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA148">
         <f>VLOOKUP(D148,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -18101,9 +18101,9 @@
       <c r="T149" t="s">
         <v>81</v>
       </c>
-      <c r="Z149" t="e">
+      <c r="Z149" t="str">
         <f>VLOOKUP(A149,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA149">
         <f>VLOOKUP(D149,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -18323,9 +18323,9 @@
       <c r="T152" t="s">
         <v>81</v>
       </c>
-      <c r="Z152" t="e">
+      <c r="Z152" t="str">
         <f>VLOOKUP(A152,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA152">
         <f>VLOOKUP(D152,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -18841,9 +18841,9 @@
       <c r="T159" t="s">
         <v>81</v>
       </c>
-      <c r="Z159" t="e">
+      <c r="Z159" t="str">
         <f>VLOOKUP(A159,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA159">
         <f>VLOOKUP(D159,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -18989,9 +18989,9 @@
       <c r="T161" t="s">
         <v>81</v>
       </c>
-      <c r="Z161" t="e">
+      <c r="Z161" t="str">
         <f>VLOOKUP(A161,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA161">
         <f>VLOOKUP(D161,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -19284,9 +19284,9 @@
       <c r="T165" t="s">
         <v>81</v>
       </c>
-      <c r="Z165" t="e">
+      <c r="Z165" t="str">
         <f>VLOOKUP(A165,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA165">
         <f>VLOOKUP(D165,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -20319,9 +20319,9 @@
       <c r="T179" t="s">
         <v>81</v>
       </c>
-      <c r="Z179" t="e">
+      <c r="Z179" t="str">
         <f>VLOOKUP(A179,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA179">
         <f>VLOOKUP(D179,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -20393,9 +20393,9 @@
       <c r="T180" t="s">
         <v>81</v>
       </c>
-      <c r="Z180" t="e">
+      <c r="Z180" t="str">
         <f>VLOOKUP(A180,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA180">
         <f>VLOOKUP(D180,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -20837,9 +20837,9 @@
       <c r="T186" t="s">
         <v>81</v>
       </c>
-      <c r="Z186" t="e">
+      <c r="Z186" t="str">
         <f>VLOOKUP(A186,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA186">
         <f>VLOOKUP(D186,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -20985,9 +20985,9 @@
       <c r="T188" t="s">
         <v>81</v>
       </c>
-      <c r="Z188" t="e">
+      <c r="Z188" t="str">
         <f>VLOOKUP(A188,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA188">
         <f>VLOOKUP(D188,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -21355,9 +21355,9 @@
       <c r="T193" t="s">
         <v>81</v>
       </c>
-      <c r="Z193" t="e">
+      <c r="Z193" t="str">
         <f>VLOOKUP(A193,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA193">
         <f>VLOOKUP(D193,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -21725,9 +21725,9 @@
       <c r="T198" t="s">
         <v>79</v>
       </c>
-      <c r="Z198" t="e">
+      <c r="Z198" t="str">
         <f>VLOOKUP(A198,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA198">
         <f>VLOOKUP(D198,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -22169,9 +22169,9 @@
       <c r="T204" t="s">
         <v>81</v>
       </c>
-      <c r="Z204" t="e">
+      <c r="Z204" t="str">
         <f>VLOOKUP(A204,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA204">
         <f>VLOOKUP(D204,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -22761,9 +22761,9 @@
       <c r="T212" t="s">
         <v>81</v>
       </c>
-      <c r="Z212" t="e">
+      <c r="Z212" t="str">
         <f>VLOOKUP(A212,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA212">
         <f>VLOOKUP(D212,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -24019,9 +24019,9 @@
       <c r="T229" t="s">
         <v>81</v>
       </c>
-      <c r="Z229" t="e">
+      <c r="Z229" t="str">
         <f>VLOOKUP(A229,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA229">
         <f>VLOOKUP(D229,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -25425,9 +25425,9 @@
       <c r="T248" t="s">
         <v>81</v>
       </c>
-      <c r="Z248" t="e">
+      <c r="Z248" t="str">
         <f>VLOOKUP(A248,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA248">
         <f>VLOOKUP(D248,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -25647,9 +25647,9 @@
       <c r="T251" t="s">
         <v>81</v>
       </c>
-      <c r="Z251" t="e">
+      <c r="Z251" t="str">
         <f>VLOOKUP(A251,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA251">
         <f>VLOOKUP(D251,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -25942,9 +25942,9 @@
       <c r="T255" t="s">
         <v>81</v>
       </c>
-      <c r="Z255" t="e">
+      <c r="Z255" t="str">
         <f>VLOOKUP(A255,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA255">
         <f>VLOOKUP(D255,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -26016,9 +26016,9 @@
       <c r="T256" t="s">
         <v>81</v>
       </c>
-      <c r="Z256" t="e">
+      <c r="Z256" t="str">
         <f>VLOOKUP(A256,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA256">
         <f>VLOOKUP(D256,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -26608,9 +26608,9 @@
       <c r="T264" t="s">
         <v>81</v>
       </c>
-      <c r="Z264" t="e">
+      <c r="Z264" t="str">
         <f>VLOOKUP(A264,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA264">
         <f>VLOOKUP(D264,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -27200,9 +27200,9 @@
       <c r="T272" t="s">
         <v>81</v>
       </c>
-      <c r="Z272" t="e">
+      <c r="Z272" t="str">
         <f>VLOOKUP(A272,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA272">
         <f>VLOOKUP(D272,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -27866,9 +27866,9 @@
       <c r="T281" t="s">
         <v>81</v>
       </c>
-      <c r="Z281" t="e">
+      <c r="Z281" t="str">
         <f>VLOOKUP(A281,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA281">
         <f>VLOOKUP(D281,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -28014,9 +28014,9 @@
       <c r="T283" t="s">
         <v>81</v>
       </c>
-      <c r="Z283" t="e">
+      <c r="Z283" t="str">
         <f>VLOOKUP(A283,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA283">
         <f>VLOOKUP(D283,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -28680,9 +28680,9 @@
       <c r="T292" t="s">
         <v>82</v>
       </c>
-      <c r="Z292" t="e">
+      <c r="Z292" t="str">
         <f>VLOOKUP(A292,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA292">
         <f>VLOOKUP(D292,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -29124,9 +29124,9 @@
       <c r="T298" t="s">
         <v>81</v>
       </c>
-      <c r="Z298" t="e">
+      <c r="Z298" t="str">
         <f>VLOOKUP(A298,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA298">
         <f>VLOOKUP(D298,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -29198,9 +29198,9 @@
       <c r="T299" t="s">
         <v>81</v>
       </c>
-      <c r="Z299" t="e">
+      <c r="Z299" t="str">
         <f>VLOOKUP(A299,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA299">
         <f>VLOOKUP(D299,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30234,9 +30234,9 @@
       <c r="T313" t="s">
         <v>81</v>
       </c>
-      <c r="Z313" t="e">
+      <c r="Z313" t="str">
         <f>VLOOKUP(A313,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA313">
         <f>VLOOKUP(D313,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30382,9 +30382,9 @@
       <c r="T315" t="s">
         <v>82</v>
       </c>
-      <c r="Z315" t="e">
+      <c r="Z315" t="str">
         <f>VLOOKUP(A315,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA315">
         <f>VLOOKUP(D315,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30456,9 +30456,9 @@
       <c r="T316" t="s">
         <v>81</v>
       </c>
-      <c r="Z316" t="e">
+      <c r="Z316" t="str">
         <f>VLOOKUP(A316,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA316">
         <f>VLOOKUP(D316,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30751,9 +30751,9 @@
       <c r="T320" t="s">
         <v>81</v>
       </c>
-      <c r="Z320" t="e">
+      <c r="Z320" t="str">
         <f>VLOOKUP(A320,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA320">
         <f>VLOOKUP(D320,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -30899,9 +30899,9 @@
       <c r="T322" t="s">
         <v>81</v>
       </c>
-      <c r="Z322" t="e">
+      <c r="Z322" t="str">
         <f>VLOOKUP(A322,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA322">
         <f>VLOOKUP(D322,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -31047,9 +31047,9 @@
       <c r="T324" t="s">
         <v>81</v>
       </c>
-      <c r="Z324" t="e">
+      <c r="Z324" t="str">
         <f>VLOOKUP(A324,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA324">
         <f>VLOOKUP(D324,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -31787,9 +31787,9 @@
       <c r="T334" t="s">
         <v>81</v>
       </c>
-      <c r="Z334" t="e">
+      <c r="Z334" t="str">
         <f>VLOOKUP(A334,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA334">
         <f>VLOOKUP(D334,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -32008,9 +32008,9 @@
       <c r="T337" t="s">
         <v>81</v>
       </c>
-      <c r="Z337" t="e">
+      <c r="Z337" t="str">
         <f>VLOOKUP(A337,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA337">
         <f>VLOOKUP(D337,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -32304,9 +32304,9 @@
       <c r="T341" t="s">
         <v>81</v>
       </c>
-      <c r="Z341" t="e">
+      <c r="Z341" t="str">
         <f>VLOOKUP(A341,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA341">
         <f>VLOOKUP(D341,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -32600,9 +32600,9 @@
       <c r="T345" t="s">
         <v>81</v>
       </c>
-      <c r="Z345" t="e">
+      <c r="Z345" t="str">
         <f>VLOOKUP(A345,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA345">
         <f>VLOOKUP(D345,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -33488,9 +33488,9 @@
       <c r="T357" t="s">
         <v>81</v>
       </c>
-      <c r="Z357" t="e">
+      <c r="Z357" t="str">
         <f>VLOOKUP(A357,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA357">
         <f>VLOOKUP(D357,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -34523,9 +34523,9 @@
       <c r="T371" t="s">
         <v>81</v>
       </c>
-      <c r="Z371" t="e">
+      <c r="Z371" t="str">
         <f>VLOOKUP(A371,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA371">
         <f>VLOOKUP(D371,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -35483,9 +35483,9 @@
       <c r="T384" t="s">
         <v>81</v>
       </c>
-      <c r="Z384" t="e">
+      <c r="Z384" t="str">
         <f>VLOOKUP(A384,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA384">
         <f>VLOOKUP(D384,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -36444,9 +36444,9 @@
       <c r="T397" t="s">
         <v>81</v>
       </c>
-      <c r="Z397" t="e">
+      <c r="Z397" t="str">
         <f>VLOOKUP(A397,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA397">
         <f>VLOOKUP(D397,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -36592,9 +36592,9 @@
       <c r="T399" t="s">
         <v>81</v>
       </c>
-      <c r="Z399" t="e">
+      <c r="Z399" t="str">
         <f>VLOOKUP(A399,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA399">
         <f>VLOOKUP(D399,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -36666,9 +36666,9 @@
       <c r="T400" t="s">
         <v>81</v>
       </c>
-      <c r="Z400" t="e">
+      <c r="Z400" t="str">
         <f>VLOOKUP(A400,registrasi!$B$2:$C$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>registrasi</v>
       </c>
       <c r="AA400">
         <f>VLOOKUP(D400,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
@@ -37577,8 +37577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D88B47-792B-4051-BCF3-A0949AF380CC}">
   <dimension ref="A1:C2465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H191" sqref="H191"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37640,7 +37640,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>42331111115</v>
+        <v>42332210597</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -37652,7 +37652,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>42331111522</v>
+        <v>42332210204</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -37664,7 +37664,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>42331111205</v>
+        <v>42331111889</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -37676,7 +37676,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>42331110778</v>
+        <v>42331111115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -37688,7 +37688,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>42331111577</v>
+        <v>42331111522</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -37700,7 +37700,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>42331111790</v>
+        <v>42331111205</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -37712,7 +37712,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>42331110641</v>
+        <v>42331110778</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -37724,7 +37724,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>42332210383</v>
+        <v>42331111795</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -37736,7 +37736,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>42332211062</v>
+        <v>42331111577</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -37748,7 +37748,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>42331111762</v>
+        <v>42331111790</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -37760,7 +37760,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>42331110808</v>
+        <v>42331110641</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -37772,7 +37772,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>42332410448</v>
+        <v>42332210383</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -37784,7 +37784,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>42331111102</v>
+        <v>42331110502</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
@@ -37796,7 +37796,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>42331111023</v>
+        <v>42331111160</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -37808,7 +37808,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>42331110122</v>
+        <v>42332211062</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
@@ -37820,7 +37820,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>42332410173</v>
+        <v>42331111762</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -37832,7 +37832,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>42331112128</v>
+        <v>42331110808</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>23</v>
@@ -37844,7 +37844,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>42331111616</v>
+        <v>42332410448</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
@@ -37856,7 +37856,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>42332211103</v>
+        <v>42331111102</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -37868,7 +37868,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>42332210180</v>
+        <v>42331112142</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -37880,7 +37880,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>42331111376</v>
+        <v>42332210616</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
@@ -37892,7 +37892,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>42331110117</v>
+        <v>42331111023</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
@@ -37904,7 +37904,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>42331111087</v>
+        <v>42331110122</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>23</v>
@@ -37916,7 +37916,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>42331111294</v>
+        <v>42331110684</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>23</v>
@@ -37928,7 +37928,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>42331112022</v>
+        <v>42332211231</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>23</v>
@@ -37940,7 +37940,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>42331110609</v>
+        <v>42332410173</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>23</v>
@@ -37952,7 +37952,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>42331110566</v>
+        <v>42331112128</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>23</v>
@@ -37964,7 +37964,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>42331110818</v>
+        <v>42331111616</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>23</v>
@@ -37976,7 +37976,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>42331111502</v>
+        <v>42332211103</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>23</v>
@@ -37988,7 +37988,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>42331111460</v>
+        <v>42332210180</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>23</v>
@@ -38000,7 +38000,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>42331111497</v>
+        <v>42333111948</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>23</v>
@@ -38012,7 +38012,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>42331110025</v>
+        <v>42331111376</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>23</v>
@@ -38024,7 +38024,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>42331111814</v>
+        <v>42331110117</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>23</v>
@@ -38036,7 +38036,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>42332210447</v>
+        <v>42331111087</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>23</v>
@@ -38048,7 +38048,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>42331111831</v>
+        <v>42331111294</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>23</v>
@@ -38060,7 +38060,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>42331112152</v>
+        <v>42331112022</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>23</v>
@@ -38072,7 +38072,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>42331111690</v>
+        <v>42331111997</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
@@ -38084,7 +38084,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>42331112027</v>
+        <v>42331110609</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>23</v>
@@ -38096,7 +38096,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>42331111971</v>
+        <v>42331110566</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>23</v>
@@ -38108,7 +38108,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>42331111442</v>
+        <v>42331110818</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
@@ -38120,7 +38120,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>42332220224</v>
+        <v>42331111502</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
@@ -38132,7 +38132,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>42331112084</v>
+        <v>42331111166</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>23</v>
@@ -38144,7 +38144,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>42331110335</v>
+        <v>42331111460</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>23</v>
@@ -38156,7 +38156,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>42331110314</v>
+        <v>42331111497</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
@@ -38168,7 +38168,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>42331111541</v>
+        <v>42331111515</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>23</v>
@@ -38180,7 +38180,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>42332410323</v>
+        <v>42331110025</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>23</v>
@@ -38192,7 +38192,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>42331111370</v>
+        <v>42331111814</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>23</v>
@@ -38204,7 +38204,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>42331111847</v>
+        <v>42332210447</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>23</v>
@@ -38216,7 +38216,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>42331111711</v>
+        <v>42331111831</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>23</v>
@@ -38228,7 +38228,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>42331110698</v>
+        <v>42314310224</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>23</v>
@@ -38240,7 +38240,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>42331111150</v>
+        <v>42331112152</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
@@ -38252,7 +38252,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>42331111010</v>
+        <v>42331112068</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>23</v>
@@ -38264,7 +38264,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>42331110371</v>
+        <v>42331111690</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>23</v>
@@ -38276,7 +38276,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>42331111860</v>
+        <v>42331112027</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>23</v>
@@ -38288,7 +38288,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>42332410410</v>
+        <v>42331111971</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>23</v>
@@ -38300,7 +38300,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>42333110438</v>
+        <v>42331111442</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>23</v>
@@ -38312,7 +38312,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>42331110944</v>
+        <v>42331112079</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>23</v>
@@ -38324,7 +38324,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>42331110442</v>
+        <v>42332220224</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
@@ -38336,7 +38336,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>42331111713</v>
+        <v>42331112084</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
@@ -38348,7 +38348,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>42331111130</v>
+        <v>42331111903</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>23</v>
@@ -38360,7 +38360,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>42332211161</v>
+        <v>42331110335</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>23</v>
@@ -38372,7 +38372,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>42331110017</v>
+        <v>42331110314</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>23</v>
@@ -38384,7 +38384,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>42332210245</v>
+        <v>42331111541</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>23</v>
@@ -38396,7 +38396,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>42332220280</v>
+        <v>42331111547</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>23</v>
@@ -38408,7 +38408,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>42331111673</v>
+        <v>42332410323</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>23</v>
@@ -38420,7 +38420,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>42331110938</v>
+        <v>42331111370</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>23</v>
@@ -38432,7 +38432,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>42331110396</v>
+        <v>42331111727</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>23</v>
@@ -38444,7 +38444,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>42331111826</v>
+        <v>42332210344</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>23</v>
@@ -38456,7 +38456,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>42331110510</v>
+        <v>42331111847</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>23</v>
@@ -38468,7 +38468,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>42331110387</v>
+        <v>42331111711</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>23</v>
@@ -38480,7 +38480,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>42333111762</v>
+        <v>42331110698</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>23</v>
@@ -38492,7 +38492,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>42331111076</v>
+        <v>42331111150</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>23</v>
@@ -38504,7 +38504,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>42331111000</v>
+        <v>42331111010</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>23</v>
@@ -38516,7 +38516,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>42331111835</v>
+        <v>42331110371</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>23</v>
@@ -38528,7 +38528,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>42331111970</v>
+        <v>42331111860</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>23</v>
@@ -38540,7 +38540,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>42315112136</v>
+        <v>42332410410</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>23</v>
@@ -38552,7 +38552,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>42331110472</v>
+        <v>42333110438</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>23</v>
@@ -38564,7 +38564,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>42331111895</v>
+        <v>42331110944</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>23</v>
@@ -38576,7 +38576,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>42332210744</v>
+        <v>42331111745</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
@@ -38588,7 +38588,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>42331111019</v>
+        <v>42332220464</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>23</v>
@@ -38600,7 +38600,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>42331110559</v>
+        <v>42331110442</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>23</v>
@@ -38612,7 +38612,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>42331112032</v>
+        <v>42331111713</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
@@ -38624,7 +38624,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>42331111629</v>
+        <v>42331111065</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>23</v>
@@ -38636,7 +38636,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>42332210721</v>
+        <v>42331111130</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>23</v>
@@ -38648,7 +38648,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>42331110600</v>
+        <v>42332211161</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>23</v>
@@ -38660,7 +38660,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>42331111188</v>
+        <v>42331111308</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>23</v>
@@ -38672,7 +38672,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>42331111648</v>
+        <v>42331110017</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>23</v>
@@ -38684,7 +38684,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>42331110881</v>
+        <v>42332210245</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>23</v>
@@ -38696,7 +38696,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>42331110058</v>
+        <v>42332220280</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>23</v>
@@ -38708,7 +38708,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>42331110121</v>
+        <v>42331111673</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>23</v>
@@ -38720,7 +38720,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>42331111570</v>
+        <v>42331110938</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>23</v>
@@ -38732,7 +38732,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>42331111516</v>
+        <v>42331110849</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>23</v>
@@ -38744,7 +38744,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>42331110430</v>
+        <v>42331110396</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>23</v>
@@ -38756,7 +38756,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>42331112059</v>
+        <v>42331111826</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>23</v>
@@ -38768,7 +38768,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>42331110964</v>
+        <v>42331110510</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>23</v>
@@ -38780,7 +38780,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>42331110224</v>
+        <v>42331110387</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>23</v>
@@ -38792,7 +38792,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>42331111696</v>
+        <v>42331112156</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>23</v>
@@ -38804,7 +38804,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>42331111303</v>
+        <v>42331111776</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>23</v>
@@ -38816,7 +38816,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>42332211301</v>
+        <v>42332410567</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>23</v>
@@ -38828,7 +38828,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>42332210792</v>
+        <v>42331112200</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>23</v>
@@ -38840,7 +38840,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>42331111098</v>
+        <v>42333111762</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>23</v>
@@ -38852,7 +38852,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>42331111605</v>
+        <v>42332210503</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>23</v>
@@ -38864,7 +38864,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>42331110480</v>
+        <v>42331111076</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>23</v>
@@ -38876,7 +38876,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>42331111542</v>
+        <v>42331111000</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>23</v>
@@ -38888,7 +38888,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>42331111612</v>
+        <v>42331111835</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>23</v>
@@ -38900,7 +38900,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>42331110856</v>
+        <v>42331111430</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>23</v>
@@ -38912,7 +38912,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>42331110809</v>
+        <v>42331111970</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>23</v>
@@ -38924,7 +38924,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>42332210376</v>
+        <v>42331110828</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>23</v>
@@ -38936,7 +38936,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>42331111728</v>
+        <v>42315112136</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>23</v>
@@ -38948,7 +38948,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>42331111549</v>
+        <v>42331110472</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>23</v>
@@ -38960,7 +38960,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>42331110649</v>
+        <v>42331111366</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>23</v>
@@ -38972,7 +38972,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>42331111248</v>
+        <v>42331111895</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>23</v>
@@ -38984,7 +38984,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>42332211044</v>
+        <v>42332210744</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>23</v>
@@ -38996,7 +38996,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>42331111614</v>
+        <v>42331111019</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>23</v>
@@ -39008,7 +39008,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>42331111147</v>
+        <v>42331110559</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>23</v>
@@ -39020,7 +39020,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>42331111529</v>
+        <v>42331112032</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
@@ -39032,7 +39032,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>42331110741</v>
+        <v>42331111600</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>23</v>
@@ -39044,7 +39044,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>42331110414</v>
+        <v>42331110781</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>23</v>
@@ -39056,7 +39056,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>42331111688</v>
+        <v>42331111629</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>23</v>
@@ -39068,7 +39068,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>42331110820</v>
+        <v>42332210721</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>23</v>
@@ -39080,7 +39080,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>42332220303</v>
+        <v>42331110600</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>23</v>
@@ -39092,7 +39092,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>42331110754</v>
+        <v>42331111188</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>23</v>
@@ -39104,7 +39104,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>42331111913</v>
+        <v>42331111648</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>23</v>
@@ -39116,7 +39116,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>42331110094</v>
+        <v>42331111411</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>23</v>
@@ -39128,7 +39128,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>42331110832</v>
+        <v>42332210339</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>23</v>
@@ -39140,7 +39140,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>42331111336</v>
+        <v>42331110881</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>23</v>
@@ -39152,7 +39152,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>42331110863</v>
+        <v>42331110058</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>23</v>
@@ -39164,7 +39164,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>42331111672</v>
+        <v>42331110121</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>23</v>
@@ -39176,7 +39176,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>42331110906</v>
+        <v>42331111570</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>23</v>
@@ -39188,7 +39188,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>42333410160</v>
+        <v>42332211173</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>23</v>
@@ -39200,7 +39200,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>42331110704</v>
+        <v>42331111516</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>23</v>
@@ -39212,7 +39212,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>42331111291</v>
+        <v>42331110430</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>23</v>
@@ -39224,7 +39224,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>42331110930</v>
+        <v>42331112059</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>23</v>
@@ -39236,7 +39236,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>42332210194</v>
+        <v>42331110988</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>23</v>
@@ -39248,7 +39248,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>42332210719</v>
+        <v>42331110964</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>23</v>
@@ -39260,7 +39260,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2">
-        <v>42331110080</v>
+        <v>42331110224</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>23</v>
@@ -39272,7 +39272,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2">
-        <v>42331111452</v>
+        <v>42331111696</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>23</v>
@@ -39284,7 +39284,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2">
-        <v>42331110919</v>
+        <v>42331111303</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>23</v>
@@ -39296,7 +39296,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2">
-        <v>42333410264</v>
+        <v>42331110958</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>23</v>
@@ -39308,7 +39308,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2">
-        <v>42332220058</v>
+        <v>42332211301</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>23</v>
@@ -39320,7 +39320,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2">
-        <v>42331111478</v>
+        <v>42332210792</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>23</v>
@@ -39332,7 +39332,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2">
-        <v>42331110168</v>
+        <v>42331110889</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>23</v>
@@ -39344,7 +39344,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2">
-        <v>42331111503</v>
+        <v>42331111098</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>23</v>
@@ -39356,7 +39356,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2">
-        <v>42331111342</v>
+        <v>42331111605</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>23</v>
@@ -39368,7 +39368,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2">
-        <v>42331112104</v>
+        <v>42331110480</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>23</v>
@@ -39380,7 +39380,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2">
-        <v>42332220091</v>
+        <v>42331111542</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>23</v>
@@ -39392,7 +39392,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2">
-        <v>42331111622</v>
+        <v>42331111612</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>23</v>
@@ -39404,7 +39404,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2">
-        <v>42331110521</v>
+        <v>42331110856</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>23</v>
@@ -39416,7 +39416,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2">
-        <v>42331111298</v>
+        <v>42331110809</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>23</v>
@@ -39428,7 +39428,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2">
-        <v>42331111768</v>
+        <v>42332210376</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>23</v>
@@ -39440,7 +39440,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2">
-        <v>42331112145</v>
+        <v>42331110736</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
@@ -39452,7 +39452,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2">
-        <v>42331110541</v>
+        <v>42331111728</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>23</v>
@@ -39464,7 +39464,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2">
-        <v>42331110639</v>
+        <v>42331111549</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>23</v>
@@ -39476,7 +39476,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2">
-        <v>42331111554</v>
+        <v>42331110649</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>23</v>
@@ -39488,7 +39488,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2">
-        <v>42331111773</v>
+        <v>42331111248</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>23</v>
@@ -39500,7 +39500,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2">
-        <v>42331110393</v>
+        <v>42332211044</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>23</v>
@@ -39512,7 +39512,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2">
-        <v>42331111736</v>
+        <v>42331111614</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>23</v>
@@ -39524,7 +39524,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2">
-        <v>42331111949</v>
+        <v>42331111147</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>23</v>
@@ -39536,7 +39536,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2">
-        <v>42331111092</v>
+        <v>42331111529</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>23</v>
@@ -39548,7 +39548,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2">
-        <v>42332210933</v>
+        <v>42331110741</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>23</v>
@@ -39560,7 +39560,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2">
-        <v>42331111027</v>
+        <v>42331110414</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>23</v>
@@ -39572,7 +39572,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2">
-        <v>42332210310</v>
+        <v>42331111688</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>23</v>
@@ -39584,7 +39584,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2">
-        <v>42331111185</v>
+        <v>42331110820</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>23</v>
@@ -39596,7 +39596,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2">
-        <v>42331111793</v>
+        <v>42331110095</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>23</v>
@@ -39608,7 +39608,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2">
-        <v>42331111032</v>
+        <v>42332220303</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>23</v>
@@ -39620,7 +39620,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2">
-        <v>42331110493</v>
+        <v>42331110873</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>23</v>
@@ -39632,7 +39632,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2">
-        <v>42331110752</v>
+        <v>42331110754</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>23</v>
@@ -39644,7 +39644,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2">
-        <v>42331112066</v>
+        <v>42331111913</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>23</v>
@@ -39656,7 +39656,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2">
-        <v>42331111746</v>
+        <v>42331111717</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>23</v>
@@ -39668,7 +39668,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2">
-        <v>42331110885</v>
+        <v>42331111662</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>23</v>
@@ -39680,7 +39680,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2">
-        <v>42331110928</v>
+        <v>42331110094</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>23</v>
@@ -39692,7 +39692,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2">
-        <v>42331110615</v>
+        <v>42331111471</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>23</v>
@@ -39704,7 +39704,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2">
-        <v>42331111740</v>
+        <v>42331110832</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>23</v>
@@ -39716,7 +39716,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2">
-        <v>42332410322</v>
+        <v>42331111336</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>23</v>
@@ -39728,7 +39728,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2">
-        <v>42331110578</v>
+        <v>42331110863</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>23</v>
@@ -39740,7 +39740,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2">
-        <v>42332211175</v>
+        <v>42331111672</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>23</v>
@@ -39752,7 +39752,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2">
-        <v>42331110695</v>
+        <v>42331111459</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -39764,7 +39764,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2">
-        <v>42331110118</v>
+        <v>42331110906</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>23</v>
@@ -39776,7 +39776,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2">
-        <v>42331111047</v>
+        <v>42333410160</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>23</v>
@@ -39788,7 +39788,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2">
-        <v>42331110346</v>
+        <v>42331110704</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>23</v>
@@ -39800,7 +39800,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2">
-        <v>42331110793</v>
+        <v>42331111291</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>23</v>
@@ -39812,7 +39812,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2">
-        <v>42331111062</v>
+        <v>42331111886</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>23</v>
@@ -39824,7 +39824,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2">
-        <v>42331111697</v>
+        <v>42331112111</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>23</v>
@@ -39836,7 +39836,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2">
-        <v>42332410560</v>
+        <v>42331110930</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>23</v>
@@ -39848,7 +39848,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2">
-        <v>42331111021</v>
+        <v>42332210194</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>23</v>
@@ -39860,7 +39860,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2">
-        <v>42331111552</v>
+        <v>42332210719</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>23</v>
@@ -39872,7 +39872,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2">
-        <v>42331111216</v>
+        <v>42331110080</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>23</v>
@@ -39884,7 +39884,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2">
-        <v>42331111967</v>
+        <v>42332220404</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>23</v>
@@ -39896,7 +39896,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2">
-        <v>42331111512</v>
+        <v>42331111452</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>23</v>
@@ -39908,7 +39908,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2">
-        <v>42331111408</v>
+        <v>42331110919</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>23</v>
@@ -39920,7 +39920,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2">
-        <v>42332210422</v>
+        <v>42333410264</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>23</v>
@@ -39932,7 +39932,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2">
-        <v>42331110664</v>
+        <v>42331111322</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>23</v>
@@ -39944,7 +39944,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2">
-        <v>42331111219</v>
+        <v>42331111844</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
@@ -39956,7 +39956,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2">
-        <v>42331111753</v>
+        <v>42332220058</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>23</v>
@@ -39968,7 +39968,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2">
-        <v>42332211118</v>
+        <v>42331111478</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>23</v>
@@ -39980,7 +39980,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2">
-        <v>42331110957</v>
+        <v>42331110168</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>23</v>
@@ -39992,7 +39992,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2">
-        <v>42331111215</v>
+        <v>42331111503</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>23</v>
@@ -40003,6 +40003,9 @@
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
+      <c r="B202" s="2">
+        <v>42331111342</v>
+      </c>
       <c r="C202" s="2" t="s">
         <v>23</v>
       </c>
@@ -40012,6 +40015,9 @@
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
+      <c r="B203" s="2">
+        <v>42331112104</v>
+      </c>
       <c r="C203" s="2" t="s">
         <v>23</v>
       </c>
@@ -40021,6 +40027,9 @@
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
+      <c r="B204" s="2">
+        <v>42332220091</v>
+      </c>
       <c r="C204" s="2" t="s">
         <v>23</v>
       </c>
@@ -40030,6 +40039,9 @@
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
+      <c r="B205" s="2">
+        <v>42331111622</v>
+      </c>
       <c r="C205" s="2" t="s">
         <v>23</v>
       </c>
@@ -40039,6 +40051,9 @@
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
+      <c r="B206" s="2">
+        <v>42331110521</v>
+      </c>
       <c r="C206" s="2" t="s">
         <v>23</v>
       </c>
@@ -40048,6 +40063,9 @@
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
+      <c r="B207" s="2">
+        <v>42331110680</v>
+      </c>
       <c r="C207" s="2" t="s">
         <v>23</v>
       </c>
@@ -40057,6 +40075,9 @@
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
+      <c r="B208" s="2">
+        <v>42331111298</v>
+      </c>
       <c r="C208" s="2" t="s">
         <v>23</v>
       </c>
@@ -40066,6 +40087,9 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
+      <c r="B209" s="2">
+        <v>42331112139</v>
+      </c>
       <c r="C209" s="2" t="s">
         <v>23</v>
       </c>
@@ -40075,6 +40099,9 @@
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
+      <c r="B210" s="2">
+        <v>42331110748</v>
+      </c>
       <c r="C210" s="2" t="s">
         <v>23</v>
       </c>
@@ -40084,6 +40111,9 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
+      <c r="B211" s="2">
+        <v>42331111768</v>
+      </c>
       <c r="C211" s="2" t="s">
         <v>23</v>
       </c>
@@ -40093,6 +40123,9 @@
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
+      <c r="B212" s="2">
+        <v>42331112145</v>
+      </c>
       <c r="C212" s="2" t="s">
         <v>23</v>
       </c>
@@ -40102,6 +40135,9 @@
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
+      <c r="B213" s="2">
+        <v>42331110541</v>
+      </c>
       <c r="C213" s="2" t="s">
         <v>23</v>
       </c>
@@ -40111,6 +40147,9 @@
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
+      <c r="B214" s="2">
+        <v>42331110546</v>
+      </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
       </c>
@@ -40120,6 +40159,9 @@
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
+      <c r="B215" s="2">
+        <v>42331110639</v>
+      </c>
       <c r="C215" s="2" t="s">
         <v>23</v>
       </c>
@@ -40129,6 +40171,9 @@
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
+      <c r="B216" s="2">
+        <v>42331112043</v>
+      </c>
       <c r="C216" s="2" t="s">
         <v>23</v>
       </c>
@@ -40138,6 +40183,9 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
+      <c r="B217" s="2">
+        <v>42331112106</v>
+      </c>
       <c r="C217" s="2" t="s">
         <v>23</v>
       </c>
@@ -40147,6 +40195,9 @@
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
+      <c r="B218" s="2">
+        <v>42331111554</v>
+      </c>
       <c r="C218" s="2" t="s">
         <v>23</v>
       </c>
@@ -40156,6 +40207,9 @@
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
+      <c r="B219" s="2">
+        <v>42331111773</v>
+      </c>
       <c r="C219" s="2" t="s">
         <v>23</v>
       </c>
@@ -40165,6 +40219,9 @@
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
+      <c r="B220" s="2">
+        <v>42331110393</v>
+      </c>
       <c r="C220" s="2" t="s">
         <v>23</v>
       </c>
@@ -40174,6 +40231,9 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
+      <c r="B221" s="2">
+        <v>42331111736</v>
+      </c>
       <c r="C221" s="2" t="s">
         <v>23</v>
       </c>
@@ -40183,6 +40243,9 @@
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
+      <c r="B222" s="2">
+        <v>42331111949</v>
+      </c>
       <c r="C222" s="2" t="s">
         <v>23</v>
       </c>
@@ -40192,6 +40255,9 @@
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
+      <c r="B223" s="2">
+        <v>42331111092</v>
+      </c>
       <c r="C223" s="2" t="s">
         <v>23</v>
       </c>
@@ -40201,6 +40267,9 @@
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
+      <c r="B224" s="2">
+        <v>42332210933</v>
+      </c>
       <c r="C224" s="2" t="s">
         <v>23</v>
       </c>
@@ -40210,6 +40279,9 @@
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
+      <c r="B225" s="2">
+        <v>42331111237</v>
+      </c>
       <c r="C225" s="2" t="s">
         <v>23</v>
       </c>
@@ -40219,6 +40291,9 @@
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
+      <c r="B226" s="2">
+        <v>42331111472</v>
+      </c>
       <c r="C226" s="2" t="s">
         <v>23</v>
       </c>
@@ -40228,6 +40303,9 @@
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
+      <c r="B227" s="2">
+        <v>42331111027</v>
+      </c>
       <c r="C227" s="2" t="s">
         <v>23</v>
       </c>
@@ -40237,7 +40315,9 @@
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="B228"/>
+      <c r="B228">
+        <v>42332210310</v>
+      </c>
       <c r="C228" s="2" t="s">
         <v>23</v>
       </c>
@@ -40247,6 +40327,9 @@
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
+      <c r="B229" s="2">
+        <v>42331111751</v>
+      </c>
       <c r="C229" s="2" t="s">
         <v>23</v>
       </c>
@@ -40256,6 +40339,9 @@
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
+      <c r="B230" s="2">
+        <v>42331111185</v>
+      </c>
       <c r="C230" s="2" t="s">
         <v>23</v>
       </c>
@@ -40265,6 +40351,9 @@
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
+      <c r="B231" s="2">
+        <v>42331111705</v>
+      </c>
       <c r="C231" s="2" t="s">
         <v>23</v>
       </c>
@@ -40274,6 +40363,9 @@
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
+      <c r="B232" s="2">
+        <v>42331111793</v>
+      </c>
       <c r="C232" s="2" t="s">
         <v>23</v>
       </c>
@@ -40283,6 +40375,9 @@
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
+      <c r="B233" s="2">
+        <v>42331111032</v>
+      </c>
       <c r="C233" s="2" t="s">
         <v>23</v>
       </c>
@@ -40292,6 +40387,9 @@
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
+      <c r="B234" s="2">
+        <v>42331110493</v>
+      </c>
       <c r="C234" s="2" t="s">
         <v>23</v>
       </c>
@@ -40301,6 +40399,9 @@
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
+      <c r="B235" s="2">
+        <v>42331110752</v>
+      </c>
       <c r="C235" s="2" t="s">
         <v>23</v>
       </c>
@@ -40310,6 +40411,9 @@
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
+      <c r="B236" s="2">
+        <v>42331112066</v>
+      </c>
       <c r="C236" s="2" t="s">
         <v>23</v>
       </c>
@@ -40319,6 +40423,9 @@
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
+      <c r="B237" s="2">
+        <v>42331111746</v>
+      </c>
       <c r="C237" s="2" t="s">
         <v>23</v>
       </c>
@@ -40328,6 +40435,9 @@
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
+      <c r="B238" s="2">
+        <v>42331110885</v>
+      </c>
       <c r="C238" s="2" t="s">
         <v>23</v>
       </c>
@@ -40337,6 +40447,9 @@
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
+      <c r="B239" s="2">
+        <v>42331111934</v>
+      </c>
       <c r="C239" s="2" t="s">
         <v>23</v>
       </c>
@@ -40346,6 +40459,9 @@
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
+      <c r="B240" s="2">
+        <v>42331110928</v>
+      </c>
       <c r="C240" s="2" t="s">
         <v>23</v>
       </c>
@@ -40355,6 +40471,9 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
+      <c r="B241" s="2">
+        <v>42331110615</v>
+      </c>
       <c r="C241" s="2" t="s">
         <v>23</v>
       </c>
@@ -40364,6 +40483,9 @@
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
+      <c r="B242" s="2">
+        <v>42331111740</v>
+      </c>
       <c r="C242" s="2" t="s">
         <v>23</v>
       </c>
@@ -40373,6 +40495,9 @@
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
+      <c r="B243" s="2">
+        <v>42332410322</v>
+      </c>
       <c r="C243" s="2" t="s">
         <v>23</v>
       </c>
@@ -40382,6 +40507,9 @@
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
+      <c r="B244" s="2">
+        <v>42331110578</v>
+      </c>
       <c r="C244" s="2" t="s">
         <v>23</v>
       </c>
@@ -40391,6 +40519,9 @@
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
+      <c r="B245" s="2">
+        <v>42332211175</v>
+      </c>
       <c r="C245" s="2" t="s">
         <v>23</v>
       </c>
@@ -40400,6 +40531,9 @@
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
+      <c r="B246" s="2">
+        <v>42331110695</v>
+      </c>
       <c r="C246" s="2" t="s">
         <v>23</v>
       </c>
@@ -40409,6 +40543,9 @@
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
+      <c r="B247" s="2">
+        <v>42331112113</v>
+      </c>
       <c r="C247" s="2" t="s">
         <v>23</v>
       </c>
@@ -40418,6 +40555,9 @@
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
+      <c r="B248" s="2">
+        <v>42331110118</v>
+      </c>
       <c r="C248" s="2" t="s">
         <v>23</v>
       </c>
@@ -40427,6 +40567,9 @@
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
+      <c r="B249" s="2">
+        <v>42331111047</v>
+      </c>
       <c r="C249" s="2" t="s">
         <v>23</v>
       </c>
@@ -40436,6 +40579,9 @@
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
+      <c r="B250" s="2">
+        <v>42331110346</v>
+      </c>
       <c r="C250" s="2" t="s">
         <v>23</v>
       </c>
@@ -40445,6 +40591,9 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
+      <c r="B251" s="2">
+        <v>42331110793</v>
+      </c>
       <c r="C251" s="2" t="s">
         <v>23</v>
       </c>
@@ -40454,6 +40603,9 @@
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
+      <c r="B252" s="2">
+        <v>42331111062</v>
+      </c>
       <c r="C252" s="2" t="s">
         <v>23</v>
       </c>
@@ -40463,6 +40615,9 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
+      <c r="B253" s="2">
+        <v>42331111697</v>
+      </c>
       <c r="C253" s="2" t="s">
         <v>23</v>
       </c>
@@ -40472,6 +40627,9 @@
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
+      <c r="B254" s="2">
+        <v>42331111661</v>
+      </c>
       <c r="C254" s="2" t="s">
         <v>23</v>
       </c>
@@ -40481,6 +40639,9 @@
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
+      <c r="B255" s="2">
+        <v>42332410560</v>
+      </c>
       <c r="C255" s="2" t="s">
         <v>23</v>
       </c>
@@ -40490,6 +40651,9 @@
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
+      <c r="B256" s="2">
+        <v>42331111021</v>
+      </c>
       <c r="C256" s="2" t="s">
         <v>23</v>
       </c>
@@ -40499,6 +40663,9 @@
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
+      <c r="B257" s="2">
+        <v>42331111552</v>
+      </c>
       <c r="C257" s="2" t="s">
         <v>23</v>
       </c>
@@ -40508,6 +40675,9 @@
         <f t="shared" ref="A258:A321" si="4">+A257+1</f>
         <v>257</v>
       </c>
+      <c r="B258" s="2">
+        <v>42331111216</v>
+      </c>
       <c r="C258" s="2" t="s">
         <v>23</v>
       </c>
@@ -40517,6 +40687,9 @@
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
+      <c r="B259" s="2">
+        <v>42331111967</v>
+      </c>
       <c r="C259" s="2" t="s">
         <v>23</v>
       </c>
@@ -40526,6 +40699,9 @@
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
+      <c r="B260" s="2">
+        <v>42331111512</v>
+      </c>
       <c r="C260" s="2" t="s">
         <v>23</v>
       </c>
@@ -40535,6 +40711,9 @@
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
+      <c r="B261" s="2">
+        <v>42331111378</v>
+      </c>
       <c r="C261" s="2" t="s">
         <v>23</v>
       </c>
@@ -40544,6 +40723,9 @@
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
+      <c r="B262" s="2">
+        <v>42331111408</v>
+      </c>
       <c r="C262" s="2" t="s">
         <v>23</v>
       </c>
@@ -40553,6 +40735,9 @@
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
+      <c r="B263" s="2">
+        <v>42331110924</v>
+      </c>
       <c r="C263" s="2" t="s">
         <v>23</v>
       </c>
@@ -40562,6 +40747,9 @@
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
+      <c r="B264" s="2">
+        <v>42331111077</v>
+      </c>
       <c r="C264" s="2" t="s">
         <v>23</v>
       </c>
@@ -40571,6 +40759,9 @@
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
+      <c r="B265" s="2">
+        <v>42332210422</v>
+      </c>
       <c r="C265" s="2" t="s">
         <v>23</v>
       </c>
@@ -40580,6 +40771,9 @@
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
+      <c r="B266" s="2">
+        <v>42331110664</v>
+      </c>
       <c r="C266" s="2" t="s">
         <v>23</v>
       </c>
@@ -40589,6 +40783,9 @@
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
+      <c r="B267" s="2">
+        <v>42331111219</v>
+      </c>
       <c r="C267" s="2" t="s">
         <v>23</v>
       </c>
@@ -40598,6 +40795,9 @@
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
+      <c r="B268" s="2">
+        <v>42331111753</v>
+      </c>
       <c r="C268" s="2" t="s">
         <v>23</v>
       </c>
@@ -40607,6 +40807,9 @@
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
+      <c r="B269" s="2">
+        <v>42332211118</v>
+      </c>
       <c r="C269" s="2" t="s">
         <v>23</v>
       </c>
@@ -40616,6 +40819,9 @@
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
+      <c r="B270" s="2">
+        <v>42331110957</v>
+      </c>
       <c r="C270" s="2" t="s">
         <v>23</v>
       </c>
@@ -40624,6 +40830,9 @@
       <c r="A271" s="2">
         <f t="shared" si="4"/>
         <v>270</v>
+      </c>
+      <c r="B271" s="2">
+        <v>42331111215</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>23</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F33D2-78C2-469D-B48C-B3FDBADFB6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9C973-2DED-4D8A-B85D-D0A89932FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="snmptn" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">registrasi!$A$1:$C$930</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">snmptn!$A$1:$AB$412</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6943,7 +6943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K337" workbookViewId="0">
+    <sheetView topLeftCell="K337" workbookViewId="0">
       <selection activeCell="T412" sqref="T412"/>
     </sheetView>
   </sheetViews>
@@ -7486,9 +7486,9 @@
         <f>VLOOKUP(D6,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="AB6" t="e">
+      <c r="AB6" t="str">
         <f>VLOOKUP(A6,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
@@ -8641,9 +8641,9 @@
         <f>VLOOKUP(D21,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB21" t="e">
+      <c r="AB21" t="str">
         <f>VLOOKUP(A21,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
@@ -9897,9 +9897,9 @@
         <f>VLOOKUP(D38,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>88</v>
       </c>
-      <c r="AB38" t="e">
+      <c r="AB38" t="str">
         <f>VLOOKUP(A38,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
@@ -10267,9 +10267,9 @@
         <f>VLOOKUP(D43,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="AB43" t="e">
+      <c r="AB43" t="str">
         <f>VLOOKUP(A43,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
@@ -10488,9 +10488,9 @@
         <f>VLOOKUP(D46,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="AB46" t="e">
+      <c r="AB46" t="str">
         <f>VLOOKUP(A46,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
@@ -11523,9 +11523,9 @@
         <f>VLOOKUP(D60,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="AB60" t="e">
+      <c r="AB60" t="str">
         <f>VLOOKUP(A60,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
@@ -12558,9 +12558,9 @@
         <f>VLOOKUP(D74,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>76</v>
       </c>
-      <c r="AB74" t="e">
+      <c r="AB74" t="str">
         <f>VLOOKUP(A74,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.3">
@@ -16328,9 +16328,9 @@
         <f>VLOOKUP(D125,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="AB125" t="e">
+      <c r="AB125" t="str">
         <f>VLOOKUP(A125,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.3">
@@ -16772,9 +16772,9 @@
         <f>VLOOKUP(D131,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>36</v>
       </c>
-      <c r="AB131" t="e">
+      <c r="AB131" t="str">
         <f>VLOOKUP(A131,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.3">
@@ -17733,9 +17733,9 @@
         <f>VLOOKUP(D144,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB144" t="e">
+      <c r="AB144" t="str">
         <f>VLOOKUP(A144,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.3">
@@ -21134,9 +21134,9 @@
         <f>VLOOKUP(D190,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AB190" t="e">
+      <c r="AB190" t="str">
         <f>VLOOKUP(A190,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.3">
@@ -21282,9 +21282,9 @@
         <f>VLOOKUP(D192,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB192" t="e">
+      <c r="AB192" t="str">
         <f>VLOOKUP(A192,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.3">
@@ -23650,9 +23650,9 @@
         <f>VLOOKUP(D224,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>219</v>
       </c>
-      <c r="AB224" t="e">
+      <c r="AB224" t="str">
         <f>VLOOKUP(A224,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.3">
@@ -24834,9 +24834,9 @@
         <f>VLOOKUP(D240,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>119</v>
       </c>
-      <c r="AB240" t="e">
+      <c r="AB240" t="str">
         <f>VLOOKUP(A240,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.3">
@@ -27053,9 +27053,9 @@
         <f>VLOOKUP(D270,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="AB270" t="e">
+      <c r="AB270" t="str">
         <f>VLOOKUP(A270,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.3">
@@ -28089,9 +28089,9 @@
         <f>VLOOKUP(D284,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="AB284" t="e">
+      <c r="AB284" t="str">
         <f>VLOOKUP(A284,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.3">
@@ -30604,9 +30604,9 @@
         <f>VLOOKUP(D318,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB318" t="e">
+      <c r="AB318" t="str">
         <f>VLOOKUP(A318,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="319" spans="1:28" x14ac:dyDescent="0.3">
@@ -33858,9 +33858,9 @@
         <f>VLOOKUP(D362,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>216</v>
       </c>
-      <c r="AB362" t="e">
+      <c r="AB362" t="str">
         <f>VLOOKUP(A362,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="363" spans="1:28" x14ac:dyDescent="0.3">
@@ -60691,8 +60691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E8F714-38B6-4326-8330-B1889679FA04}">
   <dimension ref="A1:G2465"/>
   <sheetViews>
-    <sheetView topLeftCell="A1048550" workbookViewId="0">
-      <selection activeCell="A1048576" sqref="A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60710,116 +60710,170 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>42331111301</v>
+      </c>
       <c r="B2" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>42331110641</v>
+      </c>
       <c r="B3" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>42331110443</v>
+      </c>
       <c r="B4" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>42332410173</v>
+      </c>
       <c r="B5" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>42332211103</v>
+      </c>
       <c r="B6" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>42331111997</v>
+      </c>
       <c r="B7" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>42331110025</v>
+      </c>
       <c r="B8" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>42331110442</v>
+      </c>
       <c r="B9" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>42331110017</v>
+      </c>
       <c r="B10" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>42331110510</v>
+      </c>
       <c r="B11" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>42331110058</v>
+      </c>
       <c r="B12" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>42331111570</v>
+      </c>
       <c r="B13" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>42331110856</v>
+      </c>
       <c r="B14" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>42331111147</v>
+      </c>
       <c r="B15" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>42331111672</v>
+      </c>
       <c r="B16" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>42331110930</v>
+      </c>
       <c r="B17" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>42331112145</v>
+      </c>
       <c r="B18" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>42331111740</v>
+      </c>
       <c r="B19" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>1047</v>
       </c>
@@ -60827,42 +60881,42 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>1047</v>
       </c>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9C973-2DED-4D8A-B85D-D0A89932FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B5179-B9BD-462E-9337-88AE50D9D4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8567,9 +8567,9 @@
         <f>VLOOKUP(D20,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="AB20" t="e">
+      <c r="AB20" t="str">
         <f>VLOOKUP(A20,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
@@ -9084,9 +9084,9 @@
         <f>VLOOKUP(D27,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="AB27" t="e">
+      <c r="AB27" t="str">
         <f>VLOOKUP(A27,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -9158,9 +9158,9 @@
         <f>VLOOKUP(D28,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="AB28" t="e">
+      <c r="AB28" t="str">
         <f>VLOOKUP(A28,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -9528,9 +9528,9 @@
         <f>VLOOKUP(D33,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="AB33" t="e">
+      <c r="AB33" t="str">
         <f>VLOOKUP(A33,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
@@ -10414,9 +10414,9 @@
         <f>VLOOKUP(D45,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="AB45" t="e">
+      <c r="AB45" t="str">
         <f>VLOOKUP(A45,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
@@ -11967,9 +11967,9 @@
         <f>VLOOKUP(D66,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="AB66" t="e">
+      <c r="AB66" t="str">
         <f>VLOOKUP(A66,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
@@ -12041,9 +12041,9 @@
         <f>VLOOKUP(D67,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>279</v>
       </c>
-      <c r="AB67" t="e">
+      <c r="AB67" t="str">
         <f>VLOOKUP(A67,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
@@ -12263,9 +12263,9 @@
         <f>VLOOKUP(D70,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>279</v>
       </c>
-      <c r="AB70" t="e">
+      <c r="AB70" t="str">
         <f>VLOOKUP(A70,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
@@ -14183,9 +14183,9 @@
         <f>VLOOKUP(D96,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="AB96" t="e">
+      <c r="AB96" t="str">
         <f>VLOOKUP(A96,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.3">
@@ -14923,9 +14923,9 @@
         <f>VLOOKUP(D106,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>36</v>
       </c>
-      <c r="AB106" t="e">
+      <c r="AB106" t="str">
         <f>VLOOKUP(A106,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
@@ -15071,9 +15071,9 @@
         <f>VLOOKUP(D108,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB108" t="e">
+      <c r="AB108" t="str">
         <f>VLOOKUP(A108,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
@@ -17511,9 +17511,9 @@
         <f>VLOOKUP(D141,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="AB141" t="e">
+      <c r="AB141" t="str">
         <f>VLOOKUP(A141,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.3">
@@ -18176,9 +18176,9 @@
         <f>VLOOKUP(D150,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>121</v>
       </c>
-      <c r="AB150" t="e">
+      <c r="AB150" t="str">
         <f>VLOOKUP(A150,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.3">
@@ -18546,9 +18546,9 @@
         <f>VLOOKUP(D155,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="AB155" t="e">
+      <c r="AB155" t="str">
         <f>VLOOKUP(A155,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.3">
@@ -20468,9 +20468,9 @@
         <f>VLOOKUP(D181,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>144</v>
       </c>
-      <c r="AB181" t="e">
+      <c r="AB181" t="str">
         <f>VLOOKUP(A181,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.3">
@@ -21430,9 +21430,9 @@
         <f>VLOOKUP(D194,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB194" t="e">
+      <c r="AB194" t="str">
         <f>VLOOKUP(A194,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.3">
@@ -21874,9 +21874,9 @@
         <f>VLOOKUP(D200,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="AB200" t="e">
+      <c r="AB200" t="str">
         <f>VLOOKUP(A200,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.3">
@@ -22170,9 +22170,9 @@
         <f>VLOOKUP(D204,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB204" t="e">
+      <c r="AB204" t="str">
         <f>VLOOKUP(A204,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.3">
@@ -23206,9 +23206,9 @@
         <f>VLOOKUP(D218,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="AB218" t="e">
+      <c r="AB218" t="str">
         <f>VLOOKUP(A218,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.3">
@@ -24316,9 +24316,9 @@
         <f>VLOOKUP(D233,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>119</v>
       </c>
-      <c r="AB233" t="e">
+      <c r="AB233" t="str">
         <f>VLOOKUP(A233,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.3">
@@ -24908,9 +24908,9 @@
         <f>VLOOKUP(D241,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB241" t="e">
+      <c r="AB241" t="str">
         <f>VLOOKUP(A241,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.3">
@@ -24982,9 +24982,9 @@
         <f>VLOOKUP(D242,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>121</v>
       </c>
-      <c r="AB242" t="e">
+      <c r="AB242" t="str">
         <f>VLOOKUP(A242,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.3">
@@ -26831,9 +26831,9 @@
         <f>VLOOKUP(D267,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="AB267" t="e">
+      <c r="AB267" t="str">
         <f>VLOOKUP(A267,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.3">
@@ -26979,9 +26979,9 @@
         <f>VLOOKUP(D269,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="AB269" t="e">
+      <c r="AB269" t="str">
         <f>VLOOKUP(A269,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.3">
@@ -27201,9 +27201,9 @@
         <f>VLOOKUP(D272,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="AB272" t="e">
+      <c r="AB272" t="str">
         <f>VLOOKUP(A272,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.3">
@@ -28385,9 +28385,9 @@
         <f>VLOOKUP(D288,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>76</v>
       </c>
-      <c r="AB288" t="e">
+      <c r="AB288" t="str">
         <f>VLOOKUP(A288,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.3">
@@ -28607,9 +28607,9 @@
         <f>VLOOKUP(D291,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="AB291" t="e">
+      <c r="AB291" t="str">
         <f>VLOOKUP(A291,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.3">
@@ -28681,9 +28681,9 @@
         <f>VLOOKUP(D292,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="AB292" t="e">
+      <c r="AB292" t="str">
         <f>VLOOKUP(A292,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.3">
@@ -28903,9 +28903,9 @@
         <f>VLOOKUP(D295,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>384</v>
       </c>
-      <c r="AB295" t="e">
+      <c r="AB295" t="str">
         <f>VLOOKUP(A295,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.3">
@@ -29717,9 +29717,9 @@
         <f>VLOOKUP(D306,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>144</v>
       </c>
-      <c r="AB306" t="e">
+      <c r="AB306" t="str">
         <f>VLOOKUP(A306,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.3">
@@ -29939,9 +29939,9 @@
         <f>VLOOKUP(D309,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>384</v>
       </c>
-      <c r="AB309" t="e">
+      <c r="AB309" t="str">
         <f>VLOOKUP(A309,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="310" spans="1:28" x14ac:dyDescent="0.3">
@@ -30087,9 +30087,9 @@
         <f>VLOOKUP(D311,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>74</v>
       </c>
-      <c r="AB311" t="e">
+      <c r="AB311" t="str">
         <f>VLOOKUP(A311,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="312" spans="1:28" x14ac:dyDescent="0.3">
@@ -30161,9 +30161,9 @@
         <f>VLOOKUP(D312,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>219</v>
       </c>
-      <c r="AB312" t="e">
+      <c r="AB312" t="str">
         <f>VLOOKUP(A312,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.3">
@@ -30752,9 +30752,9 @@
         <f>VLOOKUP(D320,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="AB320" t="e">
+      <c r="AB320" t="str">
         <f>VLOOKUP(A320,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="321" spans="1:28" x14ac:dyDescent="0.3">
@@ -33045,9 +33045,9 @@
         <f>VLOOKUP(D351,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB351" t="e">
+      <c r="AB351" t="str">
         <f>VLOOKUP(A351,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="352" spans="1:28" x14ac:dyDescent="0.3">
@@ -33119,9 +33119,9 @@
         <f>VLOOKUP(D352,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="AB352" t="e">
+      <c r="AB352" t="str">
         <f>VLOOKUP(A352,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.3">
@@ -34228,9 +34228,9 @@
         <f>VLOOKUP(D367,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="AB367" t="e">
+      <c r="AB367" t="str">
         <f>VLOOKUP(A367,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.3">
@@ -34820,9 +34820,9 @@
         <f>VLOOKUP(D375,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB375" t="e">
+      <c r="AB375" t="str">
         <f>VLOOKUP(A375,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="376" spans="1:28" x14ac:dyDescent="0.3">
@@ -35116,9 +35116,9 @@
         <f>VLOOKUP(D379,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>76</v>
       </c>
-      <c r="AB379" t="e">
+      <c r="AB379" t="str">
         <f>VLOOKUP(A379,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.3">
@@ -35189,9 +35189,9 @@
         <f>VLOOKUP(D380,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="AB380" t="e">
+      <c r="AB380" t="str">
         <f>VLOOKUP(A380,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="381" spans="1:28" x14ac:dyDescent="0.3">
@@ -35928,9 +35928,9 @@
         <f>VLOOKUP(D390,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>74</v>
       </c>
-      <c r="AB390" t="e">
+      <c r="AB390" t="str">
         <f>VLOOKUP(A390,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="391" spans="1:28" x14ac:dyDescent="0.3">
@@ -36519,9 +36519,9 @@
         <f>VLOOKUP(D398,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB398" t="e">
+      <c r="AB398" t="str">
         <f>VLOOKUP(A398,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="399" spans="1:28" x14ac:dyDescent="0.3">
@@ -36741,9 +36741,9 @@
         <f>VLOOKUP(D401,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB401" t="e">
+      <c r="AB401" t="str">
         <f>VLOOKUP(A401,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="402" spans="1:28" x14ac:dyDescent="0.3">
@@ -37185,9 +37185,9 @@
         <f>VLOOKUP(D407,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="AB407" t="e">
+      <c r="AB407" t="str">
         <f>VLOOKUP(A407,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.3">
@@ -60692,7 +60692,7 @@
   <dimension ref="A1:G2465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60719,7 +60719,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>42331110641</v>
+        <v>42331111790</v>
       </c>
       <c r="B3" t="s">
         <v>1047</v>
@@ -60727,7 +60727,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>42331110443</v>
+        <v>42331110641</v>
       </c>
       <c r="B4" t="s">
         <v>1047</v>
@@ -60735,7 +60735,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>42332410173</v>
+        <v>42331111762</v>
       </c>
       <c r="B5" t="s">
         <v>1047</v>
@@ -60743,7 +60743,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>42332211103</v>
+        <v>42331110808</v>
       </c>
       <c r="B6" t="s">
         <v>1047</v>
@@ -60751,7 +60751,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>42331111997</v>
+        <v>42331112142</v>
       </c>
       <c r="B7" t="s">
         <v>1047</v>
@@ -60759,7 +60759,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>42331110025</v>
+        <v>42331110443</v>
       </c>
       <c r="B8" t="s">
         <v>1047</v>
@@ -60767,7 +60767,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>42331110442</v>
+        <v>42332410173</v>
       </c>
       <c r="B9" t="s">
         <v>1047</v>
@@ -60775,7 +60775,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>42331110017</v>
+        <v>42331111616</v>
       </c>
       <c r="B10" t="s">
         <v>1047</v>
@@ -60783,7 +60783,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>42331110510</v>
+        <v>42332211103</v>
       </c>
       <c r="B11" t="s">
         <v>1047</v>
@@ -60791,7 +60791,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>42331110058</v>
+        <v>42331111997</v>
       </c>
       <c r="B12" t="s">
         <v>1047</v>
@@ -60799,7 +60799,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>42331111570</v>
+        <v>42331110818</v>
       </c>
       <c r="B13" t="s">
         <v>1047</v>
@@ -60807,7 +60807,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>42331110856</v>
+        <v>42331111502</v>
       </c>
       <c r="B14" t="s">
         <v>1047</v>
@@ -60815,7 +60815,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>42331111147</v>
+        <v>42331111497</v>
       </c>
       <c r="B15" t="s">
         <v>1047</v>
@@ -60823,7 +60823,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>42331111672</v>
+        <v>42331110025</v>
       </c>
       <c r="B16" t="s">
         <v>1047</v>
@@ -60831,7 +60831,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>42331110930</v>
+        <v>42332410323</v>
       </c>
       <c r="B17" t="s">
         <v>1047</v>
@@ -60839,7 +60839,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>42331112145</v>
+        <v>42331110698</v>
       </c>
       <c r="B18" t="s">
         <v>1047</v>
@@ -60847,33 +60847,48 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>42331111740</v>
+        <v>42331111150</v>
       </c>
       <c r="B19" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>42331110442</v>
+      </c>
       <c r="B20" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>42331110017</v>
+      </c>
       <c r="B21" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>42331110396</v>
+      </c>
       <c r="B22" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>42331110510</v>
+      </c>
       <c r="B23" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>42333111762</v>
+      </c>
       <c r="B24" t="s">
         <v>1047</v>
       </c>
@@ -60882,201 +60897,318 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>42331111076</v>
+      </c>
       <c r="B25" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>42331111629</v>
+      </c>
       <c r="B26" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>42331110058</v>
+      </c>
       <c r="B27" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>42331111570</v>
+      </c>
       <c r="B28" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>42331111516</v>
+      </c>
       <c r="B29" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>42331110224</v>
+      </c>
       <c r="B30" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>42331110958</v>
+      </c>
       <c r="B31" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>42331111605</v>
+      </c>
       <c r="B32" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>42331110856</v>
+      </c>
       <c r="B33" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>42331110649</v>
+      </c>
       <c r="B34" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>42331111147</v>
+      </c>
       <c r="B35" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>42331111529</v>
+      </c>
       <c r="B36" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>42331110741</v>
+      </c>
       <c r="B37" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>42331110832</v>
+      </c>
       <c r="B38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>42331110863</v>
+      </c>
       <c r="B39" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>42331111672</v>
+      </c>
       <c r="B40" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>42331111459</v>
+      </c>
       <c r="B41" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>42331110930</v>
+      </c>
       <c r="B42" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42331111766</v>
+      </c>
       <c r="B43" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42331110080</v>
+      </c>
       <c r="B44" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>42332220404</v>
+      </c>
       <c r="B45" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>42333410264</v>
+      </c>
       <c r="B46" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>42331111503</v>
+      </c>
       <c r="B47" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>42332220091</v>
+      </c>
       <c r="B48" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>42331111622</v>
+      </c>
       <c r="B49" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>42331110521</v>
+      </c>
       <c r="B50" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>42331112145</v>
+      </c>
       <c r="B51" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>42331110546</v>
+      </c>
       <c r="B52" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>42331110752</v>
+      </c>
       <c r="B53" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>42331112066</v>
+      </c>
       <c r="B54" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>42331111740</v>
+      </c>
       <c r="B55" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>42331110578</v>
+      </c>
       <c r="B56" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>42331110346</v>
+      </c>
       <c r="B57" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>42331111062</v>
+      </c>
       <c r="B58" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>42331111697</v>
+      </c>
       <c r="B59" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>42331111216</v>
+      </c>
       <c r="B60" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>42331111408</v>
+      </c>
       <c r="B61" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>42332210422</v>
+      </c>
       <c r="B62" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>42331110957</v>
+      </c>
       <c r="B63" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>1047</v>
       </c>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B5179-B9BD-462E-9337-88AE50D9D4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347551FF-1C3A-4084-AD28-2770BFABCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7735,9 +7735,9 @@
         <f>VLOOKUP(D9,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="AB9" t="e">
+      <c r="AB9" t="str">
         <f>VLOOKUP(A9,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -7895,9 +7895,9 @@
         <f>VLOOKUP(D11,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>88</v>
       </c>
-      <c r="AB11" t="e">
+      <c r="AB11" t="str">
         <f>VLOOKUP(A11,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
@@ -8493,9 +8493,9 @@
         <f>VLOOKUP(D19,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="AB19" t="e">
+      <c r="AB19" t="str">
         <f>VLOOKUP(A19,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
@@ -8715,9 +8715,9 @@
         <f>VLOOKUP(D22,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="AB22" t="e">
+      <c r="AB22" t="str">
         <f>VLOOKUP(A22,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
@@ -12337,9 +12337,9 @@
         <f>VLOOKUP(D71,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB71" t="e">
+      <c r="AB71" t="str">
         <f>VLOOKUP(A71,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.3">
@@ -12780,9 +12780,9 @@
         <f>VLOOKUP(D77,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>216</v>
       </c>
-      <c r="AB77" t="e">
+      <c r="AB77" t="str">
         <f>VLOOKUP(A77,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.3">
@@ -13961,9 +13961,9 @@
         <f>VLOOKUP(D93,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>119</v>
       </c>
-      <c r="AB93" t="e">
+      <c r="AB93" t="str">
         <f>VLOOKUP(A93,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.3">
@@ -14331,9 +14331,9 @@
         <f>VLOOKUP(D98,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB98" t="e">
+      <c r="AB98" t="str">
         <f>VLOOKUP(A98,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.3">
@@ -15145,9 +15145,9 @@
         <f>VLOOKUP(D109,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>36</v>
       </c>
-      <c r="AB109" t="e">
+      <c r="AB109" t="str">
         <f>VLOOKUP(A109,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
@@ -15219,9 +15219,9 @@
         <f>VLOOKUP(D110,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="AB110" t="e">
+      <c r="AB110" t="str">
         <f>VLOOKUP(A110,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
@@ -15515,9 +15515,9 @@
         <f>VLOOKUP(D114,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB114" t="e">
+      <c r="AB114" t="str">
         <f>VLOOKUP(A114,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.3">
@@ -17437,9 +17437,9 @@
         <f>VLOOKUP(D140,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>121</v>
       </c>
-      <c r="AB140" t="e">
+      <c r="AB140" t="str">
         <f>VLOOKUP(A140,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.3">
@@ -18028,9 +18028,9 @@
         <f>VLOOKUP(D148,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="AB148" t="e">
+      <c r="AB148" t="str">
         <f>VLOOKUP(A148,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.3">
@@ -21800,9 +21800,9 @@
         <f>VLOOKUP(D199,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="AB199" t="e">
+      <c r="AB199" t="str">
         <f>VLOOKUP(A199,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.3">
@@ -28829,9 +28829,9 @@
         <f>VLOOKUP(D294,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="AB294" t="e">
+      <c r="AB294" t="str">
         <f>VLOOKUP(A294,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.3">
@@ -29495,9 +29495,9 @@
         <f>VLOOKUP(D303,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="AB303" t="e">
+      <c r="AB303" t="str">
         <f>VLOOKUP(A303,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.3">
@@ -29569,9 +29569,9 @@
         <f>VLOOKUP(D304,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="AB304" t="e">
+      <c r="AB304" t="str">
         <f>VLOOKUP(A304,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.3">
@@ -31196,9 +31196,9 @@
         <f>VLOOKUP(D326,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>206</v>
       </c>
-      <c r="AB326" t="e">
+      <c r="AB326" t="str">
         <f>VLOOKUP(A326,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="327" spans="1:28" x14ac:dyDescent="0.3">
@@ -31492,9 +31492,9 @@
         <f>VLOOKUP(D330,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB330" t="e">
+      <c r="AB330" t="str">
         <f>VLOOKUP(A330,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.3">
@@ -33932,9 +33932,9 @@
         <f>VLOOKUP(D363,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB363" t="e">
+      <c r="AB363" t="str">
         <f>VLOOKUP(A363,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.3">
@@ -36445,9 +36445,9 @@
         <f>VLOOKUP(D397,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="AB397" t="e">
+      <c r="AB397" t="str">
         <f>VLOOKUP(A397,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="398" spans="1:28" x14ac:dyDescent="0.3">
@@ -36815,9 +36815,9 @@
         <f>VLOOKUP(D402,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>119</v>
       </c>
-      <c r="AB402" t="e">
+      <c r="AB402" t="str">
         <f>VLOOKUP(A402,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="403" spans="1:28" x14ac:dyDescent="0.3">
@@ -36963,9 +36963,9 @@
         <f>VLOOKUP(D404,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="AB404" t="e">
+      <c r="AB404" t="str">
         <f>VLOOKUP(A404,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="405" spans="1:28" x14ac:dyDescent="0.3">
@@ -60692,7 +60692,7 @@
   <dimension ref="A1:G2465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60719,7 +60719,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>42331111790</v>
+        <v>42332210204</v>
       </c>
       <c r="B3" t="s">
         <v>1047</v>
@@ -60727,7 +60727,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>42331110641</v>
+        <v>42331111115</v>
       </c>
       <c r="B4" t="s">
         <v>1047</v>
@@ -60735,7 +60735,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>42331111762</v>
+        <v>42331111577</v>
       </c>
       <c r="B5" t="s">
         <v>1047</v>
@@ -60743,7 +60743,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>42331110808</v>
+        <v>42331111790</v>
       </c>
       <c r="B6" t="s">
         <v>1047</v>
@@ -60751,7 +60751,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>42331112142</v>
+        <v>42331110641</v>
       </c>
       <c r="B7" t="s">
         <v>1047</v>
@@ -60759,7 +60759,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>42331110443</v>
+        <v>42332210383</v>
       </c>
       <c r="B8" t="s">
         <v>1047</v>
@@ -60767,7 +60767,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>42332410173</v>
+        <v>42331111762</v>
       </c>
       <c r="B9" t="s">
         <v>1047</v>
@@ -60775,7 +60775,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>42331111616</v>
+        <v>42331110808</v>
       </c>
       <c r="B10" t="s">
         <v>1047</v>
@@ -60783,7 +60783,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>42332211103</v>
+        <v>42331112142</v>
       </c>
       <c r="B11" t="s">
         <v>1047</v>
@@ -60791,7 +60791,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>42331111997</v>
+        <v>42331110443</v>
       </c>
       <c r="B12" t="s">
         <v>1047</v>
@@ -60799,7 +60799,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>42331110818</v>
+        <v>42332410173</v>
       </c>
       <c r="B13" t="s">
         <v>1047</v>
@@ -60807,7 +60807,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>42331111502</v>
+        <v>42331111616</v>
       </c>
       <c r="B14" t="s">
         <v>1047</v>
@@ -60815,7 +60815,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>42331111497</v>
+        <v>42332211103</v>
       </c>
       <c r="B15" t="s">
         <v>1047</v>
@@ -60823,7 +60823,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>42331110025</v>
+        <v>42331111997</v>
       </c>
       <c r="B16" t="s">
         <v>1047</v>
@@ -60831,7 +60831,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>42332410323</v>
+        <v>42331110818</v>
       </c>
       <c r="B17" t="s">
         <v>1047</v>
@@ -60839,7 +60839,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>42331110698</v>
+        <v>42331111502</v>
       </c>
       <c r="B18" t="s">
         <v>1047</v>
@@ -60847,7 +60847,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>42331111150</v>
+        <v>42331111497</v>
       </c>
       <c r="B19" t="s">
         <v>1047</v>
@@ -60855,7 +60855,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>42331110442</v>
+        <v>42331111515</v>
       </c>
       <c r="B20" t="s">
         <v>1047</v>
@@ -60863,7 +60863,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>42331110017</v>
+        <v>42331110025</v>
       </c>
       <c r="B21" t="s">
         <v>1047</v>
@@ -60871,7 +60871,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>42331110396</v>
+        <v>42332210447</v>
       </c>
       <c r="B22" t="s">
         <v>1047</v>
@@ -60879,7 +60879,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>42331110510</v>
+        <v>42331110314</v>
       </c>
       <c r="B23" t="s">
         <v>1047</v>
@@ -60887,7 +60887,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>42333111762</v>
+        <v>42332410323</v>
       </c>
       <c r="B24" t="s">
         <v>1047</v>
@@ -60898,7 +60898,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>42331111076</v>
+        <v>42331111370</v>
       </c>
       <c r="B25" t="s">
         <v>1047</v>
@@ -60906,7 +60906,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>42331111629</v>
+        <v>42331110698</v>
       </c>
       <c r="B26" t="s">
         <v>1047</v>
@@ -60914,7 +60914,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>42331110058</v>
+        <v>42331111150</v>
       </c>
       <c r="B27" t="s">
         <v>1047</v>
@@ -60922,7 +60922,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>42331111570</v>
+        <v>42331111010</v>
       </c>
       <c r="B28" t="s">
         <v>1047</v>
@@ -60930,7 +60930,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>42331111516</v>
+        <v>42331110371</v>
       </c>
       <c r="B29" t="s">
         <v>1047</v>
@@ -60938,7 +60938,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>42331110224</v>
+        <v>42332410410</v>
       </c>
       <c r="B30" t="s">
         <v>1047</v>
@@ -60946,7 +60946,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>42331110958</v>
+        <v>42331110442</v>
       </c>
       <c r="B31" t="s">
         <v>1047</v>
@@ -60954,7 +60954,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>42331111605</v>
+        <v>42331110017</v>
       </c>
       <c r="B32" t="s">
         <v>1047</v>
@@ -60962,7 +60962,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>42331110856</v>
+        <v>42331110849</v>
       </c>
       <c r="B33" t="s">
         <v>1047</v>
@@ -60970,7 +60970,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>42331110649</v>
+        <v>42331110396</v>
       </c>
       <c r="B34" t="s">
         <v>1047</v>
@@ -60978,7 +60978,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>42331111147</v>
+        <v>42331110510</v>
       </c>
       <c r="B35" t="s">
         <v>1047</v>
@@ -60986,7 +60986,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>42331111529</v>
+        <v>42332410567</v>
       </c>
       <c r="B36" t="s">
         <v>1047</v>
@@ -60994,7 +60994,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>42331110741</v>
+        <v>42333111762</v>
       </c>
       <c r="B37" t="s">
         <v>1047</v>
@@ -61002,7 +61002,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>42331110832</v>
+        <v>42331111076</v>
       </c>
       <c r="B38" t="s">
         <v>1047</v>
@@ -61010,7 +61010,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>42331110863</v>
+        <v>42331111629</v>
       </c>
       <c r="B39" t="s">
         <v>1047</v>
@@ -61018,7 +61018,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>42331111672</v>
+        <v>42331110058</v>
       </c>
       <c r="B40" t="s">
         <v>1047</v>
@@ -61026,7 +61026,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>42331111459</v>
+        <v>42331111570</v>
       </c>
       <c r="B41" t="s">
         <v>1047</v>
@@ -61034,7 +61034,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>42331110930</v>
+        <v>42331111516</v>
       </c>
       <c r="B42" t="s">
         <v>1047</v>
@@ -61042,7 +61042,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>42331111766</v>
+        <v>42331110964</v>
       </c>
       <c r="B43" t="s">
         <v>1047</v>
@@ -61050,7 +61050,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>42331110080</v>
+        <v>42331110224</v>
       </c>
       <c r="B44" t="s">
         <v>1047</v>
@@ -61058,7 +61058,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>42332220404</v>
+        <v>42331110958</v>
       </c>
       <c r="B45" t="s">
         <v>1047</v>
@@ -61066,7 +61066,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>42333410264</v>
+        <v>42331111605</v>
       </c>
       <c r="B46" t="s">
         <v>1047</v>
@@ -61074,7 +61074,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>42331111503</v>
+        <v>42331110856</v>
       </c>
       <c r="B47" t="s">
         <v>1047</v>
@@ -61082,7 +61082,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>42332220091</v>
+        <v>42331110649</v>
       </c>
       <c r="B48" t="s">
         <v>1047</v>
@@ -61090,7 +61090,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>42331111622</v>
+        <v>42331111147</v>
       </c>
       <c r="B49" t="s">
         <v>1047</v>
@@ -61098,7 +61098,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>42331110521</v>
+        <v>42331111529</v>
       </c>
       <c r="B50" t="s">
         <v>1047</v>
@@ -61106,7 +61106,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>42331112145</v>
+        <v>42331110741</v>
       </c>
       <c r="B51" t="s">
         <v>1047</v>
@@ -61114,7 +61114,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>42331110546</v>
+        <v>42331110832</v>
       </c>
       <c r="B52" t="s">
         <v>1047</v>
@@ -61122,7 +61122,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>42331110752</v>
+        <v>42331110863</v>
       </c>
       <c r="B53" t="s">
         <v>1047</v>
@@ -61130,7 +61130,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>42331112066</v>
+        <v>42331111672</v>
       </c>
       <c r="B54" t="s">
         <v>1047</v>
@@ -61138,7 +61138,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>42331111740</v>
+        <v>42331111459</v>
       </c>
       <c r="B55" t="s">
         <v>1047</v>
@@ -61146,7 +61146,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>42331110578</v>
+        <v>42331110930</v>
       </c>
       <c r="B56" t="s">
         <v>1047</v>
@@ -61154,7 +61154,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>42331110346</v>
+        <v>42331111766</v>
       </c>
       <c r="B57" t="s">
         <v>1047</v>
@@ -61162,7 +61162,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>42331111062</v>
+        <v>42331110080</v>
       </c>
       <c r="B58" t="s">
         <v>1047</v>
@@ -61170,7 +61170,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>42331111697</v>
+        <v>42332220404</v>
       </c>
       <c r="B59" t="s">
         <v>1047</v>
@@ -61178,7 +61178,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>42331111216</v>
+        <v>42331110919</v>
       </c>
       <c r="B60" t="s">
         <v>1047</v>
@@ -61186,7 +61186,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>42331111408</v>
+        <v>42333410264</v>
       </c>
       <c r="B61" t="s">
         <v>1047</v>
@@ -61194,7 +61194,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>42332210422</v>
+        <v>42332220058</v>
       </c>
       <c r="B62" t="s">
         <v>1047</v>
@@ -61202,173 +61202,242 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
+        <v>42331111478</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>42331111503</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>42332220091</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>42331111622</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>42331110521</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>42331112145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>42331110546</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>42331111773</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>42331111949</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>42331110752</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>42331112066</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>42331111740</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>42332410322</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>42331110578</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>42331110346</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>42331111062</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>42331111697</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>42331111216</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>42331111378</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>42331111408</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>42332210422</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>42331110664</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>42331111753</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>42331110957</v>
       </c>
-      <c r="B63" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>1047</v>
       </c>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347551FF-1C3A-4084-AD28-2770BFABCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2ACBB9-FC81-426C-998E-E90E2644823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4744,7 +4744,7 @@
             <v>5503</v>
           </cell>
           <cell r="F39" t="str">
-            <v>Perpajakan</v>
+            <v>Administrasi Perpajakan</v>
           </cell>
           <cell r="G39">
             <v>5503</v>
@@ -4848,7 +4848,7 @@
             <v>5553</v>
           </cell>
           <cell r="F43" t="str">
-            <v>Ilmu Ekonomi Pembangunan</v>
+            <v>Ekonomi Pembangunan</v>
           </cell>
           <cell r="G43">
             <v>5553</v>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="E30" t="str">
         <f>UPPER(VLOOKUP(D30,[1]PRODI_2019!$E$2:$F$78,2,FALSE))</f>
-        <v>ILMU EKONOMI PEMBANGUNAN</v>
+        <v>EKONOMI PEMBANGUNAN</v>
       </c>
       <c r="F30" t="str">
         <f>VLOOKUP(E30,[1]PRODI_2019!$F$2:$L$70,7,FALSE)</f>
@@ -11006,9 +11006,9 @@
         <f>VLOOKUP(D53,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="AB53" t="e">
+      <c r="AB53" t="str">
         <f>VLOOKUP(A53,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
@@ -13002,9 +13002,9 @@
         <f>VLOOKUP(D80,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB80" t="e">
+      <c r="AB80" t="str">
         <f>VLOOKUP(A80,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.3">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="E97" t="str">
         <f>UPPER(VLOOKUP(D97,[1]PRODI_2019!$E$2:$F$78,2,FALSE))</f>
-        <v>ILMU EKONOMI PEMBANGUNAN</v>
+        <v>EKONOMI PEMBANGUNAN</v>
       </c>
       <c r="F97" t="str">
         <f>VLOOKUP(E97,[1]PRODI_2019!$F$2:$L$70,7,FALSE)</f>
@@ -15589,9 +15589,9 @@
         <f>VLOOKUP(D115,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>88</v>
       </c>
-      <c r="AB115" t="e">
+      <c r="AB115" t="str">
         <f>VLOOKUP(A115,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.3">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="E130" t="str">
         <f>UPPER(VLOOKUP(D130,[1]PRODI_2019!$E$2:$F$78,2,FALSE))</f>
-        <v>ILMU EKONOMI PEMBANGUNAN</v>
+        <v>EKONOMI PEMBANGUNAN</v>
       </c>
       <c r="F130" t="str">
         <f>VLOOKUP(E130,[1]PRODI_2019!$F$2:$L$70,7,FALSE)</f>
@@ -19212,9 +19212,9 @@
         <f>VLOOKUP(D164,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB164" t="e">
+      <c r="AB164" t="str">
         <f>VLOOKUP(A164,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.3">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="E209" t="str">
         <f>UPPER(VLOOKUP(D209,[1]PRODI_2019!$E$2:$F$78,2,FALSE))</f>
-        <v>ILMU EKONOMI PEMBANGUNAN</v>
+        <v>EKONOMI PEMBANGUNAN</v>
       </c>
       <c r="F209" t="str">
         <f>VLOOKUP(E209,[1]PRODI_2019!$F$2:$L$70,7,FALSE)</f>
@@ -23280,9 +23280,9 @@
         <f>VLOOKUP(D219,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>76</v>
       </c>
-      <c r="AB219" t="e">
+      <c r="AB219" t="str">
         <f>VLOOKUP(A219,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.3">
@@ -24686,9 +24686,9 @@
         <f>VLOOKUP(D238,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB238" t="e">
+      <c r="AB238" t="str">
         <f>VLOOKUP(A238,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.3">
@@ -25426,9 +25426,9 @@
         <f>VLOOKUP(D248,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>53</v>
       </c>
-      <c r="AB248" t="e">
+      <c r="AB248" t="str">
         <f>VLOOKUP(A248,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.3">
@@ -25796,9 +25796,9 @@
         <f>VLOOKUP(D253,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>53</v>
       </c>
-      <c r="AB253" t="e">
+      <c r="AB253" t="str">
         <f>VLOOKUP(A253,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.3">
@@ -29512,7 +29512,7 @@
       </c>
       <c r="E304" t="str">
         <f>UPPER(VLOOKUP(D304,[1]PRODI_2019!$E$2:$F$78,2,FALSE))</f>
-        <v>ILMU EKONOMI PEMBANGUNAN</v>
+        <v>EKONOMI PEMBANGUNAN</v>
       </c>
       <c r="F304" t="str">
         <f>VLOOKUP(E304,[1]PRODI_2019!$F$2:$L$70,7,FALSE)</f>
@@ -30530,9 +30530,9 @@
         <f>VLOOKUP(D317,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="AB317" t="e">
+      <c r="AB317" t="str">
         <f>VLOOKUP(A317,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.3">
@@ -30769,7 +30769,7 @@
       </c>
       <c r="E321" t="str">
         <f>UPPER(VLOOKUP(D321,[1]PRODI_2019!$E$2:$F$78,2,FALSE))</f>
-        <v>ILMU EKONOMI PEMBANGUNAN</v>
+        <v>EKONOMI PEMBANGUNAN</v>
       </c>
       <c r="F321" t="str">
         <f>VLOOKUP(E321,[1]PRODI_2019!$F$2:$L$70,7,FALSE)</f>
@@ -31048,9 +31048,9 @@
         <f>VLOOKUP(D324,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="AB324" t="e">
+      <c r="AB324" t="str">
         <f>VLOOKUP(A324,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="325" spans="1:28" x14ac:dyDescent="0.3">
@@ -32823,9 +32823,9 @@
         <f>VLOOKUP(D348,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>119</v>
       </c>
-      <c r="AB348" t="e">
+      <c r="AB348" t="str">
         <f>VLOOKUP(A348,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="349" spans="1:28" x14ac:dyDescent="0.3">
@@ -33193,9 +33193,9 @@
         <f>VLOOKUP(D353,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>74</v>
       </c>
-      <c r="AB353" t="e">
+      <c r="AB353" t="str">
         <f>VLOOKUP(A353,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.3">
@@ -33284,7 +33284,7 @@
       </c>
       <c r="E355" t="str">
         <f>UPPER(VLOOKUP(D355,[1]PRODI_2019!$E$2:$F$78,2,FALSE))</f>
-        <v>ILMU EKONOMI PEMBANGUNAN</v>
+        <v>EKONOMI PEMBANGUNAN</v>
       </c>
       <c r="F355" t="str">
         <f>VLOOKUP(E355,[1]PRODI_2019!$F$2:$L$70,7,FALSE)</f>
@@ -33358,7 +33358,7 @@
       </c>
       <c r="E356" t="str">
         <f>UPPER(VLOOKUP(D356,[1]PRODI_2019!$E$2:$F$78,2,FALSE))</f>
-        <v>ILMU EKONOMI PEMBANGUNAN</v>
+        <v>EKONOMI PEMBANGUNAN</v>
       </c>
       <c r="F356" t="str">
         <f>VLOOKUP(E356,[1]PRODI_2019!$F$2:$L$70,7,FALSE)</f>
@@ -33415,9 +33415,9 @@
         <f>VLOOKUP(D356,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="AB356" t="e">
+      <c r="AB356" t="str">
         <f>VLOOKUP(A356,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.3">
@@ -37480,9 +37480,9 @@
         <f>VLOOKUP(D411,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB411" t="e">
+      <c r="AB411" t="str">
         <f>VLOOKUP(A411,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="412" spans="1:28" x14ac:dyDescent="0.3">
@@ -60692,7 +60692,7 @@
   <dimension ref="A1:G2465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60823,7 +60823,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>42331111997</v>
+        <v>42331110117</v>
       </c>
       <c r="B16" t="s">
         <v>1047</v>
@@ -60831,7 +60831,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>42331110818</v>
+        <v>42331111997</v>
       </c>
       <c r="B17" t="s">
         <v>1047</v>
@@ -60839,7 +60839,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>42331111502</v>
+        <v>42331110818</v>
       </c>
       <c r="B18" t="s">
         <v>1047</v>
@@ -60847,7 +60847,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>42331111497</v>
+        <v>42331111502</v>
       </c>
       <c r="B19" t="s">
         <v>1047</v>
@@ -60855,7 +60855,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>42331111515</v>
+        <v>42331111497</v>
       </c>
       <c r="B20" t="s">
         <v>1047</v>
@@ -60863,7 +60863,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>42331110025</v>
+        <v>42331111515</v>
       </c>
       <c r="B21" t="s">
         <v>1047</v>
@@ -60871,7 +60871,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>42332210447</v>
+        <v>42331110025</v>
       </c>
       <c r="B22" t="s">
         <v>1047</v>
@@ -60879,7 +60879,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>42331110314</v>
+        <v>42332210447</v>
       </c>
       <c r="B23" t="s">
         <v>1047</v>
@@ -60887,7 +60887,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>42332410323</v>
+        <v>42331112152</v>
       </c>
       <c r="B24" t="s">
         <v>1047</v>
@@ -60898,7 +60898,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>42331111370</v>
+        <v>42331110314</v>
       </c>
       <c r="B25" t="s">
         <v>1047</v>
@@ -60906,7 +60906,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>42331110698</v>
+        <v>42332410323</v>
       </c>
       <c r="B26" t="s">
         <v>1047</v>
@@ -60914,7 +60914,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>42331111150</v>
+        <v>42331111370</v>
       </c>
       <c r="B27" t="s">
         <v>1047</v>
@@ -60922,7 +60922,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>42331111010</v>
+        <v>42331110698</v>
       </c>
       <c r="B28" t="s">
         <v>1047</v>
@@ -60930,7 +60930,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>42331110371</v>
+        <v>42331111150</v>
       </c>
       <c r="B29" t="s">
         <v>1047</v>
@@ -60938,7 +60938,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>42332410410</v>
+        <v>42331111010</v>
       </c>
       <c r="B30" t="s">
         <v>1047</v>
@@ -60946,7 +60946,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>42331110442</v>
+        <v>42331110371</v>
       </c>
       <c r="B31" t="s">
         <v>1047</v>
@@ -60954,7 +60954,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>42331110017</v>
+        <v>42332410410</v>
       </c>
       <c r="B32" t="s">
         <v>1047</v>
@@ -60962,7 +60962,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>42331110849</v>
+        <v>42333110438</v>
       </c>
       <c r="B33" t="s">
         <v>1047</v>
@@ -60970,7 +60970,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>42331110396</v>
+        <v>42331110442</v>
       </c>
       <c r="B34" t="s">
         <v>1047</v>
@@ -60978,7 +60978,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>42331110510</v>
+        <v>42331110017</v>
       </c>
       <c r="B35" t="s">
         <v>1047</v>
@@ -60986,7 +60986,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>42332410567</v>
+        <v>42331110849</v>
       </c>
       <c r="B36" t="s">
         <v>1047</v>
@@ -60994,7 +60994,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>42333111762</v>
+        <v>42331110396</v>
       </c>
       <c r="B37" t="s">
         <v>1047</v>
@@ -61002,7 +61002,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>42331111076</v>
+        <v>42331110510</v>
       </c>
       <c r="B38" t="s">
         <v>1047</v>
@@ -61010,7 +61010,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>42331111629</v>
+        <v>42332410567</v>
       </c>
       <c r="B39" t="s">
         <v>1047</v>
@@ -61018,7 +61018,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>42331110058</v>
+        <v>42333111762</v>
       </c>
       <c r="B40" t="s">
         <v>1047</v>
@@ -61026,7 +61026,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>42331111570</v>
+        <v>42331111076</v>
       </c>
       <c r="B41" t="s">
         <v>1047</v>
@@ -61034,7 +61034,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>42331111516</v>
+        <v>42331110472</v>
       </c>
       <c r="B42" t="s">
         <v>1047</v>
@@ -61042,7 +61042,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>42331110964</v>
+        <v>42331111629</v>
       </c>
       <c r="B43" t="s">
         <v>1047</v>
@@ -61050,7 +61050,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>42331110224</v>
+        <v>42331110058</v>
       </c>
       <c r="B44" t="s">
         <v>1047</v>
@@ -61058,7 +61058,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>42331110958</v>
+        <v>42331111570</v>
       </c>
       <c r="B45" t="s">
         <v>1047</v>
@@ -61066,7 +61066,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>42331111605</v>
+        <v>42331111516</v>
       </c>
       <c r="B46" t="s">
         <v>1047</v>
@@ -61074,7 +61074,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>42331110856</v>
+        <v>42331110964</v>
       </c>
       <c r="B47" t="s">
         <v>1047</v>
@@ -61082,7 +61082,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>42331110649</v>
+        <v>42331110224</v>
       </c>
       <c r="B48" t="s">
         <v>1047</v>
@@ -61090,7 +61090,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>42331111147</v>
+        <v>42331110958</v>
       </c>
       <c r="B49" t="s">
         <v>1047</v>
@@ -61098,7 +61098,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>42331111529</v>
+        <v>42331111605</v>
       </c>
       <c r="B50" t="s">
         <v>1047</v>
@@ -61106,7 +61106,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>42331110741</v>
+        <v>42331110480</v>
       </c>
       <c r="B51" t="s">
         <v>1047</v>
@@ -61114,7 +61114,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>42331110832</v>
+        <v>42331110856</v>
       </c>
       <c r="B52" t="s">
         <v>1047</v>
@@ -61122,7 +61122,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>42331110863</v>
+        <v>42331110649</v>
       </c>
       <c r="B53" t="s">
         <v>1047</v>
@@ -61130,7 +61130,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>42331111672</v>
+        <v>42331111614</v>
       </c>
       <c r="B54" t="s">
         <v>1047</v>
@@ -61138,7 +61138,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>42331111459</v>
+        <v>42331111147</v>
       </c>
       <c r="B55" t="s">
         <v>1047</v>
@@ -61146,7 +61146,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>42331110930</v>
+        <v>42331111529</v>
       </c>
       <c r="B56" t="s">
         <v>1047</v>
@@ -61154,7 +61154,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>42331111766</v>
+        <v>42331110741</v>
       </c>
       <c r="B57" t="s">
         <v>1047</v>
@@ -61162,7 +61162,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>42331110080</v>
+        <v>42331110095</v>
       </c>
       <c r="B58" t="s">
         <v>1047</v>
@@ -61170,7 +61170,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>42332220404</v>
+        <v>42331111913</v>
       </c>
       <c r="B59" t="s">
         <v>1047</v>
@@ -61178,7 +61178,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>42331110919</v>
+        <v>42331110832</v>
       </c>
       <c r="B60" t="s">
         <v>1047</v>
@@ -61186,7 +61186,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>42333410264</v>
+        <v>42331110863</v>
       </c>
       <c r="B61" t="s">
         <v>1047</v>
@@ -61194,7 +61194,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>42332220058</v>
+        <v>42331111672</v>
       </c>
       <c r="B62" t="s">
         <v>1047</v>
@@ -61202,7 +61202,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>42331111478</v>
+        <v>42331111459</v>
       </c>
       <c r="B63" t="s">
         <v>1047</v>
@@ -61210,7 +61210,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>42331111503</v>
+        <v>42331110930</v>
       </c>
       <c r="B64" t="s">
         <v>1047</v>
@@ -61218,7 +61218,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>42332220091</v>
+        <v>42331111766</v>
       </c>
       <c r="B65" t="s">
         <v>1047</v>
@@ -61226,7 +61226,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>42331111622</v>
+        <v>42331110080</v>
       </c>
       <c r="B66" t="s">
         <v>1047</v>
@@ -61234,7 +61234,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>42331110521</v>
+        <v>42332220404</v>
       </c>
       <c r="B67" t="s">
         <v>1047</v>
@@ -61242,7 +61242,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>42331112145</v>
+        <v>42331110919</v>
       </c>
       <c r="B68" t="s">
         <v>1047</v>
@@ -61250,7 +61250,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>42331110546</v>
+        <v>42333410264</v>
       </c>
       <c r="B69" t="s">
         <v>1047</v>
@@ -61258,7 +61258,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>42331111773</v>
+        <v>42332220058</v>
       </c>
       <c r="B70" t="s">
         <v>1047</v>
@@ -61266,7 +61266,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>42331111949</v>
+        <v>42331111478</v>
       </c>
       <c r="B71" t="s">
         <v>1047</v>
@@ -61274,7 +61274,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>42331110752</v>
+        <v>42331111503</v>
       </c>
       <c r="B72" t="s">
         <v>1047</v>
@@ -61282,7 +61282,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>42331112066</v>
+        <v>42332220091</v>
       </c>
       <c r="B73" t="s">
         <v>1047</v>
@@ -61290,7 +61290,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>42331111740</v>
+        <v>42331111622</v>
       </c>
       <c r="B74" t="s">
         <v>1047</v>
@@ -61298,7 +61298,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>42332410322</v>
+        <v>42331110521</v>
       </c>
       <c r="B75" t="s">
         <v>1047</v>
@@ -61306,7 +61306,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>42331110578</v>
+        <v>42331111768</v>
       </c>
       <c r="B76" t="s">
         <v>1047</v>
@@ -61314,7 +61314,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>42331110346</v>
+        <v>42331112145</v>
       </c>
       <c r="B77" t="s">
         <v>1047</v>
@@ -61322,7 +61322,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>42331111062</v>
+        <v>42331110546</v>
       </c>
       <c r="B78" t="s">
         <v>1047</v>
@@ -61330,7 +61330,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>42331111697</v>
+        <v>42331112106</v>
       </c>
       <c r="B79" t="s">
         <v>1047</v>
@@ -61338,7 +61338,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>42331111216</v>
+        <v>42331111773</v>
       </c>
       <c r="B80" t="s">
         <v>1047</v>
@@ -61346,7 +61346,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>42331111378</v>
+        <v>42331111949</v>
       </c>
       <c r="B81" t="s">
         <v>1047</v>
@@ -61354,7 +61354,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>42331111408</v>
+        <v>42331110493</v>
       </c>
       <c r="B82" t="s">
         <v>1047</v>
@@ -61362,7 +61362,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>42332210422</v>
+        <v>42331110752</v>
       </c>
       <c r="B83" t="s">
         <v>1047</v>
@@ -61370,7 +61370,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>42331110664</v>
+        <v>42331112066</v>
       </c>
       <c r="B84" t="s">
         <v>1047</v>
@@ -61378,7 +61378,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>42331111753</v>
+        <v>42331111746</v>
       </c>
       <c r="B85" t="s">
         <v>1047</v>
@@ -61386,138 +61386,180 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
+        <v>42331110885</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>42331111740</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>42332410322</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>42331110578</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>42331110346</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>42331111062</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>42331111697</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>42331111216</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>42331111378</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>42331111408</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>42332210422</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>42331110664</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>42331111753</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>42331110957</v>
       </c>
-      <c r="B86" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>42331111215</v>
+      </c>
       <c r="B100" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>1047</v>
       </c>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2ACBB9-FC81-426C-998E-E90E2644823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EECC2-CCE0-4151-B888-A1073CF4463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7975,9 +7975,9 @@
         <f>VLOOKUP(D12,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="AB12" t="e">
+      <c r="AB12" t="str">
         <f>VLOOKUP(A12,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
@@ -9380,9 +9380,9 @@
         <f>VLOOKUP(D31,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="AB31" t="e">
+      <c r="AB31" t="str">
         <f>VLOOKUP(A31,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
@@ -11302,9 +11302,9 @@
         <f>VLOOKUP(D57,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB57" t="e">
+      <c r="AB57" t="str">
         <f>VLOOKUP(A57,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
@@ -13222,9 +13222,9 @@
         <f>VLOOKUP(D83,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>206</v>
       </c>
-      <c r="AB83" t="e">
+      <c r="AB83" t="str">
         <f>VLOOKUP(A83,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.3">
@@ -16254,9 +16254,9 @@
         <f>VLOOKUP(D124,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="AB124" t="e">
+      <c r="AB124" t="str">
         <f>VLOOKUP(A124,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.3">
@@ -17289,9 +17289,9 @@
         <f>VLOOKUP(D138,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB138" t="e">
+      <c r="AB138" t="str">
         <f>VLOOKUP(A138,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.3">
@@ -18102,9 +18102,9 @@
         <f>VLOOKUP(D149,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AB149" t="e">
+      <c r="AB149" t="str">
         <f>VLOOKUP(A149,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.3">
@@ -21504,9 +21504,9 @@
         <f>VLOOKUP(D195,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>206</v>
       </c>
-      <c r="AB195" t="e">
+      <c r="AB195" t="str">
         <f>VLOOKUP(A195,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.3">
@@ -21948,9 +21948,9 @@
         <f>VLOOKUP(D201,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="AB201" t="e">
+      <c r="AB201" t="str">
         <f>VLOOKUP(A201,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.3">
@@ -23576,9 +23576,9 @@
         <f>VLOOKUP(D223,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="AB223" t="e">
+      <c r="AB223" t="str">
         <f>VLOOKUP(A223,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.3">
@@ -24390,9 +24390,9 @@
         <f>VLOOKUP(D234,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB234" t="e">
+      <c r="AB234" t="str">
         <f>VLOOKUP(A234,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.3">
@@ -29125,9 +29125,9 @@
         <f>VLOOKUP(D298,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="AB298" t="e">
+      <c r="AB298" t="str">
         <f>VLOOKUP(A298,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.3">
@@ -30457,9 +30457,9 @@
         <f>VLOOKUP(D316,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="AB316" t="e">
+      <c r="AB316" t="str">
         <f>VLOOKUP(A316,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.3">
@@ -30826,9 +30826,9 @@
         <f>VLOOKUP(D321,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="AB321" t="e">
+      <c r="AB321" t="str">
         <f>VLOOKUP(A321,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.3">
@@ -31640,9 +31640,9 @@
         <f>VLOOKUP(D332,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>156</v>
       </c>
-      <c r="AB332" t="e">
+      <c r="AB332" t="str">
         <f>VLOOKUP(A332,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.3">
@@ -32231,9 +32231,9 @@
         <f>VLOOKUP(D340,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="AB340" t="e">
+      <c r="AB340" t="str">
         <f>VLOOKUP(A340,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="341" spans="1:28" x14ac:dyDescent="0.3">
@@ -34672,9 +34672,9 @@
         <f>VLOOKUP(D373,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB373" t="e">
+      <c r="AB373" t="str">
         <f>VLOOKUP(A373,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.3">
@@ -34746,9 +34746,9 @@
         <f>VLOOKUP(D374,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="AB374" t="e">
+      <c r="AB374" t="str">
         <f>VLOOKUP(A374,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.3">
@@ -36298,9 +36298,9 @@
         <f>VLOOKUP(D395,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="AB395" t="e">
+      <c r="AB395" t="str">
         <f>VLOOKUP(A395,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="396" spans="1:28" x14ac:dyDescent="0.3">
@@ -60692,7 +60692,7 @@
   <dimension ref="A1:G2465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60735,7 +60735,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>42331111577</v>
+        <v>42331111522</v>
       </c>
       <c r="B5" t="s">
         <v>1047</v>
@@ -60743,7 +60743,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>42331111790</v>
+        <v>42331111577</v>
       </c>
       <c r="B6" t="s">
         <v>1047</v>
@@ -60751,7 +60751,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>42331110641</v>
+        <v>42331111790</v>
       </c>
       <c r="B7" t="s">
         <v>1047</v>
@@ -60759,7 +60759,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>42332210383</v>
+        <v>42331110641</v>
       </c>
       <c r="B8" t="s">
         <v>1047</v>
@@ -60767,7 +60767,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>42331111762</v>
+        <v>42332210383</v>
       </c>
       <c r="B9" t="s">
         <v>1047</v>
@@ -60775,7 +60775,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>42331110808</v>
+        <v>42331111762</v>
       </c>
       <c r="B10" t="s">
         <v>1047</v>
@@ -60783,7 +60783,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>42331112142</v>
+        <v>42331110808</v>
       </c>
       <c r="B11" t="s">
         <v>1047</v>
@@ -60791,7 +60791,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>42331110443</v>
+        <v>42331111102</v>
       </c>
       <c r="B12" t="s">
         <v>1047</v>
@@ -60799,7 +60799,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>42332410173</v>
+        <v>42331112142</v>
       </c>
       <c r="B13" t="s">
         <v>1047</v>
@@ -60807,7 +60807,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>42331111616</v>
+        <v>42331110443</v>
       </c>
       <c r="B14" t="s">
         <v>1047</v>
@@ -60815,7 +60815,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>42332211103</v>
+        <v>42332410173</v>
       </c>
       <c r="B15" t="s">
         <v>1047</v>
@@ -60823,7 +60823,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>42331110117</v>
+        <v>42331111616</v>
       </c>
       <c r="B16" t="s">
         <v>1047</v>
@@ -60831,7 +60831,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>42331111997</v>
+        <v>42332211103</v>
       </c>
       <c r="B17" t="s">
         <v>1047</v>
@@ -60839,7 +60839,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>42331110818</v>
+        <v>42331110117</v>
       </c>
       <c r="B18" t="s">
         <v>1047</v>
@@ -60847,7 +60847,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>42331111502</v>
+        <v>42331111294</v>
       </c>
       <c r="B19" t="s">
         <v>1047</v>
@@ -60855,7 +60855,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>42331111497</v>
+        <v>42331111997</v>
       </c>
       <c r="B20" t="s">
         <v>1047</v>
@@ -60863,7 +60863,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>42331111515</v>
+        <v>42331110818</v>
       </c>
       <c r="B21" t="s">
         <v>1047</v>
@@ -60871,7 +60871,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>42331110025</v>
+        <v>42331111502</v>
       </c>
       <c r="B22" t="s">
         <v>1047</v>
@@ -60879,7 +60879,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>42332210447</v>
+        <v>42331111497</v>
       </c>
       <c r="B23" t="s">
         <v>1047</v>
@@ -60887,7 +60887,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>42331112152</v>
+        <v>42331111515</v>
       </c>
       <c r="B24" t="s">
         <v>1047</v>
@@ -60898,7 +60898,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>42331110314</v>
+        <v>42331110025</v>
       </c>
       <c r="B25" t="s">
         <v>1047</v>
@@ -60906,7 +60906,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>42332410323</v>
+        <v>42332210447</v>
       </c>
       <c r="B26" t="s">
         <v>1047</v>
@@ -60914,7 +60914,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>42331111370</v>
+        <v>42331112152</v>
       </c>
       <c r="B27" t="s">
         <v>1047</v>
@@ -60922,7 +60922,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>42331110698</v>
+        <v>42331112027</v>
       </c>
       <c r="B28" t="s">
         <v>1047</v>
@@ -60930,7 +60930,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>42331111150</v>
+        <v>42331110314</v>
       </c>
       <c r="B29" t="s">
         <v>1047</v>
@@ -60938,7 +60938,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>42331111010</v>
+        <v>42332410323</v>
       </c>
       <c r="B30" t="s">
         <v>1047</v>
@@ -60946,7 +60946,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>42331110371</v>
+        <v>42331111370</v>
       </c>
       <c r="B31" t="s">
         <v>1047</v>
@@ -60954,7 +60954,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>42332410410</v>
+        <v>42331110698</v>
       </c>
       <c r="B32" t="s">
         <v>1047</v>
@@ -60962,7 +60962,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>42333110438</v>
+        <v>42331111150</v>
       </c>
       <c r="B33" t="s">
         <v>1047</v>
@@ -60970,7 +60970,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>42331110442</v>
+        <v>42331111010</v>
       </c>
       <c r="B34" t="s">
         <v>1047</v>
@@ -60978,7 +60978,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>42331110017</v>
+        <v>42331110371</v>
       </c>
       <c r="B35" t="s">
         <v>1047</v>
@@ -60986,7 +60986,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>42331110849</v>
+        <v>42332410410</v>
       </c>
       <c r="B36" t="s">
         <v>1047</v>
@@ -60994,7 +60994,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>42331110396</v>
+        <v>42333110438</v>
       </c>
       <c r="B37" t="s">
         <v>1047</v>
@@ -61002,7 +61002,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>42331110510</v>
+        <v>42332210508</v>
       </c>
       <c r="B38" t="s">
         <v>1047</v>
@@ -61010,7 +61010,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>42332410567</v>
+        <v>42331110442</v>
       </c>
       <c r="B39" t="s">
         <v>1047</v>
@@ -61018,7 +61018,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>42333111762</v>
+        <v>42331110017</v>
       </c>
       <c r="B40" t="s">
         <v>1047</v>
@@ -61026,7 +61026,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>42331111076</v>
+        <v>42331110938</v>
       </c>
       <c r="B41" t="s">
         <v>1047</v>
@@ -61034,7 +61034,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>42331110472</v>
+        <v>42331110849</v>
       </c>
       <c r="B42" t="s">
         <v>1047</v>
@@ -61042,7 +61042,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>42331111629</v>
+        <v>42331110396</v>
       </c>
       <c r="B43" t="s">
         <v>1047</v>
@@ -61050,7 +61050,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>42331110058</v>
+        <v>42331110510</v>
       </c>
       <c r="B44" t="s">
         <v>1047</v>
@@ -61058,7 +61058,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>42331111570</v>
+        <v>42332410567</v>
       </c>
       <c r="B45" t="s">
         <v>1047</v>
@@ -61066,7 +61066,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>42331111516</v>
+        <v>42331112200</v>
       </c>
       <c r="B46" t="s">
         <v>1047</v>
@@ -61074,7 +61074,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>42331110964</v>
+        <v>42333111762</v>
       </c>
       <c r="B47" t="s">
         <v>1047</v>
@@ -61082,7 +61082,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>42331110224</v>
+        <v>42331111076</v>
       </c>
       <c r="B48" t="s">
         <v>1047</v>
@@ -61090,7 +61090,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>42331110958</v>
+        <v>42331110472</v>
       </c>
       <c r="B49" t="s">
         <v>1047</v>
@@ -61098,7 +61098,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>42331111605</v>
+        <v>42331111629</v>
       </c>
       <c r="B50" t="s">
         <v>1047</v>
@@ -61106,7 +61106,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>42331110480</v>
+        <v>42331110058</v>
       </c>
       <c r="B51" t="s">
         <v>1047</v>
@@ -61114,7 +61114,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>42331110856</v>
+        <v>42331111570</v>
       </c>
       <c r="B52" t="s">
         <v>1047</v>
@@ -61122,7 +61122,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>42331110649</v>
+        <v>42331111516</v>
       </c>
       <c r="B53" t="s">
         <v>1047</v>
@@ -61130,7 +61130,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>42331111614</v>
+        <v>42331110430</v>
       </c>
       <c r="B54" t="s">
         <v>1047</v>
@@ -61138,7 +61138,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>42331111147</v>
+        <v>42331110964</v>
       </c>
       <c r="B55" t="s">
         <v>1047</v>
@@ -61146,7 +61146,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>42331111529</v>
+        <v>42331110224</v>
       </c>
       <c r="B56" t="s">
         <v>1047</v>
@@ -61154,7 +61154,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>42331110741</v>
+        <v>42331111696</v>
       </c>
       <c r="B57" t="s">
         <v>1047</v>
@@ -61162,7 +61162,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>42331110095</v>
+        <v>42331110958</v>
       </c>
       <c r="B58" t="s">
         <v>1047</v>
@@ -61170,7 +61170,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>42331111913</v>
+        <v>42331111605</v>
       </c>
       <c r="B59" t="s">
         <v>1047</v>
@@ -61178,7 +61178,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>42331110832</v>
+        <v>42331110480</v>
       </c>
       <c r="B60" t="s">
         <v>1047</v>
@@ -61186,7 +61186,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>42331110863</v>
+        <v>42331111612</v>
       </c>
       <c r="B61" t="s">
         <v>1047</v>
@@ -61194,7 +61194,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>42331111672</v>
+        <v>42331110856</v>
       </c>
       <c r="B62" t="s">
         <v>1047</v>
@@ -61202,7 +61202,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>42331111459</v>
+        <v>42331110649</v>
       </c>
       <c r="B63" t="s">
         <v>1047</v>
@@ -61210,7 +61210,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>42331110930</v>
+        <v>42331111248</v>
       </c>
       <c r="B64" t="s">
         <v>1047</v>
@@ -61218,7 +61218,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>42331111766</v>
+        <v>42331111614</v>
       </c>
       <c r="B65" t="s">
         <v>1047</v>
@@ -61226,7 +61226,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>42331110080</v>
+        <v>42331111147</v>
       </c>
       <c r="B66" t="s">
         <v>1047</v>
@@ -61234,7 +61234,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>42332220404</v>
+        <v>42331111529</v>
       </c>
       <c r="B67" t="s">
         <v>1047</v>
@@ -61242,7 +61242,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>42331110919</v>
+        <v>42331110741</v>
       </c>
       <c r="B68" t="s">
         <v>1047</v>
@@ -61250,7 +61250,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>42333410264</v>
+        <v>42331110095</v>
       </c>
       <c r="B69" t="s">
         <v>1047</v>
@@ -61258,7 +61258,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>42332220058</v>
+        <v>42331111913</v>
       </c>
       <c r="B70" t="s">
         <v>1047</v>
@@ -61266,7 +61266,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>42331111478</v>
+        <v>42331110832</v>
       </c>
       <c r="B71" t="s">
         <v>1047</v>
@@ -61274,7 +61274,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>42331111503</v>
+        <v>42331110863</v>
       </c>
       <c r="B72" t="s">
         <v>1047</v>
@@ -61282,7 +61282,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>42332220091</v>
+        <v>42331111672</v>
       </c>
       <c r="B73" t="s">
         <v>1047</v>
@@ -61290,7 +61290,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>42331111622</v>
+        <v>42331111459</v>
       </c>
       <c r="B74" t="s">
         <v>1047</v>
@@ -61298,7 +61298,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>42331110521</v>
+        <v>42331110930</v>
       </c>
       <c r="B75" t="s">
         <v>1047</v>
@@ -61306,7 +61306,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>42331111768</v>
+        <v>42331111766</v>
       </c>
       <c r="B76" t="s">
         <v>1047</v>
@@ -61314,7 +61314,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>42331112145</v>
+        <v>42331110080</v>
       </c>
       <c r="B77" t="s">
         <v>1047</v>
@@ -61322,7 +61322,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>42331110546</v>
+        <v>42332220404</v>
       </c>
       <c r="B78" t="s">
         <v>1047</v>
@@ -61330,7 +61330,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>42331112106</v>
+        <v>42331110919</v>
       </c>
       <c r="B79" t="s">
         <v>1047</v>
@@ -61338,7 +61338,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>42331111773</v>
+        <v>42333410264</v>
       </c>
       <c r="B80" t="s">
         <v>1047</v>
@@ -61346,7 +61346,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>42331111949</v>
+        <v>42331111322</v>
       </c>
       <c r="B81" t="s">
         <v>1047</v>
@@ -61354,7 +61354,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>42331110493</v>
+        <v>42332220058</v>
       </c>
       <c r="B82" t="s">
         <v>1047</v>
@@ -61362,7 +61362,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>42331110752</v>
+        <v>42331111478</v>
       </c>
       <c r="B83" t="s">
         <v>1047</v>
@@ -61370,7 +61370,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>42331112066</v>
+        <v>42331111503</v>
       </c>
       <c r="B84" t="s">
         <v>1047</v>
@@ -61378,7 +61378,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>42331111746</v>
+        <v>42332220091</v>
       </c>
       <c r="B85" t="s">
         <v>1047</v>
@@ -61386,7 +61386,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>42331110885</v>
+        <v>42331111622</v>
       </c>
       <c r="B86" t="s">
         <v>1047</v>
@@ -61394,7 +61394,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>42331111740</v>
+        <v>42331110521</v>
       </c>
       <c r="B87" t="s">
         <v>1047</v>
@@ -61402,7 +61402,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>42332410322</v>
+        <v>42331110748</v>
       </c>
       <c r="B88" t="s">
         <v>1047</v>
@@ -61410,7 +61410,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>42331110578</v>
+        <v>42331111768</v>
       </c>
       <c r="B89" t="s">
         <v>1047</v>
@@ -61418,7 +61418,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>42331110346</v>
+        <v>42331112145</v>
       </c>
       <c r="B90" t="s">
         <v>1047</v>
@@ -61426,7 +61426,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>42331111062</v>
+        <v>42331110546</v>
       </c>
       <c r="B91" t="s">
         <v>1047</v>
@@ -61434,7 +61434,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>42331111697</v>
+        <v>42331110639</v>
       </c>
       <c r="B92" t="s">
         <v>1047</v>
@@ -61442,7 +61442,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>42331111216</v>
+        <v>42331112106</v>
       </c>
       <c r="B93" t="s">
         <v>1047</v>
@@ -61450,7 +61450,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>42331111378</v>
+        <v>42331111773</v>
       </c>
       <c r="B94" t="s">
         <v>1047</v>
@@ -61458,7 +61458,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>42331111408</v>
+        <v>42331111949</v>
       </c>
       <c r="B95" t="s">
         <v>1047</v>
@@ -61466,7 +61466,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>42332210422</v>
+        <v>42331111092</v>
       </c>
       <c r="B96" t="s">
         <v>1047</v>
@@ -61474,7 +61474,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>42331110664</v>
+        <v>42332210310</v>
       </c>
       <c r="B97" t="s">
         <v>1047</v>
@@ -61482,7 +61482,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>42331111753</v>
+        <v>42331110493</v>
       </c>
       <c r="B98" t="s">
         <v>1047</v>
@@ -61490,7 +61490,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>42331110957</v>
+        <v>42331110752</v>
       </c>
       <c r="B99" t="s">
         <v>1047</v>
@@ -61498,148 +61498,205 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
+        <v>42331112066</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>42331111746</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>42331110885</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>42331111740</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>42332410322</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>42331110578</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>42331110118</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>42331111047</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>42331110346</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>42331111062</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>42331111697</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>42331111216</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>42331111512</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>42331111378</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>42331111408</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>42332210422</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>42331110664</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>42331111753</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>42331110957</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
         <v>42331111215</v>
       </c>
-      <c r="B100" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>1047</v>
       </c>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EECC2-CCE0-4151-B888-A1073CF4463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D377818-94A9-4024-9DE5-73D8B1E45F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3766,6 +3766,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="FAK"/>
       <sheetName val="PRODI"/>
@@ -8345,9 +8348,9 @@
         <f>VLOOKUP(D17,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>156</v>
       </c>
-      <c r="AB17" t="e">
+      <c r="AB17" t="str">
         <f>VLOOKUP(A17,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
@@ -9232,9 +9235,9 @@
         <f>VLOOKUP(D29,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB29" t="e">
+      <c r="AB29" t="str">
         <f>VLOOKUP(A29,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -10045,9 +10048,9 @@
         <f>VLOOKUP(D40,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="AB40" t="e">
+      <c r="AB40" t="str">
         <f>VLOOKUP(A40,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
@@ -10193,9 +10196,9 @@
         <f>VLOOKUP(D42,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="AB42" t="e">
+      <c r="AB42" t="str">
         <f>VLOOKUP(A42,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
@@ -10784,9 +10787,9 @@
         <f>VLOOKUP(D50,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="AB50" t="e">
+      <c r="AB50" t="str">
         <f>VLOOKUP(A50,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.3">
@@ -11228,9 +11231,9 @@
         <f>VLOOKUP(D56,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="AB56" t="e">
+      <c r="AB56" t="str">
         <f>VLOOKUP(A56,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
@@ -11450,9 +11453,9 @@
         <f>VLOOKUP(D59,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>328</v>
       </c>
-      <c r="AB59" t="e">
+      <c r="AB59" t="str">
         <f>VLOOKUP(A59,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
@@ -11597,9 +11600,9 @@
         <f>VLOOKUP(D61,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="AB61" t="e">
+      <c r="AB61" t="str">
         <f>VLOOKUP(A61,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.3">
@@ -13076,9 +13079,9 @@
         <f>VLOOKUP(D81,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="AB81" t="e">
+      <c r="AB81" t="str">
         <f>VLOOKUP(A81,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.3">
@@ -13149,9 +13152,9 @@
         <f>VLOOKUP(D82,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="AB82" t="e">
+      <c r="AB82" t="str">
         <f>VLOOKUP(A82,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.3">
@@ -15737,9 +15740,9 @@
         <f>VLOOKUP(D117,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>36</v>
       </c>
-      <c r="AB117" t="e">
+      <c r="AB117" t="str">
         <f>VLOOKUP(A117,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
@@ -16476,9 +16479,9 @@
         <f>VLOOKUP(D127,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB127" t="e">
+      <c r="AB127" t="str">
         <f>VLOOKUP(A127,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.3">
@@ -18620,9 +18623,9 @@
         <f>VLOOKUP(D156,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="AB156" t="e">
+      <c r="AB156" t="str">
         <f>VLOOKUP(A156,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.3">
@@ -19138,9 +19141,9 @@
         <f>VLOOKUP(D163,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="AB163" t="e">
+      <c r="AB163" t="str">
         <f>VLOOKUP(A163,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.3">
@@ -19359,9 +19362,9 @@
         <f>VLOOKUP(D166,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>53</v>
       </c>
-      <c r="AB166" t="e">
+      <c r="AB166" t="str">
         <f>VLOOKUP(A166,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.3">
@@ -19433,9 +19436,9 @@
         <f>VLOOKUP(D167,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>156</v>
       </c>
-      <c r="AB167" t="e">
+      <c r="AB167" t="str">
         <f>VLOOKUP(A167,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.3">
@@ -19876,9 +19879,9 @@
         <f>VLOOKUP(D173,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>74</v>
       </c>
-      <c r="AB173" t="e">
+      <c r="AB173" t="str">
         <f>VLOOKUP(A173,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.3">
@@ -20098,9 +20101,9 @@
         <f>VLOOKUP(D176,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>88</v>
       </c>
-      <c r="AB176" t="e">
+      <c r="AB176" t="str">
         <f>VLOOKUP(A176,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.3">
@@ -20172,9 +20175,9 @@
         <f>VLOOKUP(D177,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>279</v>
       </c>
-      <c r="AB177" t="e">
+      <c r="AB177" t="str">
         <f>VLOOKUP(A177,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.3">
@@ -20764,9 +20767,9 @@
         <f>VLOOKUP(D185,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="AB185" t="e">
+      <c r="AB185" t="str">
         <f>VLOOKUP(A185,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.3">
@@ -21578,9 +21581,9 @@
         <f>VLOOKUP(D196,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AB196" t="e">
+      <c r="AB196" t="str">
         <f>VLOOKUP(A196,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.3">
@@ -23872,9 +23875,9 @@
         <f>VLOOKUP(D227,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>206</v>
       </c>
-      <c r="AB227" t="e">
+      <c r="AB227" t="str">
         <f>VLOOKUP(A227,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.3">
@@ -25204,9 +25207,9 @@
         <f>VLOOKUP(D245,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="AB245" t="e">
+      <c r="AB245" t="str">
         <f>VLOOKUP(A245,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.3">
@@ -25722,9 +25725,9 @@
         <f>VLOOKUP(D252,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB252" t="e">
+      <c r="AB252" t="str">
         <f>VLOOKUP(A252,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.3">
@@ -26017,9 +26020,9 @@
         <f>VLOOKUP(D256,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="AB256" t="e">
+      <c r="AB256" t="str">
         <f>VLOOKUP(A256,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.3">
@@ -26535,9 +26538,9 @@
         <f>VLOOKUP(D263,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="AB263" t="e">
+      <c r="AB263" t="str">
         <f>VLOOKUP(A263,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.3">
@@ -26905,9 +26908,9 @@
         <f>VLOOKUP(D268,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="AB268" t="e">
+      <c r="AB268" t="str">
         <f>VLOOKUP(A268,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.3">
@@ -27349,9 +27352,9 @@
         <f>VLOOKUP(D274,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="AB274" t="e">
+      <c r="AB274" t="str">
         <f>VLOOKUP(A274,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.3">
@@ -27497,9 +27500,9 @@
         <f>VLOOKUP(D276,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB276" t="e">
+      <c r="AB276" t="str">
         <f>VLOOKUP(A276,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.3">
@@ -27867,9 +27870,9 @@
         <f>VLOOKUP(D281,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>144</v>
       </c>
-      <c r="AB281" t="e">
+      <c r="AB281" t="str">
         <f>VLOOKUP(A281,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.3">
@@ -29643,9 +29646,9 @@
         <f>VLOOKUP(D305,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>53</v>
       </c>
-      <c r="AB305" t="e">
+      <c r="AB305" t="str">
         <f>VLOOKUP(A305,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.3">
@@ -30678,9 +30681,9 @@
         <f>VLOOKUP(D319,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>219</v>
       </c>
-      <c r="AB319" t="e">
+      <c r="AB319" t="str">
         <f>VLOOKUP(A319,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="320" spans="1:28" x14ac:dyDescent="0.3">
@@ -32749,9 +32752,9 @@
         <f>VLOOKUP(D347,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>144</v>
       </c>
-      <c r="AB347" t="e">
+      <c r="AB347" t="str">
         <f>VLOOKUP(A347,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="348" spans="1:28" x14ac:dyDescent="0.3">
@@ -34154,9 +34157,9 @@
         <f>VLOOKUP(D366,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="AB366" t="e">
+      <c r="AB366" t="str">
         <f>VLOOKUP(A366,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="367" spans="1:28" x14ac:dyDescent="0.3">
@@ -34302,9 +34305,9 @@
         <f>VLOOKUP(D368,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="AB368" t="e">
+      <c r="AB368" t="str">
         <f>VLOOKUP(A368,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="369" spans="1:28" x14ac:dyDescent="0.3">
@@ -35780,9 +35783,9 @@
         <f>VLOOKUP(D388,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="AB388" t="e">
+      <c r="AB388" t="str">
         <f>VLOOKUP(A388,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="389" spans="1:28" x14ac:dyDescent="0.3">
@@ -60692,7 +60695,7 @@
   <dimension ref="A1:G2465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60743,7 +60746,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>42331111577</v>
+        <v>42331110778</v>
       </c>
       <c r="B6" t="s">
         <v>1047</v>
@@ -60751,7 +60754,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>42331111790</v>
+        <v>42331111577</v>
       </c>
       <c r="B7" t="s">
         <v>1047</v>
@@ -60759,7 +60762,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>42331110641</v>
+        <v>42331111790</v>
       </c>
       <c r="B8" t="s">
         <v>1047</v>
@@ -60767,7 +60770,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>42332210383</v>
+        <v>42331110641</v>
       </c>
       <c r="B9" t="s">
         <v>1047</v>
@@ -60775,7 +60778,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>42331111762</v>
+        <v>42332210383</v>
       </c>
       <c r="B10" t="s">
         <v>1047</v>
@@ -60783,7 +60786,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>42331110808</v>
+        <v>42331111762</v>
       </c>
       <c r="B11" t="s">
         <v>1047</v>
@@ -60791,7 +60794,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>42331111102</v>
+        <v>42331110808</v>
       </c>
       <c r="B12" t="s">
         <v>1047</v>
@@ -60799,7 +60802,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>42331112142</v>
+        <v>42332410448</v>
       </c>
       <c r="B13" t="s">
         <v>1047</v>
@@ -60807,7 +60810,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>42331110443</v>
+        <v>42331111102</v>
       </c>
       <c r="B14" t="s">
         <v>1047</v>
@@ -60815,7 +60818,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>42332410173</v>
+        <v>42331112142</v>
       </c>
       <c r="B15" t="s">
         <v>1047</v>
@@ -60823,7 +60826,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>42331111616</v>
+        <v>42331110443</v>
       </c>
       <c r="B16" t="s">
         <v>1047</v>
@@ -60831,7 +60834,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>42332211103</v>
+        <v>42331110684</v>
       </c>
       <c r="B17" t="s">
         <v>1047</v>
@@ -60839,7 +60842,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>42331110117</v>
+        <v>42332211231</v>
       </c>
       <c r="B18" t="s">
         <v>1047</v>
@@ -60847,7 +60850,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>42331111294</v>
+        <v>42332410173</v>
       </c>
       <c r="B19" t="s">
         <v>1047</v>
@@ -60855,7 +60858,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>42331111997</v>
+        <v>42331111616</v>
       </c>
       <c r="B20" t="s">
         <v>1047</v>
@@ -60863,7 +60866,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>42331110818</v>
+        <v>42332211103</v>
       </c>
       <c r="B21" t="s">
         <v>1047</v>
@@ -60871,7 +60874,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>42331111502</v>
+        <v>42331111376</v>
       </c>
       <c r="B22" t="s">
         <v>1047</v>
@@ -60879,7 +60882,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>42331111497</v>
+        <v>42331110117</v>
       </c>
       <c r="B23" t="s">
         <v>1047</v>
@@ -60887,7 +60890,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>42331111515</v>
+        <v>42331111087</v>
       </c>
       <c r="B24" t="s">
         <v>1047</v>
@@ -60898,7 +60901,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>42331110025</v>
+        <v>42331111294</v>
       </c>
       <c r="B25" t="s">
         <v>1047</v>
@@ -60906,7 +60909,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>42332210447</v>
+        <v>42331111689</v>
       </c>
       <c r="B26" t="s">
         <v>1047</v>
@@ -60914,7 +60917,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>42331112152</v>
+        <v>42331111997</v>
       </c>
       <c r="B27" t="s">
         <v>1047</v>
@@ -60922,7 +60925,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>42331112027</v>
+        <v>42331110609</v>
       </c>
       <c r="B28" t="s">
         <v>1047</v>
@@ -60930,7 +60933,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>42331110314</v>
+        <v>42331110818</v>
       </c>
       <c r="B29" t="s">
         <v>1047</v>
@@ -60938,7 +60941,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>42332410323</v>
+        <v>42331111502</v>
       </c>
       <c r="B30" t="s">
         <v>1047</v>
@@ -60946,7 +60949,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>42331111370</v>
+        <v>42331111497</v>
       </c>
       <c r="B31" t="s">
         <v>1047</v>
@@ -60954,7 +60957,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>42331110698</v>
+        <v>42331111515</v>
       </c>
       <c r="B32" t="s">
         <v>1047</v>
@@ -60962,7 +60965,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>42331111150</v>
+        <v>42331110025</v>
       </c>
       <c r="B33" t="s">
         <v>1047</v>
@@ -60970,7 +60973,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>42331111010</v>
+        <v>42332210447</v>
       </c>
       <c r="B34" t="s">
         <v>1047</v>
@@ -60978,7 +60981,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>42331110371</v>
+        <v>42331112152</v>
       </c>
       <c r="B35" t="s">
         <v>1047</v>
@@ -60986,7 +60989,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>42332410410</v>
+        <v>42331112068</v>
       </c>
       <c r="B36" t="s">
         <v>1047</v>
@@ -60994,7 +60997,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>42333110438</v>
+        <v>42331111690</v>
       </c>
       <c r="B37" t="s">
         <v>1047</v>
@@ -61002,7 +61005,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>42332210508</v>
+        <v>42331112027</v>
       </c>
       <c r="B38" t="s">
         <v>1047</v>
@@ -61010,7 +61013,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>42331110442</v>
+        <v>42331110314</v>
       </c>
       <c r="B39" t="s">
         <v>1047</v>
@@ -61018,7 +61021,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>42331110017</v>
+        <v>42332410323</v>
       </c>
       <c r="B40" t="s">
         <v>1047</v>
@@ -61026,7 +61029,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>42331110938</v>
+        <v>42331111370</v>
       </c>
       <c r="B41" t="s">
         <v>1047</v>
@@ -61034,7 +61037,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>42331110849</v>
+        <v>42331110698</v>
       </c>
       <c r="B42" t="s">
         <v>1047</v>
@@ -61042,7 +61045,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>42331110396</v>
+        <v>42331111150</v>
       </c>
       <c r="B43" t="s">
         <v>1047</v>
@@ -61050,7 +61053,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>42331110510</v>
+        <v>42331111010</v>
       </c>
       <c r="B44" t="s">
         <v>1047</v>
@@ -61058,7 +61061,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>42332410567</v>
+        <v>42331110371</v>
       </c>
       <c r="B45" t="s">
         <v>1047</v>
@@ -61066,7 +61069,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>42331112200</v>
+        <v>42332410410</v>
       </c>
       <c r="B46" t="s">
         <v>1047</v>
@@ -61074,7 +61077,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>42333111762</v>
+        <v>42333110438</v>
       </c>
       <c r="B47" t="s">
         <v>1047</v>
@@ -61082,7 +61085,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>42331111076</v>
+        <v>42331111646</v>
       </c>
       <c r="B48" t="s">
         <v>1047</v>
@@ -61090,7 +61093,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>42331110472</v>
+        <v>42332210508</v>
       </c>
       <c r="B49" t="s">
         <v>1047</v>
@@ -61098,7 +61101,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>42331111629</v>
+        <v>42331110442</v>
       </c>
       <c r="B50" t="s">
         <v>1047</v>
@@ -61106,7 +61109,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>42331110058</v>
+        <v>42331111065</v>
       </c>
       <c r="B51" t="s">
         <v>1047</v>
@@ -61114,7 +61117,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>42331111570</v>
+        <v>42331110017</v>
       </c>
       <c r="B52" t="s">
         <v>1047</v>
@@ -61122,7 +61125,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>42331111516</v>
+        <v>42331110938</v>
       </c>
       <c r="B53" t="s">
         <v>1047</v>
@@ -61130,7 +61133,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>42331110430</v>
+        <v>42331110849</v>
       </c>
       <c r="B54" t="s">
         <v>1047</v>
@@ -61138,7 +61141,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>42331110964</v>
+        <v>42331110396</v>
       </c>
       <c r="B55" t="s">
         <v>1047</v>
@@ -61146,7 +61149,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>42331110224</v>
+        <v>42331110510</v>
       </c>
       <c r="B56" t="s">
         <v>1047</v>
@@ -61154,7 +61157,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>42331111696</v>
+        <v>42332410567</v>
       </c>
       <c r="B57" t="s">
         <v>1047</v>
@@ -61162,7 +61165,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>42331110958</v>
+        <v>42331112200</v>
       </c>
       <c r="B58" t="s">
         <v>1047</v>
@@ -61170,7 +61173,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>42331111605</v>
+        <v>42333111762</v>
       </c>
       <c r="B59" t="s">
         <v>1047</v>
@@ -61178,7 +61181,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>42331110480</v>
+        <v>42331111076</v>
       </c>
       <c r="B60" t="s">
         <v>1047</v>
@@ -61186,7 +61189,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>42331111612</v>
+        <v>42331111000</v>
       </c>
       <c r="B61" t="s">
         <v>1047</v>
@@ -61194,7 +61197,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>42331110856</v>
+        <v>42315112136</v>
       </c>
       <c r="B62" t="s">
         <v>1047</v>
@@ -61202,7 +61205,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>42331110649</v>
+        <v>42331110472</v>
       </c>
       <c r="B63" t="s">
         <v>1047</v>
@@ -61210,7 +61213,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>42331111248</v>
+        <v>42331111895</v>
       </c>
       <c r="B64" t="s">
         <v>1047</v>
@@ -61218,7 +61221,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>42331111614</v>
+        <v>42332210744</v>
       </c>
       <c r="B65" t="s">
         <v>1047</v>
@@ -61226,7 +61229,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>42331111147</v>
+        <v>42331111962</v>
       </c>
       <c r="B66" t="s">
         <v>1047</v>
@@ -61234,7 +61237,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>42331111529</v>
+        <v>42331110559</v>
       </c>
       <c r="B67" t="s">
         <v>1047</v>
@@ -61242,7 +61245,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>42331110741</v>
+        <v>42331112032</v>
       </c>
       <c r="B68" t="s">
         <v>1047</v>
@@ -61250,7 +61253,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>42331110095</v>
+        <v>42331111629</v>
       </c>
       <c r="B69" t="s">
         <v>1047</v>
@@ -61258,7 +61261,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>42331111913</v>
+        <v>42331111648</v>
       </c>
       <c r="B70" t="s">
         <v>1047</v>
@@ -61266,7 +61269,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>42331110832</v>
+        <v>42331110058</v>
       </c>
       <c r="B71" t="s">
         <v>1047</v>
@@ -61274,7 +61277,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>42331110863</v>
+        <v>42331111570</v>
       </c>
       <c r="B72" t="s">
         <v>1047</v>
@@ -61282,7 +61285,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>42331111672</v>
+        <v>42331111516</v>
       </c>
       <c r="B73" t="s">
         <v>1047</v>
@@ -61290,7 +61293,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>42331111459</v>
+        <v>42331110430</v>
       </c>
       <c r="B74" t="s">
         <v>1047</v>
@@ -61298,7 +61301,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>42331110930</v>
+        <v>42331112059</v>
       </c>
       <c r="B75" t="s">
         <v>1047</v>
@@ -61306,7 +61309,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>42331111766</v>
+        <v>42331110964</v>
       </c>
       <c r="B76" t="s">
         <v>1047</v>
@@ -61314,7 +61317,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>42331110080</v>
+        <v>42331110224</v>
       </c>
       <c r="B77" t="s">
         <v>1047</v>
@@ -61322,7 +61325,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>42332220404</v>
+        <v>42331111696</v>
       </c>
       <c r="B78" t="s">
         <v>1047</v>
@@ -61330,7 +61333,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>42331110919</v>
+        <v>42331110958</v>
       </c>
       <c r="B79" t="s">
         <v>1047</v>
@@ -61338,7 +61341,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>42333410264</v>
+        <v>42331111605</v>
       </c>
       <c r="B80" t="s">
         <v>1047</v>
@@ -61346,7 +61349,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>42331111322</v>
+        <v>42331110480</v>
       </c>
       <c r="B81" t="s">
         <v>1047</v>
@@ -61354,7 +61357,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>42332220058</v>
+        <v>42331111612</v>
       </c>
       <c r="B82" t="s">
         <v>1047</v>
@@ -61362,7 +61365,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>42331111478</v>
+        <v>42331110856</v>
       </c>
       <c r="B83" t="s">
         <v>1047</v>
@@ -61370,7 +61373,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>42331111503</v>
+        <v>42332210376</v>
       </c>
       <c r="B84" t="s">
         <v>1047</v>
@@ -61378,7 +61381,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>42332220091</v>
+        <v>42331110649</v>
       </c>
       <c r="B85" t="s">
         <v>1047</v>
@@ -61386,7 +61389,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>42331111622</v>
+        <v>42331111248</v>
       </c>
       <c r="B86" t="s">
         <v>1047</v>
@@ -61394,7 +61397,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>42331110521</v>
+        <v>42331111614</v>
       </c>
       <c r="B87" t="s">
         <v>1047</v>
@@ -61402,7 +61405,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>42331110748</v>
+        <v>42331111147</v>
       </c>
       <c r="B88" t="s">
         <v>1047</v>
@@ -61410,7 +61413,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>42331111768</v>
+        <v>42331111529</v>
       </c>
       <c r="B89" t="s">
         <v>1047</v>
@@ -61418,7 +61421,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>42331112145</v>
+        <v>42331110741</v>
       </c>
       <c r="B90" t="s">
         <v>1047</v>
@@ -61426,7 +61429,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>42331110546</v>
+        <v>42331110820</v>
       </c>
       <c r="B91" t="s">
         <v>1047</v>
@@ -61434,7 +61437,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>42331110639</v>
+        <v>42331110095</v>
       </c>
       <c r="B92" t="s">
         <v>1047</v>
@@ -61442,7 +61445,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>42331112106</v>
+        <v>42331110754</v>
       </c>
       <c r="B93" t="s">
         <v>1047</v>
@@ -61450,7 +61453,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>42331111773</v>
+        <v>42331111913</v>
       </c>
       <c r="B94" t="s">
         <v>1047</v>
@@ -61458,7 +61461,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>42331111949</v>
+        <v>42331111662</v>
       </c>
       <c r="B95" t="s">
         <v>1047</v>
@@ -61466,7 +61469,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>42331111092</v>
+        <v>42331110049</v>
       </c>
       <c r="B96" t="s">
         <v>1047</v>
@@ -61474,7 +61477,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>42332210310</v>
+        <v>42331110832</v>
       </c>
       <c r="B97" t="s">
         <v>1047</v>
@@ -61482,7 +61485,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>42331110493</v>
+        <v>42331111336</v>
       </c>
       <c r="B98" t="s">
         <v>1047</v>
@@ -61490,7 +61493,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>42331110752</v>
+        <v>42331110863</v>
       </c>
       <c r="B99" t="s">
         <v>1047</v>
@@ -61498,7 +61501,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>42331112066</v>
+        <v>42331111672</v>
       </c>
       <c r="B100" t="s">
         <v>1047</v>
@@ -61506,7 +61509,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>42331111746</v>
+        <v>42331111459</v>
       </c>
       <c r="B101" t="s">
         <v>1047</v>
@@ -61514,7 +61517,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>42331110885</v>
+        <v>42331110906</v>
       </c>
       <c r="B102" t="s">
         <v>1047</v>
@@ -61522,7 +61525,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>42331111740</v>
+        <v>42331110704</v>
       </c>
       <c r="B103" t="s">
         <v>1047</v>
@@ -61530,7 +61533,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>42332410322</v>
+        <v>42331111886</v>
       </c>
       <c r="B104" t="s">
         <v>1047</v>
@@ -61538,7 +61541,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>42331110578</v>
+        <v>42331110930</v>
       </c>
       <c r="B105" t="s">
         <v>1047</v>
@@ -61546,7 +61549,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>42331110118</v>
+        <v>42331111766</v>
       </c>
       <c r="B106" t="s">
         <v>1047</v>
@@ -61554,7 +61557,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>42331111047</v>
+        <v>42331110080</v>
       </c>
       <c r="B107" t="s">
         <v>1047</v>
@@ -61562,7 +61565,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>42331110346</v>
+        <v>42332220404</v>
       </c>
       <c r="B108" t="s">
         <v>1047</v>
@@ -61570,7 +61573,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>42331111062</v>
+        <v>42331110919</v>
       </c>
       <c r="B109" t="s">
         <v>1047</v>
@@ -61578,7 +61581,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>42331111697</v>
+        <v>42333410264</v>
       </c>
       <c r="B110" t="s">
         <v>1047</v>
@@ -61586,7 +61589,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>42331111216</v>
+        <v>42331111322</v>
       </c>
       <c r="B111" t="s">
         <v>1047</v>
@@ -61594,7 +61597,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>42331111512</v>
+        <v>42332220058</v>
       </c>
       <c r="B112" t="s">
         <v>1047</v>
@@ -61602,7 +61605,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>42331111378</v>
+        <v>42331111478</v>
       </c>
       <c r="B113" t="s">
         <v>1047</v>
@@ -61610,7 +61613,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>42331111408</v>
+        <v>42331110168</v>
       </c>
       <c r="B114" t="s">
         <v>1047</v>
@@ -61618,7 +61621,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>42332210422</v>
+        <v>42331111503</v>
       </c>
       <c r="B115" t="s">
         <v>1047</v>
@@ -61626,7 +61629,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>42331110664</v>
+        <v>42332220091</v>
       </c>
       <c r="B116" t="s">
         <v>1047</v>
@@ -61634,7 +61637,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>42331111753</v>
+        <v>42331111622</v>
       </c>
       <c r="B117" t="s">
         <v>1047</v>
@@ -61642,7 +61645,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>42331110957</v>
+        <v>42331110521</v>
       </c>
       <c r="B118" t="s">
         <v>1047</v>
@@ -61650,213 +61653,321 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
+        <v>42331110748</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>42331111768</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>42331112145</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>42331110541</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>42331110546</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>42331110639</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>42331112106</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>42331111773</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>42331111949</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>42331111092</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>42332210310</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>42331111032</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>42331110493</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>42331110752</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>42331112066</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>42331111746</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>42331110885</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>42331111740</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>42332410322</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>42331111912</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>42331110578</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>42331111825</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>42331110118</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>42331111047</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>42331110346</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>42331111062</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>42331111697</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>42331111021</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>42331111216</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>42331111512</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>42331111378</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>42331111408</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>42332210422</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>42331110664</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>42331111753</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>42331110957</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
         <v>42331111215</v>
       </c>
-      <c r="B119" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>1047</v>
       </c>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4B716B-FBD7-4694-AAEE-21507B767347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C076521D-9B5D-48C7-98B3-26658F93C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="snmptn" sheetId="1" r:id="rId1"/>
@@ -3679,12 +3679,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6947,7 +6946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+    <sheetView topLeftCell="A386" workbookViewId="0">
       <selection activeCell="F412" sqref="F412"/>
     </sheetView>
   </sheetViews>
@@ -7223,9 +7222,9 @@
         <f>VLOOKUP(D3,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AB3" t="e">
+      <c r="AB3" t="str">
         <f>VLOOKUP(A3,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
@@ -7401,9 +7400,9 @@
         <f>VLOOKUP(D5,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>74</v>
       </c>
-      <c r="AB5" t="e">
+      <c r="AB5" t="str">
         <f>VLOOKUP(A5,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
@@ -10344,9 +10343,9 @@
         <f>VLOOKUP(D44,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB44" t="e">
+      <c r="AB44" t="str">
         <f>VLOOKUP(A44,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
@@ -11897,9 +11896,9 @@
         <f>VLOOKUP(D65,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="AB65" t="e">
+      <c r="AB65" t="str">
         <f>VLOOKUP(A65,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
@@ -12193,9 +12192,9 @@
         <f>VLOOKUP(D69,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>121</v>
       </c>
-      <c r="AB69" t="e">
+      <c r="AB69" t="str">
         <f>VLOOKUP(A69,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
@@ -12488,9 +12487,9 @@
         <f>VLOOKUP(D73,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="AB73" t="e">
+      <c r="AB73" t="str">
         <f>VLOOKUP(A73,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">
@@ -12858,9 +12857,9 @@
         <f>VLOOKUP(D78,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="AB78" t="e">
+      <c r="AB78" t="str">
         <f>VLOOKUP(A78,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.3">
@@ -13300,9 +13299,9 @@
         <f>VLOOKUP(D84,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="AB84" t="e">
+      <c r="AB84" t="str">
         <f>VLOOKUP(A84,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.3">
@@ -14113,9 +14112,9 @@
         <f>VLOOKUP(D95,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>206</v>
       </c>
-      <c r="AB95" t="e">
+      <c r="AB95" t="str">
         <f>VLOOKUP(A95,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
@@ -14705,9 +14704,9 @@
         <f>VLOOKUP(D103,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>156</v>
       </c>
-      <c r="AB103" t="e">
+      <c r="AB103" t="str">
         <f>VLOOKUP(A103,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.3">
@@ -14779,9 +14778,9 @@
         <f>VLOOKUP(D104,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>119</v>
       </c>
-      <c r="AB104" t="e">
+      <c r="AB104" t="str">
         <f>VLOOKUP(A104,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.3">
@@ -16554,9 +16553,9 @@
         <f>VLOOKUP(D128,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="AB128" t="e">
+      <c r="AB128" t="str">
         <f>VLOOKUP(A128,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.3">
@@ -16628,9 +16627,9 @@
         <f>VLOOKUP(D129,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>84</v>
       </c>
-      <c r="AB129" t="e">
+      <c r="AB129" t="str">
         <f>VLOOKUP(A129,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.3">
@@ -16850,9 +16849,9 @@
         <f>VLOOKUP(D132,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>76</v>
       </c>
-      <c r="AB132" t="e">
+      <c r="AB132" t="str">
         <f>VLOOKUP(A132,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.3">
@@ -17071,9 +17070,9 @@
         <f>VLOOKUP(D135,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>219</v>
       </c>
-      <c r="AB135" t="e">
+      <c r="AB135" t="str">
         <f>VLOOKUP(A135,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.3">
@@ -17663,9 +17662,9 @@
         <f>VLOOKUP(D143,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB143" t="e">
+      <c r="AB143" t="str">
         <f>VLOOKUP(A143,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.3">
@@ -17811,9 +17810,9 @@
         <f>VLOOKUP(D145,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="AB145" t="e">
+      <c r="AB145" t="str">
         <f>VLOOKUP(A145,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.3">
@@ -17958,9 +17957,9 @@
         <f>VLOOKUP(D147,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>219</v>
       </c>
-      <c r="AB147" t="e">
+      <c r="AB147" t="str">
         <f>VLOOKUP(A147,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.3">
@@ -18328,9 +18327,9 @@
         <f>VLOOKUP(D152,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>219</v>
       </c>
-      <c r="AB152" t="e">
+      <c r="AB152" t="str">
         <f>VLOOKUP(A152,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.3">
@@ -18402,9 +18401,9 @@
         <f>VLOOKUP(D153,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>74</v>
       </c>
-      <c r="AB153" t="e">
+      <c r="AB153" t="str">
         <f>VLOOKUP(A153,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.3">
@@ -19289,9 +19288,9 @@
         <f>VLOOKUP(D165,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="AB165" t="e">
+      <c r="AB165" t="str">
         <f>VLOOKUP(A165,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.3">
@@ -20842,9 +20841,9 @@
         <f>VLOOKUP(D186,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>144</v>
       </c>
-      <c r="AB186" t="e">
+      <c r="AB186" t="str">
         <f>VLOOKUP(A186,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.3">
@@ -22692,9 +22691,9 @@
         <f>VLOOKUP(D211,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="AB211" t="e">
+      <c r="AB211" t="str">
         <f>VLOOKUP(A211,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.3">
@@ -25947,9 +25946,9 @@
         <f>VLOOKUP(D255,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="AB255" t="e">
+      <c r="AB255" t="str">
         <f>VLOOKUP(A255,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.3">
@@ -29795,9 +29794,9 @@
         <f>VLOOKUP(D307,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="AB307" t="e">
+      <c r="AB307" t="str">
         <f>VLOOKUP(A307,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.3">
@@ -30239,9 +30238,9 @@
         <f>VLOOKUP(D313,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB313" t="e">
+      <c r="AB313" t="str">
         <f>VLOOKUP(A313,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.3">
@@ -32309,9 +32308,9 @@
         <f>VLOOKUP(D341,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>206</v>
       </c>
-      <c r="AB341" t="e">
+      <c r="AB341" t="str">
         <f>VLOOKUP(A341,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="342" spans="1:28" x14ac:dyDescent="0.3">
@@ -32605,9 +32604,9 @@
         <f>VLOOKUP(D345,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="AB345" t="e">
+      <c r="AB345" t="str">
         <f>VLOOKUP(A345,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="346" spans="1:28" x14ac:dyDescent="0.3">
@@ -34528,9 +34527,9 @@
         <f>VLOOKUP(D371,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="AB371" t="e">
+      <c r="AB371" t="str">
         <f>VLOOKUP(A371,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.3">
@@ -36597,9 +36596,9 @@
         <f>VLOOKUP(D399,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>353</v>
       </c>
-      <c r="AB399" t="e">
+      <c r="AB399" t="str">
         <f>VLOOKUP(A399,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="400" spans="1:28" x14ac:dyDescent="0.3">
@@ -60695,8 +60694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E8F714-38B6-4326-8330-B1889679FA04}">
   <dimension ref="A1:G2465"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A222"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60714,184 +60713,184 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2">
+        <v>42331111769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>42331111341</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>42331111301</v>
       </c>
-      <c r="B2" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="B4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>42332210204</v>
       </c>
-      <c r="B3" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="B5" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>42331111115</v>
       </c>
-      <c r="B4" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="B6" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>42331111522</v>
       </c>
-      <c r="B5" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="B7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>42331111205</v>
       </c>
-      <c r="B6" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="B8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>42331110778</v>
       </c>
-      <c r="B7" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="B9" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>42331111795</v>
       </c>
-      <c r="B8" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="B10" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>42331111577</v>
       </c>
-      <c r="B9" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="B11" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>42331111790</v>
       </c>
-      <c r="B10" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="B12" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>42331110641</v>
       </c>
-      <c r="B11" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="B13" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>42332210383</v>
       </c>
-      <c r="B12" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="B14" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>42331110502</v>
       </c>
-      <c r="B13" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="B15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>42331111160</v>
       </c>
-      <c r="B14" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="B16" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>42332211062</v>
       </c>
-      <c r="B15" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="B17" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>42331111762</v>
       </c>
-      <c r="B16" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="B18" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>42331110808</v>
       </c>
-      <c r="B17" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="B19" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>42332410448</v>
       </c>
-      <c r="B18" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="B20" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>42331111102</v>
       </c>
-      <c r="B19" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="B21" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>42331112142</v>
       </c>
-      <c r="B20" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="B22" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>42331111631</v>
       </c>
-      <c r="B21" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="B23" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>42331111023</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>42331110122</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>42331110443</v>
       </c>
       <c r="B24" t="s">
         <v>1047</v>
@@ -60901,1755 +60900,1845 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25">
+        <v>42331110122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>42331110443</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>42331110684</v>
       </c>
-      <c r="B25" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="B27" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>42332211231</v>
       </c>
-      <c r="B26" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="B28" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>42332410173</v>
       </c>
-      <c r="B27" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="B29" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>42331112128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>42331111616</v>
       </c>
-      <c r="B28" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="B31" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>42332211103</v>
       </c>
-      <c r="B29" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="B32" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>42333111948</v>
       </c>
-      <c r="B30" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="B33" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>42331111376</v>
       </c>
-      <c r="B31" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="B34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>42331110117</v>
       </c>
-      <c r="B32" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="B35" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>42331111087</v>
       </c>
-      <c r="B33" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="B36" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>42331111294</v>
       </c>
-      <c r="B34" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="B37" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>42331111689</v>
       </c>
-      <c r="B35" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="B38" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>42331111997</v>
       </c>
-      <c r="B36" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="B39" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>42331110609</v>
       </c>
-      <c r="B37" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="B40" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>42331111761</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>42331110818</v>
       </c>
-      <c r="B38" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="B42" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>42331111502</v>
       </c>
-      <c r="B39" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="B43" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>42331111166</v>
       </c>
-      <c r="B40" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="B44" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>42331111460</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>42331111497</v>
       </c>
-      <c r="B41" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="B46" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>42331111515</v>
       </c>
-      <c r="B42" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="B47" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>42331111639</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>42331110025</v>
       </c>
-      <c r="B43" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="B49" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>42331111814</v>
       </c>
-      <c r="B44" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="B50" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>42332210447</v>
       </c>
-      <c r="B45" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="B51" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>42331111831</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>42331112152</v>
       </c>
-      <c r="B46" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="B53" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>42331112068</v>
       </c>
-      <c r="B47" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="B54" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>42331111690</v>
       </c>
-      <c r="B48" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="B55" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>42331112027</v>
       </c>
-      <c r="B49" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="B56" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>42331111971</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>42331111442</v>
       </c>
-      <c r="B50" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="B58" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>42332220224</v>
       </c>
-      <c r="B51" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+      <c r="B59" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>42331112084</v>
       </c>
-      <c r="B52" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="B60" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>42331111903</v>
       </c>
-      <c r="B53" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+      <c r="B61" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>42331110335</v>
       </c>
-      <c r="B54" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+      <c r="B62" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>42331110314</v>
       </c>
-      <c r="B55" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+      <c r="B63" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>42331111541</v>
       </c>
-      <c r="B56" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="B64" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>42331111547</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>42332410323</v>
       </c>
-      <c r="B57" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+      <c r="B66" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>42332210701</v>
       </c>
-      <c r="B58" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+      <c r="B67" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>42331111370</v>
       </c>
-      <c r="B59" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+      <c r="B68" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>42331111727</v>
       </c>
-      <c r="B60" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+      <c r="B69" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>42331111847</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>42331111711</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>42331110698</v>
       </c>
-      <c r="B61" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+      <c r="B72" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>42331111150</v>
       </c>
-      <c r="B62" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="B73" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>42331111010</v>
       </c>
-      <c r="B63" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+      <c r="B74" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>42331110371</v>
       </c>
-      <c r="B64" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+      <c r="B75" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>42331111860</v>
       </c>
-      <c r="B65" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
+      <c r="B76" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>42332410410</v>
       </c>
-      <c r="B66" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+      <c r="B77" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>42333110438</v>
       </c>
-      <c r="B67" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
+      <c r="B78" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>42331110944</v>
       </c>
-      <c r="B68" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="B79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>42331111646</v>
       </c>
-      <c r="B69" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+      <c r="B80" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>42331111745</v>
       </c>
-      <c r="B70" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="B81" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>42332210508</v>
       </c>
-      <c r="B71" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+      <c r="B82" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>42331110442</v>
       </c>
-      <c r="B72" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="B83" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>42331111065</v>
       </c>
-      <c r="B73" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
+      <c r="B84" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>42331111130</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>42332211161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>42331111308</v>
       </c>
-      <c r="B74" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+      <c r="B87" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>42331110017</v>
       </c>
-      <c r="B75" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
+      <c r="B88" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>42332210245</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>42332220280</v>
       </c>
-      <c r="B76" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="B90" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>42331111673</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>42331110938</v>
       </c>
-      <c r="B77" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
+      <c r="B92" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>42331110849</v>
       </c>
-      <c r="B78" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+      <c r="B93" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>42331110396</v>
       </c>
-      <c r="B79" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
+      <c r="B94" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>42331111826</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>42331110510</v>
       </c>
-      <c r="B80" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+      <c r="B96" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>42331110387</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>42331111776</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>42332410567</v>
       </c>
-      <c r="B81" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
+      <c r="B99" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>42331112200</v>
       </c>
-      <c r="B82" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
+      <c r="B100" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>42333111762</v>
       </c>
-      <c r="B83" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
+      <c r="B101" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>42332210503</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>42331110795</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>42331111076</v>
       </c>
-      <c r="B84" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+      <c r="B104" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>42331111000</v>
       </c>
-      <c r="B85" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
+      <c r="B105" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>42331111835</v>
       </c>
-      <c r="B86" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+      <c r="B106" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>42331111430</v>
       </c>
-      <c r="B87" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
+      <c r="B107" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>42331110828</v>
       </c>
-      <c r="B88" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+      <c r="B108" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>42315112136</v>
       </c>
-      <c r="B89" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
+      <c r="B109" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>42331110472</v>
       </c>
-      <c r="B90" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+      <c r="B110" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>42331111366</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>42331111895</v>
       </c>
-      <c r="B91" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
+      <c r="B112" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>42332210744</v>
       </c>
-      <c r="B92" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+      <c r="B113" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>42331111962</v>
       </c>
-      <c r="B93" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
+      <c r="B114" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>42331111019</v>
       </c>
-      <c r="B94" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+      <c r="B115" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>42331110559</v>
       </c>
-      <c r="B95" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
+      <c r="B116" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>42331112032</v>
       </c>
-      <c r="B96" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+      <c r="B117" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>42331110781</v>
       </c>
-      <c r="B97" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
+      <c r="B118" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>42331111629</v>
       </c>
-      <c r="B98" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+      <c r="B119" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>42332210721</v>
       </c>
-      <c r="B99" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
+      <c r="B120" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>42331110600</v>
       </c>
-      <c r="B100" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+      <c r="B121" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>42331111188</v>
       </c>
-      <c r="B101" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
+      <c r="B122" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>42331111648</v>
       </c>
-      <c r="B102" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
+      <c r="B123" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>42331111411</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>42331110058</v>
       </c>
-      <c r="B103" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4">
+      <c r="B125" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>42331110121</v>
       </c>
-      <c r="B104" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
+      <c r="B126" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>42331111570</v>
       </c>
-      <c r="B105" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
+      <c r="B127" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>42331111516</v>
       </c>
-      <c r="B106" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
+      <c r="B128" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>42331110430</v>
       </c>
-      <c r="B107" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4">
+      <c r="B129" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>42331112059</v>
       </c>
-      <c r="B108" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
+      <c r="B130" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>42331110964</v>
       </c>
-      <c r="B109" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
+      <c r="B131" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>42331110224</v>
       </c>
-      <c r="B110" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
+      <c r="B132" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>42331111696</v>
       </c>
-      <c r="B111" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
+      <c r="B133" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>42331111303</v>
       </c>
-      <c r="B112" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
+      <c r="B134" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>42331110958</v>
       </c>
-      <c r="B113" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4">
+      <c r="B135" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>42332210792</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>42333112068</v>
       </c>
-      <c r="B114" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4">
+      <c r="B137" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>42331111605</v>
       </c>
-      <c r="B115" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4">
+      <c r="B138" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>42331110480</v>
       </c>
-      <c r="B116" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4">
+      <c r="B139" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>42331111542</v>
       </c>
-      <c r="B117" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="4">
+      <c r="B140" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>42331111612</v>
       </c>
-      <c r="B118" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
+      <c r="B141" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>42331110856</v>
       </c>
-      <c r="B119" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4">
+      <c r="B142" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>42331110809</v>
       </c>
-      <c r="B120" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4">
+      <c r="B143" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>42332210376</v>
       </c>
-      <c r="B121" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="4">
+      <c r="B144" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>42331110649</v>
       </c>
-      <c r="B122" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="4">
+      <c r="B145" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>42331111248</v>
       </c>
-      <c r="B123" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4">
+      <c r="B146" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>42331111614</v>
       </c>
-      <c r="B124" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="4">
+      <c r="B147" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>42331111147</v>
       </c>
-      <c r="B125" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
+      <c r="B148" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>42331111529</v>
       </c>
-      <c r="B126" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
+      <c r="B149" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>42331110741</v>
       </c>
-      <c r="B127" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="4">
+      <c r="B150" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>42331110414</v>
       </c>
-      <c r="B128" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
+      <c r="B151" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>42331110820</v>
       </c>
-      <c r="B129" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
+      <c r="B152" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>42331110095</v>
       </c>
-      <c r="B130" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="4">
+      <c r="B153" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>42332220303</v>
       </c>
-      <c r="B131" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="4">
+      <c r="B154" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>42331110873</v>
       </c>
-      <c r="B132" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="4">
+      <c r="B155" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>42331110754</v>
       </c>
-      <c r="B133" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="4">
+      <c r="B156" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>42331111913</v>
       </c>
-      <c r="B134" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="4">
+      <c r="B157" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>42331111717</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
         <v>42331111662</v>
       </c>
-      <c r="B135" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="4">
+      <c r="B159" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>42331110094</v>
       </c>
-      <c r="B136" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4">
+      <c r="B160" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>42331110049</v>
       </c>
-      <c r="B137" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="4">
+      <c r="B161" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>42331111471</v>
       </c>
-      <c r="B138" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4">
+      <c r="B162" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
         <v>42331110832</v>
       </c>
-      <c r="B139" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="4">
+      <c r="B163" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
         <v>42331111336</v>
       </c>
-      <c r="B140" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="4">
+      <c r="B164" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>42331110863</v>
       </c>
-      <c r="B141" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="4">
+      <c r="B165" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
         <v>42331111672</v>
       </c>
-      <c r="B142" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="4">
+      <c r="B166" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>42331111459</v>
       </c>
-      <c r="B143" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="4">
+      <c r="B167" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
         <v>42331110906</v>
       </c>
-      <c r="B144" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="4">
+      <c r="B168" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>42333410160</v>
       </c>
-      <c r="B145" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
+      <c r="B169" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>42331110704</v>
       </c>
-      <c r="B146" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
+      <c r="B170" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>42331111291</v>
       </c>
-      <c r="B147" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
+      <c r="B171" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>42331111886</v>
       </c>
-      <c r="B148" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
+      <c r="B172" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
         <v>42331110930</v>
       </c>
-      <c r="B149" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
+      <c r="B173" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
         <v>42331110369</v>
       </c>
-      <c r="B150" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+      <c r="B174" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
         <v>42332210194</v>
       </c>
-      <c r="B151" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+      <c r="B175" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
         <v>42331111766</v>
       </c>
-      <c r="B152" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
+      <c r="B176" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>42331110080</v>
       </c>
-      <c r="B153" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
+      <c r="B177" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
         <v>42332220404</v>
       </c>
-      <c r="B154" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+      <c r="B178" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
         <v>42331111452</v>
       </c>
-      <c r="B155" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+      <c r="B179" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
         <v>42331110919</v>
       </c>
-      <c r="B156" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+      <c r="B180" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
         <v>42333410264</v>
       </c>
-      <c r="B157" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
+      <c r="B181" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
         <v>42331111322</v>
       </c>
-      <c r="B158" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
+      <c r="B182" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
         <v>42332220058</v>
       </c>
-      <c r="B159" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
+      <c r="B183" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
         <v>42331111478</v>
       </c>
-      <c r="B160" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
+      <c r="B184" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
         <v>42331110168</v>
       </c>
-      <c r="B161" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
+      <c r="B185" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
         <v>42331111503</v>
       </c>
-      <c r="B162" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
+      <c r="B186" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>42331111342</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
         <v>42331112104</v>
       </c>
-      <c r="B163" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="4">
+      <c r="B188" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
         <v>42332220091</v>
       </c>
-      <c r="B164" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="4">
+      <c r="B189" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
         <v>42331111622</v>
       </c>
-      <c r="B165" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="4">
+      <c r="B190" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
         <v>42331110521</v>
       </c>
-      <c r="B166" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="4">
+      <c r="B191" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>42331110680</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
         <v>42331111298</v>
       </c>
-      <c r="B167" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="4">
+      <c r="B193" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
         <v>42331110748</v>
       </c>
-      <c r="B168" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="4">
+      <c r="B194" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
         <v>42331111768</v>
       </c>
-      <c r="B169" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="4">
+      <c r="B195" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
         <v>42331112145</v>
       </c>
-      <c r="B170" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="4">
+      <c r="B196" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
         <v>42331110541</v>
       </c>
-      <c r="B171" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="4">
+      <c r="B197" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
         <v>42331110546</v>
       </c>
-      <c r="B172" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="4">
+      <c r="B198" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
         <v>42331110639</v>
       </c>
-      <c r="B173" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="4">
+      <c r="B199" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
         <v>42331112043</v>
       </c>
-      <c r="B174" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="4">
+      <c r="B200" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
         <v>42331112106</v>
       </c>
-      <c r="B175" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="4">
+      <c r="B201" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
         <v>42331111554</v>
       </c>
-      <c r="B176" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="4">
+      <c r="B202" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
         <v>42331111773</v>
       </c>
-      <c r="B177" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="4">
+      <c r="B203" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
         <v>42331111736</v>
       </c>
-      <c r="B178" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="4">
+      <c r="B204" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
         <v>42331111949</v>
       </c>
-      <c r="B179" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="4">
+      <c r="B205" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
         <v>42331111092</v>
       </c>
-      <c r="B180" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="4">
+      <c r="B206" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
         <v>42332210933</v>
       </c>
-      <c r="B181" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="4">
+      <c r="B207" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
         <v>42331111027</v>
       </c>
-      <c r="B182" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="4">
+      <c r="B208" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
         <v>42332210310</v>
       </c>
-      <c r="B183" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="4">
+      <c r="B209" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>42331111751</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
         <v>42331111966</v>
       </c>
-      <c r="B184" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="4">
+      <c r="B211" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
         <v>42331111185</v>
       </c>
-      <c r="B185" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="4">
+      <c r="B212" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>42331111705</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
         <v>42331111793</v>
       </c>
-      <c r="B186" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="4">
+      <c r="B214" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
         <v>42331111032</v>
       </c>
-      <c r="B187" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="4">
+      <c r="B215" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
         <v>42331110493</v>
       </c>
-      <c r="B188" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="4">
+      <c r="B216" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
         <v>42331110052</v>
       </c>
-      <c r="B189" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="4">
+      <c r="B217" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
         <v>42331110752</v>
       </c>
-      <c r="B190" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="4">
+      <c r="B218" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
         <v>42331112066</v>
       </c>
-      <c r="B191" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="4">
+      <c r="B219" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
         <v>42331111746</v>
       </c>
-      <c r="B192" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="4">
+      <c r="B220" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
         <v>42331110885</v>
       </c>
-      <c r="B193" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="4">
+      <c r="B221" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
         <v>42331111934</v>
       </c>
-      <c r="B194" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="4">
+      <c r="B222" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
         <v>42331110615</v>
       </c>
-      <c r="B195" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="4">
+      <c r="B223" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
         <v>42331111740</v>
       </c>
-      <c r="B196" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="4">
+      <c r="B224" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
         <v>42332410322</v>
       </c>
-      <c r="B197" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="4">
+      <c r="B225" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
         <v>42331111912</v>
       </c>
-      <c r="B198" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="4">
+      <c r="B226" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
         <v>42331110578</v>
       </c>
-      <c r="B199" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="4">
+      <c r="B227" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
         <v>42331111825</v>
       </c>
-      <c r="B200" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="4">
+      <c r="B228" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
         <v>42331110695</v>
       </c>
-      <c r="B201" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="4">
+      <c r="B229" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>42331112113</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
         <v>42331110118</v>
       </c>
-      <c r="B202" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="4">
+      <c r="B231" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
         <v>42331111047</v>
       </c>
-      <c r="B203" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="4">
+      <c r="B232" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
         <v>42331110346</v>
       </c>
-      <c r="B204" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="4">
+      <c r="B233" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
         <v>42331111062</v>
       </c>
-      <c r="B205" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="4">
+      <c r="B234" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
         <v>42331111697</v>
       </c>
-      <c r="B206" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="4">
+      <c r="B235" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
         <v>42331111661</v>
       </c>
-      <c r="B207" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="4">
+      <c r="B236" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
         <v>42332410560</v>
       </c>
-      <c r="B208" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="4">
+      <c r="B237" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
         <v>42331111021</v>
       </c>
-      <c r="B209" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="4">
+      <c r="B238" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
         <v>42331111552</v>
       </c>
-      <c r="B210" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="4">
+      <c r="B239" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
         <v>42331111216</v>
       </c>
-      <c r="B211" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="4">
+      <c r="B240" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
         <v>42331111967</v>
       </c>
-      <c r="B212" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="4">
+      <c r="B241" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
         <v>42331111512</v>
       </c>
-      <c r="B213" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="4">
+      <c r="B242" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
         <v>42331111378</v>
       </c>
-      <c r="B214" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="4">
+      <c r="B243" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
         <v>42331111408</v>
       </c>
-      <c r="B215" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="4">
+      <c r="B244" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>42331110924</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
         <v>42331111077</v>
       </c>
-      <c r="B216" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="4">
+      <c r="B246" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
         <v>42332210422</v>
       </c>
-      <c r="B217" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="4">
+      <c r="B247" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
         <v>42331110664</v>
       </c>
-      <c r="B218" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="4">
+      <c r="B248" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
         <v>42331111753</v>
       </c>
-      <c r="B219" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="4">
+      <c r="B249" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
         <v>42332211118</v>
       </c>
-      <c r="B220" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="4">
+      <c r="B250" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
         <v>42331110957</v>
       </c>
-      <c r="B221" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="4">
+      <c r="B251" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
         <v>42331111215</v>
       </c>
-      <c r="B222" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B223" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B224" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B238" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B239" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B240" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B241" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B248" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B251" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>1047</v>
       </c>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\03_SMM\23smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C076521D-9B5D-48C7-98B3-26658F93C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC0ADD-6504-4B91-8622-6CF8EF1E3886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21063,9 +21063,9 @@
         <f>VLOOKUP(D189,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB189" t="e">
+      <c r="AB189" t="str">
         <f>VLOOKUP(A189,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.3">
@@ -21729,9 +21729,9 @@
         <f>VLOOKUP(D198,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>53</v>
       </c>
-      <c r="AB198" t="e">
+      <c r="AB198" t="str">
         <f>VLOOKUP(A198,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.3">
@@ -23431,9 +23431,9 @@
         <f>VLOOKUP(D221,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB221" t="e">
+      <c r="AB221" t="str">
         <f>VLOOKUP(A221,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.3">
@@ -28018,9 +28018,9 @@
         <f>VLOOKUP(D283,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="AB283" t="e">
+      <c r="AB283" t="str">
         <f>VLOOKUP(A283,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.3">
@@ -28314,9 +28314,9 @@
         <f>VLOOKUP(D287,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>76</v>
       </c>
-      <c r="AB287" t="e">
+      <c r="AB287" t="str">
         <f>VLOOKUP(A287,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.3">
@@ -29202,9 +29202,9 @@
         <f>VLOOKUP(D299,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>144</v>
       </c>
-      <c r="AB299" t="e">
+      <c r="AB299" t="str">
         <f>VLOOKUP(A299,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.3">
@@ -33639,9 +33639,9 @@
         <f>VLOOKUP(D359,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>324</v>
       </c>
-      <c r="AB359" t="e">
+      <c r="AB359" t="str">
         <f>VLOOKUP(A359,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="360" spans="1:28" x14ac:dyDescent="0.3">
@@ -35413,9 +35413,9 @@
         <f>VLOOKUP(D383,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>119</v>
       </c>
-      <c r="AB383" t="e">
+      <c r="AB383" t="str">
         <f>VLOOKUP(A383,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="384" spans="1:28" x14ac:dyDescent="0.3">
@@ -36892,9 +36892,9 @@
         <f>VLOOKUP(D403,[2]Worksheet!$B$2:$H$44,7,FALSE)</f>
         <v>156</v>
       </c>
-      <c r="AB403" t="e">
+      <c r="AB403" t="str">
         <f>VLOOKUP(A403,nim!$A$2:$B$3000,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>diterima</v>
       </c>
     </row>
     <row r="404" spans="1:28" x14ac:dyDescent="0.3">
@@ -60695,7 +60695,7 @@
   <dimension ref="A1:G2465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A2" sqref="A2:A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61701,7 +61701,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>42331110058</v>
+        <v>42331110881</v>
       </c>
       <c r="B125" t="s">
         <v>1047</v>
@@ -61709,7 +61709,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>42331110121</v>
+        <v>42331110058</v>
       </c>
       <c r="B126" t="s">
         <v>1047</v>
@@ -61717,7 +61717,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>42331111570</v>
+        <v>42331110121</v>
       </c>
       <c r="B127" t="s">
         <v>1047</v>
@@ -61725,7 +61725,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>42331111516</v>
+        <v>42331111570</v>
       </c>
       <c r="B128" t="s">
         <v>1047</v>
@@ -61733,7 +61733,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>42331110430</v>
+        <v>42331111516</v>
       </c>
       <c r="B129" t="s">
         <v>1047</v>
@@ -61741,7 +61741,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>42331112059</v>
+        <v>42331110430</v>
       </c>
       <c r="B130" t="s">
         <v>1047</v>
@@ -61749,7 +61749,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>42331110964</v>
+        <v>42331112059</v>
       </c>
       <c r="B131" t="s">
         <v>1047</v>
@@ -61757,7 +61757,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>42331110224</v>
+        <v>42331110988</v>
       </c>
       <c r="B132" t="s">
         <v>1047</v>
@@ -61765,7 +61765,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>42331111696</v>
+        <v>42331110964</v>
       </c>
       <c r="B133" t="s">
         <v>1047</v>
@@ -61773,7 +61773,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>42331111303</v>
+        <v>42331110224</v>
       </c>
       <c r="B134" t="s">
         <v>1047</v>
@@ -61781,7 +61781,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>42331110958</v>
+        <v>42331111696</v>
       </c>
       <c r="B135" t="s">
         <v>1047</v>
@@ -61789,7 +61789,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>42332210792</v>
+        <v>42331111303</v>
       </c>
       <c r="B136" t="s">
         <v>1047</v>
@@ -61797,7 +61797,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>42333112068</v>
+        <v>42331110958</v>
       </c>
       <c r="B137" t="s">
         <v>1047</v>
@@ -61805,7 +61805,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>42331111605</v>
+        <v>42332210792</v>
       </c>
       <c r="B138" t="s">
         <v>1047</v>
@@ -61813,7 +61813,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>42331110480</v>
+        <v>42333112068</v>
       </c>
       <c r="B139" t="s">
         <v>1047</v>
@@ -61821,7 +61821,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>42331111542</v>
+        <v>42331111605</v>
       </c>
       <c r="B140" t="s">
         <v>1047</v>
@@ -61829,7 +61829,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>42331111612</v>
+        <v>42331110480</v>
       </c>
       <c r="B141" t="s">
         <v>1047</v>
@@ -61837,7 +61837,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>42331110856</v>
+        <v>42331111719</v>
       </c>
       <c r="B142" t="s">
         <v>1047</v>
@@ -61845,7 +61845,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>42331110809</v>
+        <v>42331111542</v>
       </c>
       <c r="B143" t="s">
         <v>1047</v>
@@ -61853,7 +61853,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>42332210376</v>
+        <v>42331111612</v>
       </c>
       <c r="B144" t="s">
         <v>1047</v>
@@ -61861,7 +61861,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>42331110649</v>
+        <v>42331110856</v>
       </c>
       <c r="B145" t="s">
         <v>1047</v>
@@ -61869,7 +61869,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>42331111248</v>
+        <v>42331110809</v>
       </c>
       <c r="B146" t="s">
         <v>1047</v>
@@ -61877,7 +61877,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>42331111614</v>
+        <v>42332210376</v>
       </c>
       <c r="B147" t="s">
         <v>1047</v>
@@ -61885,7 +61885,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>42331111147</v>
+        <v>42331110649</v>
       </c>
       <c r="B148" t="s">
         <v>1047</v>
@@ -61893,7 +61893,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>42331111529</v>
+        <v>42331111248</v>
       </c>
       <c r="B149" t="s">
         <v>1047</v>
@@ -61901,7 +61901,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>42331110741</v>
+        <v>42331111614</v>
       </c>
       <c r="B150" t="s">
         <v>1047</v>
@@ -61909,7 +61909,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>42331110414</v>
+        <v>42331111147</v>
       </c>
       <c r="B151" t="s">
         <v>1047</v>
@@ -61917,7 +61917,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>42331110820</v>
+        <v>42331111529</v>
       </c>
       <c r="B152" t="s">
         <v>1047</v>
@@ -61925,7 +61925,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>42331110095</v>
+        <v>42331110741</v>
       </c>
       <c r="B153" t="s">
         <v>1047</v>
@@ -61933,7 +61933,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>42332220303</v>
+        <v>42331110414</v>
       </c>
       <c r="B154" t="s">
         <v>1047</v>
@@ -61941,7 +61941,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>42331110873</v>
+        <v>42331110820</v>
       </c>
       <c r="B155" t="s">
         <v>1047</v>
@@ -61949,7 +61949,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>42331110754</v>
+        <v>42331110095</v>
       </c>
       <c r="B156" t="s">
         <v>1047</v>
@@ -61957,7 +61957,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>42331111913</v>
+        <v>42332220303</v>
       </c>
       <c r="B157" t="s">
         <v>1047</v>
@@ -61965,7 +61965,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>42331111717</v>
+        <v>42331110873</v>
       </c>
       <c r="B158" t="s">
         <v>1047</v>
@@ -61973,7 +61973,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>42331111662</v>
+        <v>42331110754</v>
       </c>
       <c r="B159" t="s">
         <v>1047</v>
@@ -61981,7 +61981,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>42331110094</v>
+        <v>42331111913</v>
       </c>
       <c r="B160" t="s">
         <v>1047</v>
@@ -61989,7 +61989,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>42331110049</v>
+        <v>42331111717</v>
       </c>
       <c r="B161" t="s">
         <v>1047</v>
@@ -61997,7 +61997,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>42331111471</v>
+        <v>42331111662</v>
       </c>
       <c r="B162" t="s">
         <v>1047</v>
@@ -62005,7 +62005,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>42331110832</v>
+        <v>42331110094</v>
       </c>
       <c r="B163" t="s">
         <v>1047</v>
@@ -62013,7 +62013,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>42331111336</v>
+        <v>42331110049</v>
       </c>
       <c r="B164" t="s">
         <v>1047</v>
@@ -62021,7 +62021,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>42331110863</v>
+        <v>42331111471</v>
       </c>
       <c r="B165" t="s">
         <v>1047</v>
@@ -62029,7 +62029,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>42331111672</v>
+        <v>42331110832</v>
       </c>
       <c r="B166" t="s">
         <v>1047</v>
@@ -62037,7 +62037,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>42331111459</v>
+        <v>42331111336</v>
       </c>
       <c r="B167" t="s">
         <v>1047</v>
@@ -62045,7 +62045,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>42331110906</v>
+        <v>42331110863</v>
       </c>
       <c r="B168" t="s">
         <v>1047</v>
@@ -62053,7 +62053,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>42333410160</v>
+        <v>42331111672</v>
       </c>
       <c r="B169" t="s">
         <v>1047</v>
@@ -62061,7 +62061,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>42331110704</v>
+        <v>42331111459</v>
       </c>
       <c r="B170" t="s">
         <v>1047</v>
@@ -62069,7 +62069,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>42331111291</v>
+        <v>42331110906</v>
       </c>
       <c r="B171" t="s">
         <v>1047</v>
@@ -62077,7 +62077,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>42331111886</v>
+        <v>42333410160</v>
       </c>
       <c r="B172" t="s">
         <v>1047</v>
@@ -62085,7 +62085,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>42331110930</v>
+        <v>42331110704</v>
       </c>
       <c r="B173" t="s">
         <v>1047</v>
@@ -62093,7 +62093,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>42331110369</v>
+        <v>42331111291</v>
       </c>
       <c r="B174" t="s">
         <v>1047</v>
@@ -62101,7 +62101,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>42332210194</v>
+        <v>42331111886</v>
       </c>
       <c r="B175" t="s">
         <v>1047</v>
@@ -62109,7 +62109,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>42331111766</v>
+        <v>42331112111</v>
       </c>
       <c r="B176" t="s">
         <v>1047</v>
@@ -62117,7 +62117,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>42331110080</v>
+        <v>42331110930</v>
       </c>
       <c r="B177" t="s">
         <v>1047</v>
@@ -62125,7 +62125,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>42332220404</v>
+        <v>42331110369</v>
       </c>
       <c r="B178" t="s">
         <v>1047</v>
@@ -62133,7 +62133,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>42331111452</v>
+        <v>42332210194</v>
       </c>
       <c r="B179" t="s">
         <v>1047</v>
@@ -62141,7 +62141,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>42331110919</v>
+        <v>42332210719</v>
       </c>
       <c r="B180" t="s">
         <v>1047</v>
@@ -62149,7 +62149,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>42333410264</v>
+        <v>42331111766</v>
       </c>
       <c r="B181" t="s">
         <v>1047</v>
@@ -62157,7 +62157,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>42331111322</v>
+        <v>42331110080</v>
       </c>
       <c r="B182" t="s">
         <v>1047</v>
@@ -62165,7 +62165,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>42332220058</v>
+        <v>42332220404</v>
       </c>
       <c r="B183" t="s">
         <v>1047</v>
@@ -62173,7 +62173,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>42331111478</v>
+        <v>42331111452</v>
       </c>
       <c r="B184" t="s">
         <v>1047</v>
@@ -62181,7 +62181,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>42331110168</v>
+        <v>42331110919</v>
       </c>
       <c r="B185" t="s">
         <v>1047</v>
@@ -62189,7 +62189,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>42331111503</v>
+        <v>42333410264</v>
       </c>
       <c r="B186" t="s">
         <v>1047</v>
@@ -62197,7 +62197,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>42331111342</v>
+        <v>42331111322</v>
       </c>
       <c r="B187" t="s">
         <v>1047</v>
@@ -62205,7 +62205,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>42331112104</v>
+        <v>42331111844</v>
       </c>
       <c r="B188" t="s">
         <v>1047</v>
@@ -62213,7 +62213,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>42332220091</v>
+        <v>42332220058</v>
       </c>
       <c r="B189" t="s">
         <v>1047</v>
@@ -62221,7 +62221,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>42331111622</v>
+        <v>42331111478</v>
       </c>
       <c r="B190" t="s">
         <v>1047</v>
@@ -62229,7 +62229,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>42331110521</v>
+        <v>42331110168</v>
       </c>
       <c r="B191" t="s">
         <v>1047</v>
@@ -62237,7 +62237,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>42331110680</v>
+        <v>42331111503</v>
       </c>
       <c r="B192" t="s">
         <v>1047</v>
@@ -62245,7 +62245,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>42331111298</v>
+        <v>42331111342</v>
       </c>
       <c r="B193" t="s">
         <v>1047</v>
@@ -62253,7 +62253,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>42331110748</v>
+        <v>42331112104</v>
       </c>
       <c r="B194" t="s">
         <v>1047</v>
@@ -62261,7 +62261,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>42331111768</v>
+        <v>42332220091</v>
       </c>
       <c r="B195" t="s">
         <v>1047</v>
@@ -62269,7 +62269,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>42331112145</v>
+        <v>42331111622</v>
       </c>
       <c r="B196" t="s">
         <v>1047</v>
@@ -62277,7 +62277,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>42331110541</v>
+        <v>42331110521</v>
       </c>
       <c r="B197" t="s">
         <v>1047</v>
@@ -62285,7 +62285,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>42331110546</v>
+        <v>42331110680</v>
       </c>
       <c r="B198" t="s">
         <v>1047</v>
@@ -62293,7 +62293,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>42331110639</v>
+        <v>42331111298</v>
       </c>
       <c r="B199" t="s">
         <v>1047</v>
@@ -62301,7 +62301,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>42331112043</v>
+        <v>42331110748</v>
       </c>
       <c r="B200" t="s">
         <v>1047</v>
@@ -62309,7 +62309,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>42331112106</v>
+        <v>42331111768</v>
       </c>
       <c r="B201" t="s">
         <v>1047</v>
@@ -62317,7 +62317,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>42331111554</v>
+        <v>42331112145</v>
       </c>
       <c r="B202" t="s">
         <v>1047</v>
@@ -62325,7 +62325,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>42331111773</v>
+        <v>42331110541</v>
       </c>
       <c r="B203" t="s">
         <v>1047</v>
@@ -62333,7 +62333,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>42331111736</v>
+        <v>42331110546</v>
       </c>
       <c r="B204" t="s">
         <v>1047</v>
@@ -62341,7 +62341,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>42331111949</v>
+        <v>42331110639</v>
       </c>
       <c r="B205" t="s">
         <v>1047</v>
@@ -62349,7 +62349,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>42331111092</v>
+        <v>42331112043</v>
       </c>
       <c r="B206" t="s">
         <v>1047</v>
@@ -62357,7 +62357,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>42332210933</v>
+        <v>42331112106</v>
       </c>
       <c r="B207" t="s">
         <v>1047</v>
@@ -62365,7 +62365,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>42331111027</v>
+        <v>42331111554</v>
       </c>
       <c r="B208" t="s">
         <v>1047</v>
@@ -62373,7 +62373,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>42332210310</v>
+        <v>42331111773</v>
       </c>
       <c r="B209" t="s">
         <v>1047</v>
@@ -62381,7 +62381,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>42331111751</v>
+        <v>42331111736</v>
       </c>
       <c r="B210" t="s">
         <v>1047</v>
@@ -62389,7 +62389,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>42331111966</v>
+        <v>42331111949</v>
       </c>
       <c r="B211" t="s">
         <v>1047</v>
@@ -62397,7 +62397,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>42331111185</v>
+        <v>42331111092</v>
       </c>
       <c r="B212" t="s">
         <v>1047</v>
@@ -62405,7 +62405,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>42331111705</v>
+        <v>42332210933</v>
       </c>
       <c r="B213" t="s">
         <v>1047</v>
@@ -62413,7 +62413,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>42331111793</v>
+        <v>42331111027</v>
       </c>
       <c r="B214" t="s">
         <v>1047</v>
@@ -62421,7 +62421,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>42331111032</v>
+        <v>42332210310</v>
       </c>
       <c r="B215" t="s">
         <v>1047</v>
@@ -62429,7 +62429,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>42331110493</v>
+        <v>42331111751</v>
       </c>
       <c r="B216" t="s">
         <v>1047</v>
@@ -62437,7 +62437,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>42331110052</v>
+        <v>42331111966</v>
       </c>
       <c r="B217" t="s">
         <v>1047</v>
@@ -62445,7 +62445,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>42331110752</v>
+        <v>42331111185</v>
       </c>
       <c r="B218" t="s">
         <v>1047</v>
@@ -62453,7 +62453,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>42331112066</v>
+        <v>42331111705</v>
       </c>
       <c r="B219" t="s">
         <v>1047</v>
@@ -62461,7 +62461,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>42331111746</v>
+        <v>42331111793</v>
       </c>
       <c r="B220" t="s">
         <v>1047</v>
@@ -62469,7 +62469,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>42331110885</v>
+        <v>42331111032</v>
       </c>
       <c r="B221" t="s">
         <v>1047</v>
@@ -62477,7 +62477,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>42331111934</v>
+        <v>42331110493</v>
       </c>
       <c r="B222" t="s">
         <v>1047</v>
@@ -62485,7 +62485,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>42331110615</v>
+        <v>42331110052</v>
       </c>
       <c r="B223" t="s">
         <v>1047</v>
@@ -62493,7 +62493,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>42331111740</v>
+        <v>42331110752</v>
       </c>
       <c r="B224" t="s">
         <v>1047</v>
@@ -62501,7 +62501,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>42332410322</v>
+        <v>42331112066</v>
       </c>
       <c r="B225" t="s">
         <v>1047</v>
@@ -62509,7 +62509,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>42331111912</v>
+        <v>42331111746</v>
       </c>
       <c r="B226" t="s">
         <v>1047</v>
@@ -62517,7 +62517,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>42331110578</v>
+        <v>42331110885</v>
       </c>
       <c r="B227" t="s">
         <v>1047</v>
@@ -62525,7 +62525,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>42331111825</v>
+        <v>42331111934</v>
       </c>
       <c r="B228" t="s">
         <v>1047</v>
@@ -62533,7 +62533,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>42331110695</v>
+        <v>42331110928</v>
       </c>
       <c r="B229" t="s">
         <v>1047</v>
@@ -62541,7 +62541,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>42331112113</v>
+        <v>42331110615</v>
       </c>
       <c r="B230" t="s">
         <v>1047</v>
@@ -62549,7 +62549,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>42331110118</v>
+        <v>42331111740</v>
       </c>
       <c r="B231" t="s">
         <v>1047</v>
@@ -62557,7 +62557,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>42331111047</v>
+        <v>42332410322</v>
       </c>
       <c r="B232" t="s">
         <v>1047</v>
@@ -62565,7 +62565,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>42331110346</v>
+        <v>42331111912</v>
       </c>
       <c r="B233" t="s">
         <v>1047</v>
@@ -62573,7 +62573,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>42331111062</v>
+        <v>42331110578</v>
       </c>
       <c r="B234" t="s">
         <v>1047</v>
@@ -62581,7 +62581,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>42331111697</v>
+        <v>42331111825</v>
       </c>
       <c r="B235" t="s">
         <v>1047</v>
@@ -62589,7 +62589,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>42331111661</v>
+        <v>42331110695</v>
       </c>
       <c r="B236" t="s">
         <v>1047</v>
@@ -62597,7 +62597,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>42332410560</v>
+        <v>42331112113</v>
       </c>
       <c r="B237" t="s">
         <v>1047</v>
@@ -62605,7 +62605,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>42331111021</v>
+        <v>42331110118</v>
       </c>
       <c r="B238" t="s">
         <v>1047</v>
@@ -62613,7 +62613,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>42331111552</v>
+        <v>42331111047</v>
       </c>
       <c r="B239" t="s">
         <v>1047</v>
@@ -62621,7 +62621,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>42331111216</v>
+        <v>42331110346</v>
       </c>
       <c r="B240" t="s">
         <v>1047</v>
@@ -62629,7 +62629,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>42331111967</v>
+        <v>42331111062</v>
       </c>
       <c r="B241" t="s">
         <v>1047</v>
@@ -62637,7 +62637,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>42331111512</v>
+        <v>42331111697</v>
       </c>
       <c r="B242" t="s">
         <v>1047</v>
@@ -62645,7 +62645,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>42331111378</v>
+        <v>42331112097</v>
       </c>
       <c r="B243" t="s">
         <v>1047</v>
@@ -62653,7 +62653,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>42331111408</v>
+        <v>42331111661</v>
       </c>
       <c r="B244" t="s">
         <v>1047</v>
@@ -62661,7 +62661,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>42331110924</v>
+        <v>42332410560</v>
       </c>
       <c r="B245" t="s">
         <v>1047</v>
@@ -62669,7 +62669,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>42331111077</v>
+        <v>42331111021</v>
       </c>
       <c r="B246" t="s">
         <v>1047</v>
@@ -62677,7 +62677,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>42332210422</v>
+        <v>42331111552</v>
       </c>
       <c r="B247" t="s">
         <v>1047</v>
@@ -62685,7 +62685,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>42331110664</v>
+        <v>42331111216</v>
       </c>
       <c r="B248" t="s">
         <v>1047</v>
@@ -62693,7 +62693,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>42331111753</v>
+        <v>42331111967</v>
       </c>
       <c r="B249" t="s">
         <v>1047</v>
@@ -62701,7 +62701,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>42332211118</v>
+        <v>42331111512</v>
       </c>
       <c r="B250" t="s">
         <v>1047</v>
@@ -62709,7 +62709,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>42331110957</v>
+        <v>42331111378</v>
       </c>
       <c r="B251" t="s">
         <v>1047</v>
@@ -62717,108 +62717,135 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
+        <v>42331111408</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>42331110924</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>42331111077</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>42332210422</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>42331110664</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>42331111219</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>42331111753</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>42332211118</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>42331110957</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
         <v>42331111215</v>
       </c>
-      <c r="B252" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B253" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B254" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B255" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B256" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B260" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>1047</v>
       </c>
